--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_1_branch_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_1_branch_resonant.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-5.731711525980114E-14</v>
+        <v>3.647452789260253E-14</v>
       </c>
       <c r="O2">
-        <v>1.042129505755642E-14</v>
+        <v>1.042129267725576E-14</v>
       </c>
       <c r="P2">
-        <v>-5.210646169364807E-15</v>
+        <v>-2.605323124934459E-14</v>
       </c>
       <c r="Q2">
-        <v>4.689582157620096E-14</v>
+        <v>-3.126388105080202E-14</v>
       </c>
       <c r="R2">
-        <v>5.211073717253251E-15</v>
+        <v>-5.210217581284991E-15</v>
       </c>
       <c r="S2">
-        <v>5.211074414043516E-15</v>
+        <v>2.605365949383843E-14</v>
       </c>
       <c r="T2">
-        <v>-8.084889041759081E-28</v>
+        <v>-5.210646841807386E-15</v>
       </c>
       <c r="U2">
-        <v>5.763387048127351E-09</v>
+        <v>5.763405285390421E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763381837488448E-09</v>
+        <v>-5.763397469428091E-09</v>
       </c>
       <c r="W2">
-        <v>6.632358697371592E-28</v>
+        <v>5.210646841806417E-15</v>
       </c>
       <c r="X2">
-        <v>-5.76338965296487E-09</v>
+        <v>-5.763394863610842E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763376627327497E-09</v>
+        <v>5.763397469913991E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1048,40 +1048,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023832353</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AG2">
-        <v>0.5500000119157885</v>
+        <v>0.550000011915705</v>
       </c>
       <c r="AH2">
-        <v>0.5500000119165461</v>
+        <v>0.5500000119164619</v>
       </c>
       <c r="AI2">
-        <v>1.100000023832354</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000118694189</v>
+        <v>0.550000011869336</v>
       </c>
       <c r="AK2">
-        <v>0.5500000119629148</v>
+        <v>0.5500000119628315</v>
       </c>
       <c r="AL2">
-        <v>8.081879519313969E-13</v>
+        <v>-1.081315333129462E-11</v>
       </c>
       <c r="AM2">
-        <v>179.999999999979</v>
+        <v>-179.9999999999827</v>
       </c>
       <c r="AN2">
-        <v>-179.999999999986</v>
+        <v>-179.9999999999633</v>
       </c>
       <c r="AO2">
-        <v>8.10319872440639E-13</v>
+        <v>-1.084362856715424E-11</v>
       </c>
       <c r="AP2">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957253</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999957421</v>
+        <v>179.9999999957648</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1125,40 +1125,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-3.126388105080085E-14</v>
+        <v>-5.210646841798526E-15</v>
       </c>
       <c r="O3">
-        <v>1.898741632292041E-19</v>
+        <v>1.906697927503185E-19</v>
       </c>
       <c r="P3">
-        <v>-5.210456734256886E-15</v>
+        <v>-1.563175118106621E-14</v>
       </c>
       <c r="Q3">
-        <v>2.084258736720057E-14</v>
+        <v>1.042129368359903E-14</v>
       </c>
       <c r="R3">
-        <v>1.563179823236329E-14</v>
+        <v>5.210503753889708E-15</v>
       </c>
       <c r="S3">
-        <v>5.210504317278516E-15</v>
+        <v>5.210505080853489E-15</v>
       </c>
       <c r="T3">
-        <v>1.563194052539988E-14</v>
+        <v>1.042129368360198E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921129015826495E-09</v>
+        <v>-1.921131621149626E-09</v>
       </c>
       <c r="V3">
-        <v>1.921134226907892E-09</v>
+        <v>1.92114985884813E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368359992E-14</v>
+        <v>-1.042129368360297E-14</v>
       </c>
       <c r="X3">
-        <v>1.921126410557064E-09</v>
+        <v>1.921142042497297E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921139437500746E-09</v>
+        <v>-1.921139437500455E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1179,40 +1179,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023832354</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AG3">
-        <v>0.5500000118539626</v>
+        <v>0.5500000118538797</v>
       </c>
       <c r="AH3">
-        <v>0.5500000119783711</v>
+        <v>0.550000011978288</v>
       </c>
       <c r="AI3">
-        <v>1.100000023832354</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000118694189</v>
+        <v>0.550000011869336</v>
       </c>
       <c r="AK3">
-        <v>0.5500000119629148</v>
+        <v>0.5500000119628315</v>
       </c>
       <c r="AL3">
-        <v>8.095782706833372E-13</v>
+        <v>-1.084680021540948E-11</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999943299</v>
+        <v>-179.9999999943062</v>
       </c>
       <c r="AN3">
-        <v>179.9999999943229</v>
+        <v>179.9999999943457</v>
       </c>
       <c r="AO3">
-        <v>8.10319872440639E-13</v>
+        <v>-1.084362856715424E-11</v>
       </c>
       <c r="AP3">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957253</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999957421</v>
+        <v>179.9999999957648</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.084258736720065E-14</v>
+        <v>-1.0421293683601E-14</v>
       </c>
       <c r="O4">
-        <v>-1.042110380967594E-14</v>
+        <v>-1.042110301404916E-14</v>
       </c>
       <c r="P4">
-        <v>1.563213063388139E-14</v>
+        <v>5.21083618527035E-15</v>
       </c>
       <c r="Q4">
-        <v>1.042129368360028E-14</v>
+        <v>1.042129368360001E-14</v>
       </c>
       <c r="R4">
-        <v>2.605309191507755E-14</v>
+        <v>1.563179743737857E-14</v>
       </c>
       <c r="S4">
-        <v>-1.563208305091994E-14</v>
+        <v>-5.210788602092748E-15</v>
       </c>
       <c r="T4">
-        <v>1.563194052540002E-14</v>
+        <v>1.973393925479417E-27</v>
       </c>
       <c r="U4">
-        <v>-1.921118594532813E-09</v>
+        <v>-1.921121199855945E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123805614206E-09</v>
+        <v>1.921129016260758E-09</v>
       </c>
       <c r="W4">
-        <v>-5.210646841799958E-15</v>
+        <v>-5.210646841802472E-15</v>
       </c>
       <c r="X4">
-        <v>1.921126410557065E-09</v>
+        <v>1.921131621203615E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.92112901620706E-09</v>
+        <v>-1.921118594913085E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1310,40 +1310,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023832354</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AG4">
-        <v>0.5500000118539626</v>
+        <v>0.5500000118538798</v>
       </c>
       <c r="AH4">
-        <v>0.5500000119783712</v>
+        <v>0.5500000119782881</v>
       </c>
       <c r="AI4">
-        <v>1.100000023832354</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000118694189</v>
+        <v>0.550000011869336</v>
       </c>
       <c r="AK4">
-        <v>0.5500000119629148</v>
+        <v>0.5500000119628315</v>
       </c>
       <c r="AL4">
-        <v>8.11411430098225E-13</v>
+        <v>-1.084962641678961E-11</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999943299</v>
+        <v>-179.9999999943062</v>
       </c>
       <c r="AN4">
-        <v>179.9999999943229</v>
+        <v>179.9999999943457</v>
       </c>
       <c r="AO4">
-        <v>8.10319872440639E-13</v>
+        <v>-1.084362856715424E-11</v>
       </c>
       <c r="AP4">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957253</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999957421</v>
+        <v>179.9999999957648</v>
       </c>
     </row>
   </sheetData>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052547874E-14</v>
+        <v>1.042129368365227E-14</v>
       </c>
       <c r="O2">
-        <v>-9.554663977386271E-10</v>
+        <v>-9.554871490287023E-10</v>
       </c>
       <c r="P2">
-        <v>-3.074956168080579E-09</v>
+        <v>-3.074963270404124E-09</v>
       </c>
       <c r="Q2">
-        <v>1.302661710456562E-14</v>
+        <v>-6.513308552282831E-15</v>
       </c>
       <c r="R2">
-        <v>9.554774621753048E-10</v>
+        <v>9.554823159631054E-10</v>
       </c>
       <c r="S2">
-        <v>3.074948800271326E-09</v>
+        <v>3.074961494899575E-09</v>
       </c>
       <c r="T2">
-        <v>-7.815970262739452E-15</v>
+        <v>-7.815970262740367E-15</v>
       </c>
       <c r="U2">
-        <v>4.027676193052869E-09</v>
+        <v>4.027696423866704E-09</v>
       </c>
       <c r="V2">
-        <v>-3.566371659542591E-10</v>
+        <v>-3.566259813448845E-10</v>
       </c>
       <c r="W2">
-        <v>5.210646841826312E-15</v>
+        <v>2.605323420913673E-15</v>
       </c>
       <c r="X2">
-        <v>-4.027675753260227E-09</v>
+        <v>-4.027697502399402E-09</v>
       </c>
       <c r="Y2">
-        <v>3.566364110313655E-10</v>
+        <v>3.566287775839613E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1585,40 +1585,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023837874</v>
+        <v>1.100000023837908</v>
       </c>
       <c r="AG2">
-        <v>0.9350396555956227</v>
+        <v>0.9350396555956489</v>
       </c>
       <c r="AH2">
-        <v>0.6992415818049222</v>
+        <v>0.6992415818048352</v>
       </c>
       <c r="AI2">
-        <v>1.100000023837875</v>
+        <v>1.100000023837907</v>
       </c>
       <c r="AJ2">
-        <v>0.9350396555805471</v>
+        <v>0.9350396555805737</v>
       </c>
       <c r="AK2">
-        <v>0.6992415818243295</v>
+        <v>0.6992415818242427</v>
       </c>
       <c r="AL2">
-        <v>2.385233448657011E-13</v>
+        <v>-4.090777010174528E-12</v>
       </c>
       <c r="AM2">
-        <v>-140.8543229646631</v>
+        <v>-140.8543229646578</v>
       </c>
       <c r="AN2">
-        <v>122.4159013159206</v>
+        <v>122.4159013159219</v>
       </c>
       <c r="AO2">
-        <v>2.335829837119259E-13</v>
+        <v>-4.102661770635593E-12</v>
       </c>
       <c r="AP2">
-        <v>-140.8543229633566</v>
+        <v>-140.8543229633513</v>
       </c>
       <c r="AQ2">
-        <v>122.415901317352</v>
+        <v>122.4159013173535</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1662,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-6.513308552282835E-15</v>
+        <v>1.302661710456603E-15</v>
       </c>
       <c r="O3">
-        <v>3.18493246562931E-10</v>
+        <v>3.184961423192096E-10</v>
       </c>
       <c r="P3">
-        <v>1.024992845800435E-09</v>
+        <v>1.024996662524023E-09</v>
       </c>
       <c r="Q3">
-        <v>3.907985131369705E-15</v>
+        <v>1.302661710456417E-15</v>
       </c>
       <c r="R3">
-        <v>-3.184856172600535E-10</v>
+        <v>-3.184975403868924E-10</v>
       </c>
       <c r="S3">
-        <v>-1.024989029068223E-09</v>
+        <v>-1.024994621372796E-09</v>
       </c>
       <c r="T3">
-        <v>2.605323420913103E-15</v>
+        <v>-9.329695945235119E-29</v>
       </c>
       <c r="U3">
-        <v>-1.342566533161577E-09</v>
+        <v>-1.342561320438218E-09</v>
       </c>
       <c r="V3">
-        <v>1.188837902392556E-10</v>
+        <v>1.188901375535873E-10</v>
       </c>
       <c r="W3">
-        <v>-2.605323420913114E-15</v>
+        <v>-2.6053234209133E-15</v>
       </c>
       <c r="X3">
-        <v>1.342564176724779E-09</v>
+        <v>1.342563037980782E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.188774429152991E-10</v>
+        <v>-1.18880994077279E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1716,40 +1716,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023837875</v>
+        <v>1.100000023837907</v>
       </c>
       <c r="AG3">
-        <v>0.9350396555755219</v>
+        <v>0.9350396555755485</v>
       </c>
       <c r="AH3">
-        <v>0.6992415818307985</v>
+        <v>0.6992415818307118</v>
       </c>
       <c r="AI3">
-        <v>1.100000023837875</v>
+        <v>1.100000023837907</v>
       </c>
       <c r="AJ3">
-        <v>0.9350396555805471</v>
+        <v>0.9350396555805737</v>
       </c>
       <c r="AK3">
-        <v>0.6992415818243295</v>
+        <v>0.6992415818242427</v>
       </c>
       <c r="AL3">
-        <v>2.324471726859347E-13</v>
+        <v>-4.103538144334488E-12</v>
       </c>
       <c r="AM3">
-        <v>-140.8543229629211</v>
+        <v>-140.8543229629159</v>
       </c>
       <c r="AN3">
-        <v>122.4159013178292</v>
+        <v>122.4159013178306</v>
       </c>
       <c r="AO3">
-        <v>2.335829837119259E-13</v>
+        <v>-4.102661770635593E-12</v>
       </c>
       <c r="AP3">
-        <v>-140.8543229633566</v>
+        <v>-140.8543229633513</v>
       </c>
       <c r="AQ3">
-        <v>122.415901317352</v>
+        <v>122.4159013173535</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.21064684182626E-15</v>
+        <v>-6.513308552282831E-15</v>
       </c>
       <c r="O4">
-        <v>3.184966816287881E-10</v>
+        <v>3.184836798827918E-10</v>
       </c>
       <c r="P4">
-        <v>1.024994621381419E-09</v>
+        <v>1.024989029076586E-09</v>
       </c>
       <c r="Q4">
-        <v>2.60532342091313E-15</v>
+        <v>7.815970262739248E-15</v>
       </c>
       <c r="R4">
-        <v>-3.184834600212079E-10</v>
+        <v>-3.184850779504748E-10</v>
       </c>
       <c r="S4">
-        <v>-1.024990804649208E-09</v>
+        <v>-1.024985212344374E-09</v>
       </c>
       <c r="T4">
-        <v>-2.134455973639468E-29</v>
+        <v>2.605323420913673E-15</v>
       </c>
       <c r="U4">
-        <v>-1.342563737009226E-09</v>
+        <v>-1.342560042611207E-09</v>
       </c>
       <c r="V4">
-        <v>1.188809940869041E-10</v>
+        <v>1.188774429249462E-10</v>
       </c>
       <c r="W4">
-        <v>1.062136205080382E-29</v>
+        <v>-5.210646841826974E-15</v>
       </c>
       <c r="X4">
-        <v>1.342554510440712E-09</v>
+        <v>1.342561760153771E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.188746467629476E-10</v>
+        <v>-1.188710956009896E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023837875</v>
+        <v>1.100000023837907</v>
       </c>
       <c r="AG4">
-        <v>0.935039655575522</v>
+        <v>0.9350396555755486</v>
       </c>
       <c r="AH4">
-        <v>0.6992415818307985</v>
+        <v>0.6992415818307117</v>
       </c>
       <c r="AI4">
-        <v>1.100000023837875</v>
+        <v>1.100000023837907</v>
       </c>
       <c r="AJ4">
-        <v>0.9350396555805471</v>
+        <v>0.9350396555805737</v>
       </c>
       <c r="AK4">
-        <v>0.6992415818243295</v>
+        <v>0.6992415818242427</v>
       </c>
       <c r="AL4">
-        <v>2.347027587138503E-13</v>
+        <v>-4.104255851318029E-12</v>
       </c>
       <c r="AM4">
-        <v>-140.8543229629211</v>
+        <v>-140.8543229629159</v>
       </c>
       <c r="AN4">
-        <v>122.4159013178292</v>
+        <v>122.4159013178306</v>
       </c>
       <c r="AO4">
-        <v>2.335829837119259E-13</v>
+        <v>-4.102661770635593E-12</v>
       </c>
       <c r="AP4">
-        <v>-140.8543229633566</v>
+        <v>-140.8543229633513</v>
       </c>
       <c r="AQ4">
-        <v>122.415901317352</v>
+        <v>122.4159013173535</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052547874E-14</v>
+        <v>1.042129368365227E-14</v>
       </c>
       <c r="O2">
-        <v>-9.554663977386271E-10</v>
+        <v>-9.554871490287023E-10</v>
       </c>
       <c r="P2">
-        <v>-3.074956168080579E-09</v>
+        <v>-3.074963270404124E-09</v>
       </c>
       <c r="Q2">
-        <v>1.302661710456562E-14</v>
+        <v>-6.513308552282831E-15</v>
       </c>
       <c r="R2">
-        <v>9.554774621753048E-10</v>
+        <v>9.554823159631054E-10</v>
       </c>
       <c r="S2">
-        <v>3.074948800271326E-09</v>
+        <v>3.074961494899575E-09</v>
       </c>
       <c r="T2">
-        <v>-7.815970262739452E-15</v>
+        <v>-7.815970262740367E-15</v>
       </c>
       <c r="U2">
-        <v>4.027676193052869E-09</v>
+        <v>4.027696423866704E-09</v>
       </c>
       <c r="V2">
-        <v>-3.566371659542591E-10</v>
+        <v>-3.566259813448845E-10</v>
       </c>
       <c r="W2">
-        <v>5.210646841826312E-15</v>
+        <v>2.605323420913673E-15</v>
       </c>
       <c r="X2">
-        <v>-4.027675753260227E-09</v>
+        <v>-4.027697502399402E-09</v>
       </c>
       <c r="Y2">
-        <v>3.566364110313655E-10</v>
+        <v>3.566287775839613E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2122,40 +2122,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023837874</v>
+        <v>1.100000023837908</v>
       </c>
       <c r="AG2">
-        <v>0.9350396555956227</v>
+        <v>0.9350396555956489</v>
       </c>
       <c r="AH2">
-        <v>0.6992415818049222</v>
+        <v>0.6992415818048352</v>
       </c>
       <c r="AI2">
-        <v>1.100000023837875</v>
+        <v>1.100000023837907</v>
       </c>
       <c r="AJ2">
-        <v>0.9350396555805471</v>
+        <v>0.9350396555805737</v>
       </c>
       <c r="AK2">
-        <v>0.6992415818243295</v>
+        <v>0.6992415818242427</v>
       </c>
       <c r="AL2">
-        <v>2.385233448657011E-13</v>
+        <v>-4.090777010174528E-12</v>
       </c>
       <c r="AM2">
-        <v>-140.8543229646631</v>
+        <v>-140.8543229646578</v>
       </c>
       <c r="AN2">
-        <v>122.4159013159206</v>
+        <v>122.4159013159219</v>
       </c>
       <c r="AO2">
-        <v>2.335829837119259E-13</v>
+        <v>-4.102661770635593E-12</v>
       </c>
       <c r="AP2">
-        <v>-140.8543229633566</v>
+        <v>-140.8543229633513</v>
       </c>
       <c r="AQ2">
-        <v>122.415901317352</v>
+        <v>122.4159013173535</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2199,40 +2199,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-6.513308552282835E-15</v>
+        <v>1.302661710456603E-15</v>
       </c>
       <c r="O3">
-        <v>3.18493246562931E-10</v>
+        <v>3.184961423192096E-10</v>
       </c>
       <c r="P3">
-        <v>1.024992845800435E-09</v>
+        <v>1.024996662524023E-09</v>
       </c>
       <c r="Q3">
-        <v>3.907985131369705E-15</v>
+        <v>1.302661710456417E-15</v>
       </c>
       <c r="R3">
-        <v>-3.184856172600535E-10</v>
+        <v>-3.184975403868924E-10</v>
       </c>
       <c r="S3">
-        <v>-1.024989029068223E-09</v>
+        <v>-1.024994621372796E-09</v>
       </c>
       <c r="T3">
-        <v>2.605323420913103E-15</v>
+        <v>-9.329695945235119E-29</v>
       </c>
       <c r="U3">
-        <v>-1.342566533161577E-09</v>
+        <v>-1.342561320438218E-09</v>
       </c>
       <c r="V3">
-        <v>1.188837902392556E-10</v>
+        <v>1.188901375535873E-10</v>
       </c>
       <c r="W3">
-        <v>-2.605323420913114E-15</v>
+        <v>-2.6053234209133E-15</v>
       </c>
       <c r="X3">
-        <v>1.342564176724779E-09</v>
+        <v>1.342563037980782E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.188774429152991E-10</v>
+        <v>-1.18880994077279E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2253,40 +2253,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023837875</v>
+        <v>1.100000023837907</v>
       </c>
       <c r="AG3">
-        <v>0.9350396555755219</v>
+        <v>0.9350396555755485</v>
       </c>
       <c r="AH3">
-        <v>0.6992415818307985</v>
+        <v>0.6992415818307118</v>
       </c>
       <c r="AI3">
-        <v>1.100000023837875</v>
+        <v>1.100000023837907</v>
       </c>
       <c r="AJ3">
-        <v>0.9350396555805471</v>
+        <v>0.9350396555805737</v>
       </c>
       <c r="AK3">
-        <v>0.6992415818243295</v>
+        <v>0.6992415818242427</v>
       </c>
       <c r="AL3">
-        <v>2.324471726859347E-13</v>
+        <v>-4.103538144334488E-12</v>
       </c>
       <c r="AM3">
-        <v>-140.8543229629211</v>
+        <v>-140.8543229629159</v>
       </c>
       <c r="AN3">
-        <v>122.4159013178292</v>
+        <v>122.4159013178306</v>
       </c>
       <c r="AO3">
-        <v>2.335829837119259E-13</v>
+        <v>-4.102661770635593E-12</v>
       </c>
       <c r="AP3">
-        <v>-140.8543229633566</v>
+        <v>-140.8543229633513</v>
       </c>
       <c r="AQ3">
-        <v>122.415901317352</v>
+        <v>122.4159013173535</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.21064684182626E-15</v>
+        <v>-6.513308552282831E-15</v>
       </c>
       <c r="O4">
-        <v>3.184966816287881E-10</v>
+        <v>3.184836798827918E-10</v>
       </c>
       <c r="P4">
-        <v>1.024994621381419E-09</v>
+        <v>1.024989029076586E-09</v>
       </c>
       <c r="Q4">
-        <v>2.60532342091313E-15</v>
+        <v>7.815970262739248E-15</v>
       </c>
       <c r="R4">
-        <v>-3.184834600212079E-10</v>
+        <v>-3.184850779504748E-10</v>
       </c>
       <c r="S4">
-        <v>-1.024990804649208E-09</v>
+        <v>-1.024985212344374E-09</v>
       </c>
       <c r="T4">
-        <v>-2.134455973639468E-29</v>
+        <v>2.605323420913673E-15</v>
       </c>
       <c r="U4">
-        <v>-1.342563737009226E-09</v>
+        <v>-1.342560042611207E-09</v>
       </c>
       <c r="V4">
-        <v>1.188809940869041E-10</v>
+        <v>1.188774429249462E-10</v>
       </c>
       <c r="W4">
-        <v>1.062136205080382E-29</v>
+        <v>-5.210646841826974E-15</v>
       </c>
       <c r="X4">
-        <v>1.342554510440712E-09</v>
+        <v>1.342561760153771E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.188746467629476E-10</v>
+        <v>-1.188710956009896E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2384,40 +2384,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023837875</v>
+        <v>1.100000023837907</v>
       </c>
       <c r="AG4">
-        <v>0.935039655575522</v>
+        <v>0.9350396555755486</v>
       </c>
       <c r="AH4">
-        <v>0.6992415818307985</v>
+        <v>0.6992415818307117</v>
       </c>
       <c r="AI4">
-        <v>1.100000023837875</v>
+        <v>1.100000023837907</v>
       </c>
       <c r="AJ4">
-        <v>0.9350396555805471</v>
+        <v>0.9350396555805737</v>
       </c>
       <c r="AK4">
-        <v>0.6992415818243295</v>
+        <v>0.6992415818242427</v>
       </c>
       <c r="AL4">
-        <v>2.347027587138503E-13</v>
+        <v>-4.104255851318029E-12</v>
       </c>
       <c r="AM4">
-        <v>-140.8543229629211</v>
+        <v>-140.8543229629159</v>
       </c>
       <c r="AN4">
-        <v>122.4159013178292</v>
+        <v>122.4159013178306</v>
       </c>
       <c r="AO4">
-        <v>2.335829837119259E-13</v>
+        <v>-4.102661770635593E-12</v>
       </c>
       <c r="AP4">
-        <v>-140.8543229633566</v>
+        <v>-140.8543229633513</v>
       </c>
       <c r="AQ4">
-        <v>122.415901317352</v>
+        <v>122.4159013173535</v>
       </c>
     </row>
   </sheetData>
@@ -2605,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.131628207279562E-14</v>
+        <v>-4.736951571733932E-15</v>
       </c>
       <c r="O2">
-        <v>-1.184245397842047E-15</v>
+        <v>-1.894781539408572E-14</v>
       </c>
       <c r="P2">
-        <v>1.657932230549844E-14</v>
+        <v>-4.736958793223906E-15</v>
       </c>
       <c r="Q2">
-        <v>1.894780628692942E-14</v>
+        <v>1.184237892933234E-14</v>
       </c>
       <c r="R2">
-        <v>9.474590172197276E-15</v>
+        <v>1.421154333708857E-14</v>
       </c>
       <c r="S2">
-        <v>-1.657864276267623E-14</v>
+        <v>2.369162552525187E-15</v>
       </c>
       <c r="T2">
-        <v>-1.421085471519768E-14</v>
+        <v>-1.421085471519632E-14</v>
       </c>
       <c r="U2">
-        <v>4.763120860689999E-09</v>
+        <v>4.763092438980777E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763137440021492E-09</v>
+        <v>-4.763137440021833E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471519766E-14</v>
+        <v>1.42108547151955E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763116123336856E-09</v>
+        <v>-4.763099544006579E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763142177374627E-09</v>
+        <v>4.763132703471834E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2659,40 +2659,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999996668</v>
+        <v>0.9999999999996383</v>
       </c>
       <c r="AG2">
-        <v>0.4999999999997851</v>
+        <v>0.499999999999807</v>
       </c>
       <c r="AH2">
-        <v>0.4999999999998893</v>
+        <v>0.4999999999999251</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999996677</v>
+        <v>0.9999999999996378</v>
       </c>
       <c r="AJ2">
-        <v>0.499999999957631</v>
+        <v>0.4999999999576545</v>
       </c>
       <c r="AK2">
-        <v>0.5000000000420423</v>
+        <v>0.5000000000420793</v>
       </c>
       <c r="AL2">
-        <v>1.119812099356484E-12</v>
+        <v>-6.627226924065633E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999999024</v>
+        <v>-179.9999999998832</v>
       </c>
       <c r="AN2">
-        <v>179.9999999998941</v>
+        <v>179.9999999999058</v>
       </c>
       <c r="AO2">
-        <v>1.153598149563389E-12</v>
+        <v>-6.573714136024618E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999917284</v>
+        <v>-179.9999999917092</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999917199</v>
+        <v>179.9999999917316</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2736,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.368475785866119E-15</v>
+        <v>7.105427357597884E-15</v>
       </c>
       <c r="O3">
-        <v>-1.183933380422565E-15</v>
+        <v>4.737256617028091E-15</v>
       </c>
       <c r="P3">
-        <v>-2.368171036337929E-15</v>
+        <v>3.044239912626725E-19</v>
       </c>
       <c r="Q3">
-        <v>-4.736951571732427E-15</v>
+        <v>1.086968910219706E-27</v>
       </c>
       <c r="R3">
-        <v>4.736722561488577E-15</v>
+        <v>-4.737181112819419E-15</v>
       </c>
       <c r="S3">
-        <v>2.368246540382486E-15</v>
+        <v>-2.368704707763954E-15</v>
       </c>
       <c r="T3">
-        <v>4.736951571732475E-15</v>
+        <v>-4.736951571733099E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587700637449429E-09</v>
+        <v>-1.587710111352646E-09</v>
       </c>
       <c r="V3">
-        <v>1.587712480185637E-09</v>
+        <v>1.58770300628261E-09</v>
       </c>
       <c r="W3">
-        <v>-9.537419010896639E-29</v>
+        <v>9.473903143464572E-15</v>
       </c>
       <c r="X3">
-        <v>1.587705374445619E-09</v>
+        <v>1.587703005969907E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587707743189446E-09</v>
+        <v>-1.587707743189563E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2790,40 +2790,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999996677</v>
+        <v>0.9999999999996376</v>
       </c>
       <c r="AG3">
-        <v>0.4999999999435797</v>
+        <v>0.4999999999436035</v>
       </c>
       <c r="AH3">
-        <v>0.5000000000560935</v>
+        <v>0.5000000000561309</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999996677</v>
+        <v>0.9999999999996378</v>
       </c>
       <c r="AJ3">
-        <v>0.499999999957631</v>
+        <v>0.4999999999576545</v>
       </c>
       <c r="AK3">
-        <v>0.5000000000420423</v>
+        <v>0.5000000000420793</v>
       </c>
       <c r="AL3">
-        <v>1.148573241434047E-12</v>
+        <v>-6.568555898602021E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999890037</v>
+        <v>-179.9999999889845</v>
       </c>
       <c r="AN3">
-        <v>179.9999999889952</v>
+        <v>179.9999999890069</v>
       </c>
       <c r="AO3">
-        <v>1.153598149563389E-12</v>
+        <v>-6.573714136024618E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999917284</v>
+        <v>-179.9999999917092</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999917199</v>
+        <v>179.9999999917316</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-9.381176721863168E-29</v>
+        <v>-2.368475785866142E-15</v>
       </c>
       <c r="O4">
-        <v>3.553018191481998E-15</v>
+        <v>4.73725661808572E-15</v>
       </c>
       <c r="P4">
-        <v>7.105732104964315E-15</v>
+        <v>3.044229336400123E-19</v>
       </c>
       <c r="Q4">
-        <v>2.368475785866214E-15</v>
+        <v>9.473903143464028E-15</v>
       </c>
       <c r="R4">
-        <v>4.736722561488577E-15</v>
+        <v>-4.737181112819419E-15</v>
       </c>
       <c r="S4">
-        <v>-7.105656602514209E-15</v>
+        <v>-2.368704707763954E-15</v>
       </c>
       <c r="T4">
-        <v>4.736951571732426E-15</v>
+        <v>2.725146152258579E-28</v>
       </c>
       <c r="U4">
-        <v>-1.587700637449429E-09</v>
+        <v>-1.587710111352647E-09</v>
       </c>
       <c r="V4">
-        <v>1.587703006282491E-09</v>
+        <v>1.587703006282611E-09</v>
       </c>
       <c r="W4">
-        <v>4.768709505448319E-29</v>
+        <v>-4.736951571733373E-15</v>
       </c>
       <c r="X4">
-        <v>1.587705374445619E-09</v>
+        <v>1.587703005969907E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.5876982692863E-09</v>
+        <v>-1.587707743189563E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2921,40 +2921,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999996675</v>
+        <v>0.9999999999996374</v>
       </c>
       <c r="AG4">
-        <v>0.49999999994358</v>
+        <v>0.4999999999436037</v>
       </c>
       <c r="AH4">
-        <v>0.5000000000560937</v>
+        <v>0.5000000000561311</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999996677</v>
+        <v>0.9999999999996378</v>
       </c>
       <c r="AJ4">
-        <v>0.499999999957631</v>
+        <v>0.4999999999576545</v>
       </c>
       <c r="AK4">
-        <v>0.5000000000420423</v>
+        <v>0.5000000000420793</v>
       </c>
       <c r="AL4">
-        <v>1.134699869503906E-12</v>
+        <v>-6.592398960229452E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999890036</v>
+        <v>-179.9999999889845</v>
       </c>
       <c r="AN4">
-        <v>179.9999999889953</v>
+        <v>179.9999999890069</v>
       </c>
       <c r="AO4">
-        <v>1.153598149563389E-12</v>
+        <v>-6.573714136024618E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999917284</v>
+        <v>-179.9999999917092</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999917199</v>
+        <v>179.9999999917316</v>
       </c>
     </row>
   </sheetData>
@@ -3142,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.131628207279562E-14</v>
+        <v>-4.736951571733932E-15</v>
       </c>
       <c r="O2">
-        <v>-1.184245397842047E-15</v>
+        <v>-1.894781539408572E-14</v>
       </c>
       <c r="P2">
-        <v>1.657932230549844E-14</v>
+        <v>-4.736958793223906E-15</v>
       </c>
       <c r="Q2">
-        <v>1.894780628692942E-14</v>
+        <v>1.184237892933234E-14</v>
       </c>
       <c r="R2">
-        <v>9.474590172197276E-15</v>
+        <v>1.421154333708857E-14</v>
       </c>
       <c r="S2">
-        <v>-1.657864276267623E-14</v>
+        <v>2.369162552525187E-15</v>
       </c>
       <c r="T2">
-        <v>-1.421085471519768E-14</v>
+        <v>-1.421085471519632E-14</v>
       </c>
       <c r="U2">
-        <v>4.763120860689999E-09</v>
+        <v>4.763092438980777E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763137440021492E-09</v>
+        <v>-4.763137440021833E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471519766E-14</v>
+        <v>1.42108547151955E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763116123336856E-09</v>
+        <v>-4.763099544006579E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763142177374627E-09</v>
+        <v>4.763132703471834E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3196,40 +3196,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999996668</v>
+        <v>0.9999999999996383</v>
       </c>
       <c r="AG2">
-        <v>0.4999999999997851</v>
+        <v>0.499999999999807</v>
       </c>
       <c r="AH2">
-        <v>0.4999999999998893</v>
+        <v>0.4999999999999251</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999996677</v>
+        <v>0.9999999999996378</v>
       </c>
       <c r="AJ2">
-        <v>0.499999999957631</v>
+        <v>0.4999999999576545</v>
       </c>
       <c r="AK2">
-        <v>0.5000000000420423</v>
+        <v>0.5000000000420793</v>
       </c>
       <c r="AL2">
-        <v>1.119812099356484E-12</v>
+        <v>-6.627226924065633E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999999024</v>
+        <v>-179.9999999998832</v>
       </c>
       <c r="AN2">
-        <v>179.9999999998941</v>
+        <v>179.9999999999058</v>
       </c>
       <c r="AO2">
-        <v>1.153598149563389E-12</v>
+        <v>-6.573714136024618E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999917284</v>
+        <v>-179.9999999917092</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999917199</v>
+        <v>179.9999999917316</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3273,40 +3273,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.368475785866119E-15</v>
+        <v>7.105427357597884E-15</v>
       </c>
       <c r="O3">
-        <v>-1.183933380422565E-15</v>
+        <v>4.737256617028091E-15</v>
       </c>
       <c r="P3">
-        <v>-2.368171036337929E-15</v>
+        <v>3.044239912626725E-19</v>
       </c>
       <c r="Q3">
-        <v>-4.736951571732427E-15</v>
+        <v>1.086968910219706E-27</v>
       </c>
       <c r="R3">
-        <v>4.736722561488577E-15</v>
+        <v>-4.737181112819419E-15</v>
       </c>
       <c r="S3">
-        <v>2.368246540382486E-15</v>
+        <v>-2.368704707763954E-15</v>
       </c>
       <c r="T3">
-        <v>4.736951571732475E-15</v>
+        <v>-4.736951571733099E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587700637449429E-09</v>
+        <v>-1.587710111352646E-09</v>
       </c>
       <c r="V3">
-        <v>1.587712480185637E-09</v>
+        <v>1.58770300628261E-09</v>
       </c>
       <c r="W3">
-        <v>-9.537419010896639E-29</v>
+        <v>9.473903143464572E-15</v>
       </c>
       <c r="X3">
-        <v>1.587705374445619E-09</v>
+        <v>1.587703005969907E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587707743189446E-09</v>
+        <v>-1.587707743189563E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3327,40 +3327,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999996677</v>
+        <v>0.9999999999996376</v>
       </c>
       <c r="AG3">
-        <v>0.4999999999435797</v>
+        <v>0.4999999999436035</v>
       </c>
       <c r="AH3">
-        <v>0.5000000000560935</v>
+        <v>0.5000000000561309</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999996677</v>
+        <v>0.9999999999996378</v>
       </c>
       <c r="AJ3">
-        <v>0.499999999957631</v>
+        <v>0.4999999999576545</v>
       </c>
       <c r="AK3">
-        <v>0.5000000000420423</v>
+        <v>0.5000000000420793</v>
       </c>
       <c r="AL3">
-        <v>1.148573241434047E-12</v>
+        <v>-6.568555898602021E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999890037</v>
+        <v>-179.9999999889845</v>
       </c>
       <c r="AN3">
-        <v>179.9999999889952</v>
+        <v>179.9999999890069</v>
       </c>
       <c r="AO3">
-        <v>1.153598149563389E-12</v>
+        <v>-6.573714136024618E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999917284</v>
+        <v>-179.9999999917092</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999917199</v>
+        <v>179.9999999917316</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-9.381176721863168E-29</v>
+        <v>-2.368475785866142E-15</v>
       </c>
       <c r="O4">
-        <v>3.553018191481998E-15</v>
+        <v>4.73725661808572E-15</v>
       </c>
       <c r="P4">
-        <v>7.105732104964315E-15</v>
+        <v>3.044229336400123E-19</v>
       </c>
       <c r="Q4">
-        <v>2.368475785866214E-15</v>
+        <v>9.473903143464028E-15</v>
       </c>
       <c r="R4">
-        <v>4.736722561488577E-15</v>
+        <v>-4.737181112819419E-15</v>
       </c>
       <c r="S4">
-        <v>-7.105656602514209E-15</v>
+        <v>-2.368704707763954E-15</v>
       </c>
       <c r="T4">
-        <v>4.736951571732426E-15</v>
+        <v>2.725146152258579E-28</v>
       </c>
       <c r="U4">
-        <v>-1.587700637449429E-09</v>
+        <v>-1.587710111352647E-09</v>
       </c>
       <c r="V4">
-        <v>1.587703006282491E-09</v>
+        <v>1.587703006282611E-09</v>
       </c>
       <c r="W4">
-        <v>4.768709505448319E-29</v>
+        <v>-4.736951571733373E-15</v>
       </c>
       <c r="X4">
-        <v>1.587705374445619E-09</v>
+        <v>1.587703005969907E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.5876982692863E-09</v>
+        <v>-1.587707743189563E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3458,40 +3458,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999996675</v>
+        <v>0.9999999999996374</v>
       </c>
       <c r="AG4">
-        <v>0.49999999994358</v>
+        <v>0.4999999999436037</v>
       </c>
       <c r="AH4">
-        <v>0.5000000000560937</v>
+        <v>0.5000000000561311</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999996677</v>
+        <v>0.9999999999996378</v>
       </c>
       <c r="AJ4">
-        <v>0.499999999957631</v>
+        <v>0.4999999999576545</v>
       </c>
       <c r="AK4">
-        <v>0.5000000000420423</v>
+        <v>0.5000000000420793</v>
       </c>
       <c r="AL4">
-        <v>1.134699869503906E-12</v>
+        <v>-6.592398960229452E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999890036</v>
+        <v>-179.9999999889845</v>
       </c>
       <c r="AN4">
-        <v>179.9999999889953</v>
+        <v>179.9999999890069</v>
       </c>
       <c r="AO4">
-        <v>1.153598149563389E-12</v>
+        <v>-6.573714136024618E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999917284</v>
+        <v>-179.9999999917092</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999917199</v>
+        <v>179.9999999917316</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.805962786730033E-14</v>
+        <v>4.144832625281649E-15</v>
       </c>
       <c r="O2">
-        <v>-8.00249665021207E-10</v>
+        <v>-8.002483794927136E-10</v>
       </c>
       <c r="P2">
-        <v>-2.567392829817584E-09</v>
+        <v>-2.567394478979241E-09</v>
       </c>
       <c r="Q2">
-        <v>1.80596278673003E-14</v>
+        <v>-5.921189464685325E-16</v>
       </c>
       <c r="R2">
-        <v>8.002549661715035E-10</v>
+        <v>8.002417612887226E-10</v>
       </c>
       <c r="S2">
-        <v>2.56739154470095E-09</v>
+        <v>2.567395161544977E-09</v>
       </c>
       <c r="T2">
-        <v>4.736951571750719E-15</v>
+        <v>-4.736951571751106E-15</v>
       </c>
       <c r="U2">
-        <v>3.401422862519279E-09</v>
+        <v>3.401405993599532E-09</v>
       </c>
       <c r="V2">
-        <v>-3.406538564705244E-10</v>
+        <v>-3.406403667020832E-10</v>
       </c>
       <c r="W2">
-        <v>1.808892753785085E-28</v>
+        <v>4.736951571750863E-15</v>
       </c>
       <c r="X2">
-        <v>-3.401426311211525E-09</v>
+        <v>-3.401398481218129E-09</v>
       </c>
       <c r="Y2">
-        <v>3.406503809152414E-10</v>
+        <v>3.40644776481289E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3733,40 +3733,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000003566</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AG2">
-        <v>0.8443704185456347</v>
+        <v>0.8443704185456922</v>
       </c>
       <c r="AH2">
-        <v>0.6258291895794305</v>
+        <v>0.6258291895793786</v>
       </c>
       <c r="AI2">
-        <v>1.000000000003567</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AJ2">
-        <v>0.8443704185349054</v>
+        <v>0.8443704185349633</v>
       </c>
       <c r="AK2">
-        <v>0.6258291896125577</v>
+        <v>0.6258291896125066</v>
       </c>
       <c r="AL2">
-        <v>5.547275323649783E-13</v>
+        <v>-3.901995162398984E-12</v>
       </c>
       <c r="AM2">
-        <v>-141.4823925534194</v>
+        <v>-141.4823925534155</v>
       </c>
       <c r="AN2">
-        <v>122.8363393546082</v>
+        <v>122.8363393546136</v>
       </c>
       <c r="AO2">
-        <v>5.738873533011042E-13</v>
+        <v>-3.875746826262573E-12</v>
       </c>
       <c r="AP2">
-        <v>-141.482392551088</v>
+        <v>-141.4823925510842</v>
       </c>
       <c r="AQ2">
-        <v>122.836339355897</v>
+        <v>122.8363393559023</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.368475785875401E-15</v>
+        <v>-1.184237892937705E-15</v>
       </c>
       <c r="O3">
-        <v>2.667533053840398E-10</v>
+        <v>2.667424876989576E-10</v>
       </c>
       <c r="P3">
-        <v>8.557945706562614E-10</v>
+        <v>8.55804534094696E-10</v>
       </c>
       <c r="Q3">
-        <v>-2.368475785875449E-15</v>
+        <v>5.03301104498525E-15</v>
       </c>
       <c r="R3">
-        <v>-2.667430226284753E-10</v>
+        <v>-2.667433419313698E-10</v>
       </c>
       <c r="S3">
-        <v>-8.558012394777281E-10</v>
+        <v>-8.55803047899782E-10</v>
       </c>
       <c r="T3">
-        <v>4.73695157175092E-15</v>
+        <v>8.007175356809888E-29</v>
       </c>
       <c r="U3">
-        <v>-1.133815125166352E-09</v>
+        <v>-1.133800731215424E-09</v>
       </c>
       <c r="V3">
-        <v>1.135450607624536E-10</v>
+        <v>1.135514907078914E-10</v>
       </c>
       <c r="W3">
-        <v>-2.372318365619783E-29</v>
+        <v>-3.404557325150432E-28</v>
       </c>
       <c r="X3">
-        <v>1.133805417476282E-09</v>
+        <v>1.133802607313912E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.135511286428728E-10</v>
+        <v>-1.135483264258612E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3864,40 +3864,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000003567</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AG3">
-        <v>0.8443704185313291</v>
+        <v>0.8443704185313871</v>
       </c>
       <c r="AH3">
-        <v>0.6258291896236</v>
+        <v>0.6258291896235491</v>
       </c>
       <c r="AI3">
-        <v>1.000000000003567</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AJ3">
-        <v>0.8443704185349054</v>
+        <v>0.8443704185349633</v>
       </c>
       <c r="AK3">
-        <v>0.6258291896125577</v>
+        <v>0.6258291896125066</v>
       </c>
       <c r="AL3">
-        <v>5.695117974004422E-13</v>
+        <v>-3.874030348989011E-12</v>
       </c>
       <c r="AM3">
-        <v>-141.4823925503109</v>
+        <v>-141.4823925503071</v>
       </c>
       <c r="AN3">
-        <v>122.8363393563266</v>
+        <v>122.836339356332</v>
       </c>
       <c r="AO3">
-        <v>5.738873533011042E-13</v>
+        <v>-3.875746826262573E-12</v>
       </c>
       <c r="AP3">
-        <v>-141.482392551088</v>
+        <v>-141.4823925510842</v>
       </c>
       <c r="AQ3">
-        <v>122.836339355897</v>
+        <v>122.8363393559023</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.072416312641065E-15</v>
+        <v>1.776356839406398E-15</v>
       </c>
       <c r="O4">
-        <v>2.667525230177323E-10</v>
+        <v>2.667587100679333E-10</v>
       </c>
       <c r="P4">
-        <v>8.558003561186898E-10</v>
+        <v>8.558027256725616E-10</v>
       </c>
       <c r="Q4">
-        <v>2.072416312641041E-15</v>
+        <v>2.960594732344264E-15</v>
       </c>
       <c r="R4">
-        <v>-2.667472219814251E-10</v>
+        <v>-2.667591731171912E-10</v>
       </c>
       <c r="S4">
-        <v>-8.558020432208989E-10</v>
+        <v>-8.558018422850257E-10</v>
       </c>
       <c r="T4">
-        <v>4.736951571750878E-15</v>
+        <v>-2.368475785875532E-15</v>
       </c>
       <c r="U4">
-        <v>-1.133815747881259E-09</v>
+        <v>-1.133808267357087E-09</v>
       </c>
       <c r="V4">
-        <v>1.135470303053227E-10</v>
+        <v>1.135542929249739E-10</v>
       </c>
       <c r="W4">
-        <v>-2.368475785875428E-15</v>
+        <v>-2.002680779500254E-28</v>
       </c>
       <c r="X4">
-        <v>1.133812299121649E-09</v>
+        <v>1.133810454813029E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.135498832130585E-10</v>
+        <v>-1.135501945705828E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3995,40 +3995,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000003567</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AG4">
-        <v>0.8443704185313291</v>
+        <v>0.8443704185313874</v>
       </c>
       <c r="AH4">
-        <v>0.6258291896236001</v>
+        <v>0.6258291896235489</v>
       </c>
       <c r="AI4">
-        <v>1.000000000003567</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AJ4">
-        <v>0.8443704185349054</v>
+        <v>0.8443704185349633</v>
       </c>
       <c r="AK4">
-        <v>0.6258291896125577</v>
+        <v>0.6258291896125066</v>
       </c>
       <c r="AL4">
-        <v>5.660057331213876E-13</v>
+        <v>-3.883640207988785E-12</v>
       </c>
       <c r="AM4">
-        <v>-141.4823925503109</v>
+        <v>-141.482392550307</v>
       </c>
       <c r="AN4">
-        <v>122.8363393563266</v>
+        <v>122.836339356332</v>
       </c>
       <c r="AO4">
-        <v>5.738873533011042E-13</v>
+        <v>-3.875746826262573E-12</v>
       </c>
       <c r="AP4">
-        <v>-141.482392551088</v>
+        <v>-141.4823925510842</v>
       </c>
       <c r="AQ4">
-        <v>122.836339355897</v>
+        <v>122.8363393559023</v>
       </c>
     </row>
   </sheetData>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.805962786730033E-14</v>
+        <v>4.144832625281649E-15</v>
       </c>
       <c r="O2">
-        <v>-8.00249665021207E-10</v>
+        <v>-8.002483794927136E-10</v>
       </c>
       <c r="P2">
-        <v>-2.567392829817584E-09</v>
+        <v>-2.567394478979241E-09</v>
       </c>
       <c r="Q2">
-        <v>1.80596278673003E-14</v>
+        <v>-5.921189464685325E-16</v>
       </c>
       <c r="R2">
-        <v>8.002549661715035E-10</v>
+        <v>8.002417612887226E-10</v>
       </c>
       <c r="S2">
-        <v>2.56739154470095E-09</v>
+        <v>2.567395161544977E-09</v>
       </c>
       <c r="T2">
-        <v>4.736951571750719E-15</v>
+        <v>-4.736951571751106E-15</v>
       </c>
       <c r="U2">
-        <v>3.401422862519279E-09</v>
+        <v>3.401405993599532E-09</v>
       </c>
       <c r="V2">
-        <v>-3.406538564705244E-10</v>
+        <v>-3.406403667020832E-10</v>
       </c>
       <c r="W2">
-        <v>1.808892753785085E-28</v>
+        <v>4.736951571750863E-15</v>
       </c>
       <c r="X2">
-        <v>-3.401426311211525E-09</v>
+        <v>-3.401398481218129E-09</v>
       </c>
       <c r="Y2">
-        <v>3.406503809152414E-10</v>
+        <v>3.40644776481289E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4270,40 +4270,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000003566</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AG2">
-        <v>0.8443704185456347</v>
+        <v>0.8443704185456922</v>
       </c>
       <c r="AH2">
-        <v>0.6258291895794305</v>
+        <v>0.6258291895793786</v>
       </c>
       <c r="AI2">
-        <v>1.000000000003567</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AJ2">
-        <v>0.8443704185349054</v>
+        <v>0.8443704185349633</v>
       </c>
       <c r="AK2">
-        <v>0.6258291896125577</v>
+        <v>0.6258291896125066</v>
       </c>
       <c r="AL2">
-        <v>5.547275323649783E-13</v>
+        <v>-3.901995162398984E-12</v>
       </c>
       <c r="AM2">
-        <v>-141.4823925534194</v>
+        <v>-141.4823925534155</v>
       </c>
       <c r="AN2">
-        <v>122.8363393546082</v>
+        <v>122.8363393546136</v>
       </c>
       <c r="AO2">
-        <v>5.738873533011042E-13</v>
+        <v>-3.875746826262573E-12</v>
       </c>
       <c r="AP2">
-        <v>-141.482392551088</v>
+        <v>-141.4823925510842</v>
       </c>
       <c r="AQ2">
-        <v>122.836339355897</v>
+        <v>122.8363393559023</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.368475785875401E-15</v>
+        <v>-1.184237892937705E-15</v>
       </c>
       <c r="O3">
-        <v>2.667533053840398E-10</v>
+        <v>2.667424876989576E-10</v>
       </c>
       <c r="P3">
-        <v>8.557945706562614E-10</v>
+        <v>8.55804534094696E-10</v>
       </c>
       <c r="Q3">
-        <v>-2.368475785875449E-15</v>
+        <v>5.03301104498525E-15</v>
       </c>
       <c r="R3">
-        <v>-2.667430226284753E-10</v>
+        <v>-2.667433419313698E-10</v>
       </c>
       <c r="S3">
-        <v>-8.558012394777281E-10</v>
+        <v>-8.55803047899782E-10</v>
       </c>
       <c r="T3">
-        <v>4.73695157175092E-15</v>
+        <v>8.007175356809888E-29</v>
       </c>
       <c r="U3">
-        <v>-1.133815125166352E-09</v>
+        <v>-1.133800731215424E-09</v>
       </c>
       <c r="V3">
-        <v>1.135450607624536E-10</v>
+        <v>1.135514907078914E-10</v>
       </c>
       <c r="W3">
-        <v>-2.372318365619783E-29</v>
+        <v>-3.404557325150432E-28</v>
       </c>
       <c r="X3">
-        <v>1.133805417476282E-09</v>
+        <v>1.133802607313912E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.135511286428728E-10</v>
+        <v>-1.135483264258612E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4401,40 +4401,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000003567</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AG3">
-        <v>0.8443704185313291</v>
+        <v>0.8443704185313871</v>
       </c>
       <c r="AH3">
-        <v>0.6258291896236</v>
+        <v>0.6258291896235491</v>
       </c>
       <c r="AI3">
-        <v>1.000000000003567</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AJ3">
-        <v>0.8443704185349054</v>
+        <v>0.8443704185349633</v>
       </c>
       <c r="AK3">
-        <v>0.6258291896125577</v>
+        <v>0.6258291896125066</v>
       </c>
       <c r="AL3">
-        <v>5.695117974004422E-13</v>
+        <v>-3.874030348989011E-12</v>
       </c>
       <c r="AM3">
-        <v>-141.4823925503109</v>
+        <v>-141.4823925503071</v>
       </c>
       <c r="AN3">
-        <v>122.8363393563266</v>
+        <v>122.836339356332</v>
       </c>
       <c r="AO3">
-        <v>5.738873533011042E-13</v>
+        <v>-3.875746826262573E-12</v>
       </c>
       <c r="AP3">
-        <v>-141.482392551088</v>
+        <v>-141.4823925510842</v>
       </c>
       <c r="AQ3">
-        <v>122.836339355897</v>
+        <v>122.8363393559023</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.072416312641065E-15</v>
+        <v>1.776356839406398E-15</v>
       </c>
       <c r="O4">
-        <v>2.667525230177323E-10</v>
+        <v>2.667587100679333E-10</v>
       </c>
       <c r="P4">
-        <v>8.558003561186898E-10</v>
+        <v>8.558027256725616E-10</v>
       </c>
       <c r="Q4">
-        <v>2.072416312641041E-15</v>
+        <v>2.960594732344264E-15</v>
       </c>
       <c r="R4">
-        <v>-2.667472219814251E-10</v>
+        <v>-2.667591731171912E-10</v>
       </c>
       <c r="S4">
-        <v>-8.558020432208989E-10</v>
+        <v>-8.558018422850257E-10</v>
       </c>
       <c r="T4">
-        <v>4.736951571750878E-15</v>
+        <v>-2.368475785875532E-15</v>
       </c>
       <c r="U4">
-        <v>-1.133815747881259E-09</v>
+        <v>-1.133808267357087E-09</v>
       </c>
       <c r="V4">
-        <v>1.135470303053227E-10</v>
+        <v>1.135542929249739E-10</v>
       </c>
       <c r="W4">
-        <v>-2.368475785875428E-15</v>
+        <v>-2.002680779500254E-28</v>
       </c>
       <c r="X4">
-        <v>1.133812299121649E-09</v>
+        <v>1.133810454813029E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.135498832130585E-10</v>
+        <v>-1.135501945705828E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4532,40 +4532,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000003567</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AG4">
-        <v>0.8443704185313291</v>
+        <v>0.8443704185313874</v>
       </c>
       <c r="AH4">
-        <v>0.6258291896236001</v>
+        <v>0.6258291896235489</v>
       </c>
       <c r="AI4">
-        <v>1.000000000003567</v>
+        <v>1.000000000003551</v>
       </c>
       <c r="AJ4">
-        <v>0.8443704185349054</v>
+        <v>0.8443704185349633</v>
       </c>
       <c r="AK4">
-        <v>0.6258291896125577</v>
+        <v>0.6258291896125066</v>
       </c>
       <c r="AL4">
-        <v>5.660057331213876E-13</v>
+        <v>-3.883640207988785E-12</v>
       </c>
       <c r="AM4">
-        <v>-141.4823925503109</v>
+        <v>-141.482392550307</v>
       </c>
       <c r="AN4">
-        <v>122.8363393563266</v>
+        <v>122.836339356332</v>
       </c>
       <c r="AO4">
-        <v>5.738873533011042E-13</v>
+        <v>-3.875746826262573E-12</v>
       </c>
       <c r="AP4">
-        <v>-141.482392551088</v>
+        <v>-141.4823925510842</v>
       </c>
       <c r="AQ4">
-        <v>122.836339355897</v>
+        <v>122.8363393559023</v>
       </c>
     </row>
   </sheetData>
@@ -4720,130 +4720,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01501633262181131</v>
+        <v>0.01642334977870145</v>
       </c>
       <c r="C2">
-        <v>0.01501633262734454</v>
+        <v>0.01642334977840046</v>
       </c>
       <c r="D2">
-        <v>0.01501633262734618</v>
+        <v>0.01642334977839755</v>
       </c>
       <c r="E2">
-        <v>0.01001404042224232</v>
+        <v>0.0109523472018523</v>
       </c>
       <c r="F2">
-        <v>0.01001404042767261</v>
+        <v>0.01095234720155714</v>
       </c>
       <c r="G2">
-        <v>0.01001404042767753</v>
+        <v>0.01095234720155218</v>
       </c>
       <c r="H2">
-        <v>0.1733936736288743</v>
+        <v>0.1896405083145733</v>
       </c>
       <c r="I2">
-        <v>0.1733936736927666</v>
+        <v>0.1896405083110977</v>
       </c>
       <c r="J2">
-        <v>0.1733936736927856</v>
+        <v>0.1896405083110641</v>
       </c>
       <c r="K2">
-        <v>0.115632178669148</v>
+        <v>0.1264668121049534</v>
       </c>
       <c r="L2">
-        <v>0.1156321787318515</v>
+        <v>0.1264668121015452</v>
       </c>
       <c r="M2">
-        <v>0.1156321787319083</v>
+        <v>0.1264668121014879</v>
       </c>
       <c r="N2">
-        <v>-3.113390258874361E-13</v>
+        <v>6.388370291470047E-14</v>
       </c>
       <c r="O2">
-        <v>0.1661175663789808</v>
+        <v>0.1817774669927377</v>
       </c>
       <c r="P2">
-        <v>-0.1642417494073394</v>
+        <v>-0.1795336545617753</v>
       </c>
       <c r="Q2">
-        <v>0.0004631437253097863</v>
+        <v>0.0005540022275655689</v>
       </c>
       <c r="R2">
-        <v>-0.1104555158485753</v>
+        <v>-0.1208347155848654</v>
       </c>
       <c r="S2">
-        <v>0.1098533442148711</v>
+        <v>0.1201144093860283</v>
       </c>
       <c r="T2">
-        <v>9.074354098356765E-14</v>
+        <v>-1.357024990399235E-14</v>
       </c>
       <c r="U2">
-        <v>-0.26267788774571</v>
+        <v>-0.3134799838887457</v>
       </c>
       <c r="V2">
-        <v>-0.2626000242293703</v>
+        <v>-0.3148457748479931</v>
       </c>
       <c r="W2">
-        <v>0.0001842972525524281</v>
+        <v>0.0002204522714634459</v>
       </c>
       <c r="X2">
-        <v>0.1752702063998309</v>
+        <v>0.2091768047027549</v>
       </c>
       <c r="Y2">
-        <v>0.1753928204333378</v>
+        <v>0.2102785109687989</v>
       </c>
       <c r="Z2">
-        <v>-89.98649625397053</v>
+        <v>-90.21658253041201</v>
       </c>
       <c r="AA2">
-        <v>-89.98649576214366</v>
+        <v>-90.21658255248045</v>
       </c>
       <c r="AB2">
-        <v>-89.98649576210923</v>
+        <v>-90.21658255244898</v>
       </c>
       <c r="AC2">
-        <v>89.9681110038445</v>
+        <v>89.73802489855778</v>
       </c>
       <c r="AD2">
-        <v>89.96811174138448</v>
+        <v>89.73802486546218</v>
       </c>
       <c r="AE2">
-        <v>89.96811174143143</v>
+        <v>89.73802486550713</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.792435111745076</v>
+        <v>1.910831244508659</v>
       </c>
       <c r="AI2">
-        <v>1.786295529073398</v>
+        <v>1.911176433799324</v>
       </c>
       <c r="AJ2">
-        <v>0.004310783017466636</v>
+        <v>0.004714699588142681</v>
       </c>
       <c r="AK2">
-        <v>1.791643024662581</v>
+        <v>1.91014375537632</v>
       </c>
       <c r="AL2">
-        <v>1.789770518062371</v>
+        <v>1.914860584610105</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-147.6772243282247</v>
+        <v>-150.1084466611203</v>
       </c>
       <c r="AO2">
-        <v>147.9898092982228</v>
+        <v>150.090448771313</v>
       </c>
       <c r="AP2">
-        <v>111.6670408262954</v>
+        <v>111.4369542988879</v>
       </c>
       <c r="AQ2">
-        <v>-147.8127037693061</v>
+        <v>-150.2483298697666</v>
       </c>
       <c r="AR2">
-        <v>147.9080668181428</v>
+        <v>150.0023341653103</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -4860,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.005007020211662957</v>
+        <v>0.005476173600824148</v>
       </c>
       <c r="F3">
-        <v>0.005007020213470323</v>
+        <v>0.005476173600727119</v>
       </c>
       <c r="G3">
-        <v>0.005007020213471964</v>
+        <v>0.005476173600723839</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4878,49 +4878,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.05781608934083012</v>
+        <v>0.06323340605129889</v>
       </c>
       <c r="L3">
-        <v>0.05781608936169977</v>
+        <v>0.06323340605017849</v>
       </c>
       <c r="M3">
-        <v>0.05781608936171872</v>
+        <v>0.06323340605014062</v>
       </c>
       <c r="N3">
-        <v>-7.800019531566259E-12</v>
+        <v>-8.455774284984203E-12</v>
       </c>
       <c r="O3">
-        <v>-5.378558081102191E-09</v>
+        <v>-6.723566698490797E-09</v>
       </c>
       <c r="P3">
-        <v>-5.371816373012583E-09</v>
+        <v>-6.762756067536034E-09</v>
       </c>
       <c r="Q3">
-        <v>-0.0002315718658989279</v>
+        <v>-0.0002770011172985599</v>
       </c>
       <c r="R3">
-        <v>0.05522775523506068</v>
+        <v>0.06041735443083532</v>
       </c>
       <c r="S3">
-        <v>-0.05492667479039413</v>
+        <v>-0.06005720807108218</v>
       </c>
       <c r="T3">
-        <v>1.939130444341857E-11</v>
+        <v>2.124190210552202E-11</v>
       </c>
       <c r="U3">
-        <v>-3.374403072369828E-09</v>
+        <v>-3.88392276507717E-09</v>
       </c>
       <c r="V3">
-        <v>3.378342633217275E-09</v>
+        <v>3.861358434077466E-09</v>
       </c>
       <c r="W3">
-        <v>-9.214861819681295E-05</v>
+        <v>-0.0001102261268814689</v>
       </c>
       <c r="X3">
-        <v>-0.08763510488572017</v>
+        <v>-0.1045884042919535</v>
       </c>
       <c r="Y3">
-        <v>-0.08769640852731357</v>
+        <v>-0.105139253553463</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4932,49 +4932,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-90.03188699466631</v>
+        <v>-90.2619732712453</v>
       </c>
       <c r="AD3">
-        <v>-90.03188650303248</v>
+        <v>-90.26197329328608</v>
       </c>
       <c r="AE3">
-        <v>-90.03188650304187</v>
+        <v>-90.26197329329052</v>
       </c>
       <c r="AG3">
-        <v>0.005173102458396543</v>
+        <v>0.005657817600941904</v>
       </c>
       <c r="AH3">
-        <v>1.791485377288026</v>
+        <v>1.910007155128073</v>
       </c>
       <c r="AI3">
-        <v>1.790465841119368</v>
+        <v>1.915597816895338</v>
       </c>
       <c r="AJ3">
-        <v>0.004310783017466636</v>
+        <v>0.004714699588142681</v>
       </c>
       <c r="AK3">
-        <v>1.791643024662581</v>
+        <v>1.91014375537632</v>
       </c>
       <c r="AL3">
-        <v>1.789770518062371</v>
+        <v>1.914860584610105</v>
       </c>
       <c r="AM3">
-        <v>111.6625011136301</v>
+        <v>111.4324145915107</v>
       </c>
       <c r="AN3">
-        <v>-147.8398167242249</v>
+        <v>-150.2763218966813</v>
       </c>
       <c r="AO3">
-        <v>147.891742746896</v>
+        <v>149.9847381218039</v>
       </c>
       <c r="AP3">
-        <v>111.6670408262954</v>
+        <v>111.4369542988879</v>
       </c>
       <c r="AQ3">
-        <v>-147.8127037693061</v>
+        <v>-150.2483298697666</v>
       </c>
       <c r="AR3">
-        <v>147.9080668181428</v>
+        <v>150.0023341653103</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -4991,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.005007020211663779</v>
+        <v>0.005476173600824145</v>
       </c>
       <c r="F4">
-        <v>0.005007020213473603</v>
+        <v>0.00547617360072794</v>
       </c>
       <c r="G4">
-        <v>0.005007020213470323</v>
+        <v>0.005476173600722198</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5009,49 +5009,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.05781608934083959</v>
+        <v>0.06323340605129885</v>
       </c>
       <c r="L4">
-        <v>0.05781608936173765</v>
+        <v>0.06323340605018797</v>
       </c>
       <c r="M4">
-        <v>0.05781608936169977</v>
+        <v>0.06323340605012166</v>
       </c>
       <c r="N4">
-        <v>-7.800083170999582E-12</v>
+        <v>-8.455704803744599E-12</v>
       </c>
       <c r="O4">
-        <v>-5.378565481489423E-09</v>
+        <v>-6.723550984116425E-09</v>
       </c>
       <c r="P4">
-        <v>-5.371820036887697E-09</v>
+        <v>-6.762756067536034E-09</v>
       </c>
       <c r="Q4">
-        <v>-0.0002315718658989357</v>
+        <v>-0.0002770011172985763</v>
       </c>
       <c r="R4">
-        <v>0.05522775523505376</v>
+        <v>0.0604173544308443</v>
       </c>
       <c r="S4">
-        <v>-0.05492667479037611</v>
+        <v>-0.06005720807106404</v>
       </c>
       <c r="T4">
-        <v>1.939133190027844E-11</v>
+        <v>2.124187179671443E-11</v>
       </c>
       <c r="U4">
-        <v>-3.374327531297333E-09</v>
+        <v>-3.883913793147279E-09</v>
       </c>
       <c r="V4">
-        <v>3.378304880840279E-09</v>
+        <v>3.861358434077466E-09</v>
       </c>
       <c r="W4">
-        <v>-9.214861819690395E-05</v>
+        <v>-0.0001102261268814273</v>
       </c>
       <c r="X4">
-        <v>-0.08763510488580477</v>
+        <v>-0.1045884042919692</v>
       </c>
       <c r="Y4">
-        <v>-0.08769640852728484</v>
+        <v>-0.1051392535534316</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5063,49 +5063,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-90.0318869946851</v>
+        <v>-90.26197327123671</v>
       </c>
       <c r="AD4">
-        <v>-90.0318865030043</v>
+        <v>-90.26197329328603</v>
       </c>
       <c r="AE4">
-        <v>-90.03188650304187</v>
+        <v>-90.26197329329061</v>
       </c>
       <c r="AG4">
-        <v>0.00517310245839657</v>
+        <v>0.005657817600941873</v>
       </c>
       <c r="AH4">
-        <v>1.791485377288026</v>
+        <v>1.910007155128073</v>
       </c>
       <c r="AI4">
-        <v>1.790465841119368</v>
+        <v>1.915597816895338</v>
       </c>
       <c r="AJ4">
-        <v>0.004310783017466636</v>
+        <v>0.004714699588142681</v>
       </c>
       <c r="AK4">
-        <v>1.791643024662581</v>
+        <v>1.91014375537632</v>
       </c>
       <c r="AL4">
-        <v>1.789770518062371</v>
+        <v>1.914860584610105</v>
       </c>
       <c r="AM4">
-        <v>111.66250111363</v>
+        <v>111.4324145915108</v>
       </c>
       <c r="AN4">
-        <v>-147.8398167242249</v>
+        <v>-150.2763218966813</v>
       </c>
       <c r="AO4">
-        <v>147.891742746896</v>
+        <v>149.9847381218039</v>
       </c>
       <c r="AP4">
-        <v>111.6670408262954</v>
+        <v>111.4369542988879</v>
       </c>
       <c r="AQ4">
-        <v>-147.8127037693061</v>
+        <v>-150.2483298697666</v>
       </c>
       <c r="AR4">
-        <v>147.9080668181428</v>
+        <v>150.0023341653103</v>
       </c>
     </row>
   </sheetData>
@@ -5260,130 +5260,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01501633262181131</v>
+        <v>0.01642334977870145</v>
       </c>
       <c r="C2">
-        <v>0.01501633262734454</v>
+        <v>0.01642334977840046</v>
       </c>
       <c r="D2">
-        <v>0.01501633262734618</v>
+        <v>0.01642334977839755</v>
       </c>
       <c r="E2">
-        <v>0.01001404042224232</v>
+        <v>0.0109523472018523</v>
       </c>
       <c r="F2">
-        <v>0.01001404042767261</v>
+        <v>0.01095234720155714</v>
       </c>
       <c r="G2">
-        <v>0.01001404042767753</v>
+        <v>0.01095234720155218</v>
       </c>
       <c r="H2">
-        <v>0.1733936736288743</v>
+        <v>0.1896405083145733</v>
       </c>
       <c r="I2">
-        <v>0.1733936736927666</v>
+        <v>0.1896405083110977</v>
       </c>
       <c r="J2">
-        <v>0.1733936736927856</v>
+        <v>0.1896405083110641</v>
       </c>
       <c r="K2">
-        <v>0.115632178669148</v>
+        <v>0.1264668121049534</v>
       </c>
       <c r="L2">
-        <v>0.1156321787318515</v>
+        <v>0.1264668121015452</v>
       </c>
       <c r="M2">
-        <v>0.1156321787319083</v>
+        <v>0.1264668121014879</v>
       </c>
       <c r="N2">
-        <v>-3.113390258874361E-13</v>
+        <v>6.388370291470047E-14</v>
       </c>
       <c r="O2">
-        <v>0.1661175663789808</v>
+        <v>0.1817774669927377</v>
       </c>
       <c r="P2">
-        <v>-0.1642417494073394</v>
+        <v>-0.1795336545617753</v>
       </c>
       <c r="Q2">
-        <v>0.0004631437253097863</v>
+        <v>0.0005540022275655689</v>
       </c>
       <c r="R2">
-        <v>-0.1104555158485753</v>
+        <v>-0.1208347155848654</v>
       </c>
       <c r="S2">
-        <v>0.1098533442148711</v>
+        <v>0.1201144093860283</v>
       </c>
       <c r="T2">
-        <v>9.074354098356765E-14</v>
+        <v>-1.357024990399235E-14</v>
       </c>
       <c r="U2">
-        <v>-0.26267788774571</v>
+        <v>-0.3134799838887457</v>
       </c>
       <c r="V2">
-        <v>-0.2626000242293703</v>
+        <v>-0.3148457748479931</v>
       </c>
       <c r="W2">
-        <v>0.0001842972525524281</v>
+        <v>0.0002204522714634459</v>
       </c>
       <c r="X2">
-        <v>0.1752702063998309</v>
+        <v>0.2091768047027549</v>
       </c>
       <c r="Y2">
-        <v>0.1753928204333378</v>
+        <v>0.2102785109687989</v>
       </c>
       <c r="Z2">
-        <v>-89.98649625397053</v>
+        <v>-90.21658253041201</v>
       </c>
       <c r="AA2">
-        <v>-89.98649576214366</v>
+        <v>-90.21658255248045</v>
       </c>
       <c r="AB2">
-        <v>-89.98649576210923</v>
+        <v>-90.21658255244898</v>
       </c>
       <c r="AC2">
-        <v>89.9681110038445</v>
+        <v>89.73802489855778</v>
       </c>
       <c r="AD2">
-        <v>89.96811174138448</v>
+        <v>89.73802486546218</v>
       </c>
       <c r="AE2">
-        <v>89.96811174143143</v>
+        <v>89.73802486550713</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.792435111745076</v>
+        <v>1.910831244508659</v>
       </c>
       <c r="AI2">
-        <v>1.786295529073398</v>
+        <v>1.911176433799324</v>
       </c>
       <c r="AJ2">
-        <v>0.004310783017466636</v>
+        <v>0.004714699588142681</v>
       </c>
       <c r="AK2">
-        <v>1.791643024662581</v>
+        <v>1.91014375537632</v>
       </c>
       <c r="AL2">
-        <v>1.789770518062371</v>
+        <v>1.914860584610105</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-147.6772243282247</v>
+        <v>-150.1084466611203</v>
       </c>
       <c r="AO2">
-        <v>147.9898092982228</v>
+        <v>150.090448771313</v>
       </c>
       <c r="AP2">
-        <v>111.6670408262954</v>
+        <v>111.4369542988879</v>
       </c>
       <c r="AQ2">
-        <v>-147.8127037693061</v>
+        <v>-150.2483298697666</v>
       </c>
       <c r="AR2">
-        <v>147.9080668181428</v>
+        <v>150.0023341653103</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5400,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.005007020211662957</v>
+        <v>0.005476173600824148</v>
       </c>
       <c r="F3">
-        <v>0.005007020213470323</v>
+        <v>0.005476173600727119</v>
       </c>
       <c r="G3">
-        <v>0.005007020213471964</v>
+        <v>0.005476173600723839</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5418,49 +5418,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.05781608934083012</v>
+        <v>0.06323340605129889</v>
       </c>
       <c r="L3">
-        <v>0.05781608936169977</v>
+        <v>0.06323340605017849</v>
       </c>
       <c r="M3">
-        <v>0.05781608936171872</v>
+        <v>0.06323340605014062</v>
       </c>
       <c r="N3">
-        <v>-7.800019531566259E-12</v>
+        <v>-8.455774284984203E-12</v>
       </c>
       <c r="O3">
-        <v>-5.378558081102191E-09</v>
+        <v>-6.723566698490797E-09</v>
       </c>
       <c r="P3">
-        <v>-5.371816373012583E-09</v>
+        <v>-6.762756067536034E-09</v>
       </c>
       <c r="Q3">
-        <v>-0.0002315718658989279</v>
+        <v>-0.0002770011172985599</v>
       </c>
       <c r="R3">
-        <v>0.05522775523506068</v>
+        <v>0.06041735443083532</v>
       </c>
       <c r="S3">
-        <v>-0.05492667479039413</v>
+        <v>-0.06005720807108218</v>
       </c>
       <c r="T3">
-        <v>1.939130444341857E-11</v>
+        <v>2.124190210552202E-11</v>
       </c>
       <c r="U3">
-        <v>-3.374403072369828E-09</v>
+        <v>-3.88392276507717E-09</v>
       </c>
       <c r="V3">
-        <v>3.378342633217275E-09</v>
+        <v>3.861358434077466E-09</v>
       </c>
       <c r="W3">
-        <v>-9.214861819681295E-05</v>
+        <v>-0.0001102261268814689</v>
       </c>
       <c r="X3">
-        <v>-0.08763510488572017</v>
+        <v>-0.1045884042919535</v>
       </c>
       <c r="Y3">
-        <v>-0.08769640852731357</v>
+        <v>-0.105139253553463</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5472,49 +5472,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-90.03188699466631</v>
+        <v>-90.2619732712453</v>
       </c>
       <c r="AD3">
-        <v>-90.03188650303248</v>
+        <v>-90.26197329328608</v>
       </c>
       <c r="AE3">
-        <v>-90.03188650304187</v>
+        <v>-90.26197329329052</v>
       </c>
       <c r="AG3">
-        <v>0.005173102458396543</v>
+        <v>0.005657817600941904</v>
       </c>
       <c r="AH3">
-        <v>1.791485377288026</v>
+        <v>1.910007155128073</v>
       </c>
       <c r="AI3">
-        <v>1.790465841119368</v>
+        <v>1.915597816895338</v>
       </c>
       <c r="AJ3">
-        <v>0.004310783017466636</v>
+        <v>0.004714699588142681</v>
       </c>
       <c r="AK3">
-        <v>1.791643024662581</v>
+        <v>1.91014375537632</v>
       </c>
       <c r="AL3">
-        <v>1.789770518062371</v>
+        <v>1.914860584610105</v>
       </c>
       <c r="AM3">
-        <v>111.6625011136301</v>
+        <v>111.4324145915107</v>
       </c>
       <c r="AN3">
-        <v>-147.8398167242249</v>
+        <v>-150.2763218966813</v>
       </c>
       <c r="AO3">
-        <v>147.891742746896</v>
+        <v>149.9847381218039</v>
       </c>
       <c r="AP3">
-        <v>111.6670408262954</v>
+        <v>111.4369542988879</v>
       </c>
       <c r="AQ3">
-        <v>-147.8127037693061</v>
+        <v>-150.2483298697666</v>
       </c>
       <c r="AR3">
-        <v>147.9080668181428</v>
+        <v>150.0023341653103</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5531,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.005007020211663779</v>
+        <v>0.005476173600824145</v>
       </c>
       <c r="F4">
-        <v>0.005007020213473603</v>
+        <v>0.00547617360072794</v>
       </c>
       <c r="G4">
-        <v>0.005007020213470323</v>
+        <v>0.005476173600722198</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5549,49 +5549,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.05781608934083959</v>
+        <v>0.06323340605129885</v>
       </c>
       <c r="L4">
-        <v>0.05781608936173765</v>
+        <v>0.06323340605018797</v>
       </c>
       <c r="M4">
-        <v>0.05781608936169977</v>
+        <v>0.06323340605012166</v>
       </c>
       <c r="N4">
-        <v>-7.800083170999582E-12</v>
+        <v>-8.455704803744599E-12</v>
       </c>
       <c r="O4">
-        <v>-5.378565481489423E-09</v>
+        <v>-6.723550984116425E-09</v>
       </c>
       <c r="P4">
-        <v>-5.371820036887697E-09</v>
+        <v>-6.762756067536034E-09</v>
       </c>
       <c r="Q4">
-        <v>-0.0002315718658989357</v>
+        <v>-0.0002770011172985763</v>
       </c>
       <c r="R4">
-        <v>0.05522775523505376</v>
+        <v>0.0604173544308443</v>
       </c>
       <c r="S4">
-        <v>-0.05492667479037611</v>
+        <v>-0.06005720807106404</v>
       </c>
       <c r="T4">
-        <v>1.939133190027844E-11</v>
+        <v>2.124187179671443E-11</v>
       </c>
       <c r="U4">
-        <v>-3.374327531297333E-09</v>
+        <v>-3.883913793147279E-09</v>
       </c>
       <c r="V4">
-        <v>3.378304880840279E-09</v>
+        <v>3.861358434077466E-09</v>
       </c>
       <c r="W4">
-        <v>-9.214861819690395E-05</v>
+        <v>-0.0001102261268814273</v>
       </c>
       <c r="X4">
-        <v>-0.08763510488580477</v>
+        <v>-0.1045884042919692</v>
       </c>
       <c r="Y4">
-        <v>-0.08769640852728484</v>
+        <v>-0.1051392535534316</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5603,49 +5603,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-90.0318869946851</v>
+        <v>-90.26197327123671</v>
       </c>
       <c r="AD4">
-        <v>-90.0318865030043</v>
+        <v>-90.26197329328603</v>
       </c>
       <c r="AE4">
-        <v>-90.03188650304187</v>
+        <v>-90.26197329329061</v>
       </c>
       <c r="AG4">
-        <v>0.00517310245839657</v>
+        <v>0.005657817600941873</v>
       </c>
       <c r="AH4">
-        <v>1.791485377288026</v>
+        <v>1.910007155128073</v>
       </c>
       <c r="AI4">
-        <v>1.790465841119368</v>
+        <v>1.915597816895338</v>
       </c>
       <c r="AJ4">
-        <v>0.004310783017466636</v>
+        <v>0.004714699588142681</v>
       </c>
       <c r="AK4">
-        <v>1.791643024662581</v>
+        <v>1.91014375537632</v>
       </c>
       <c r="AL4">
-        <v>1.789770518062371</v>
+        <v>1.914860584610105</v>
       </c>
       <c r="AM4">
-        <v>111.66250111363</v>
+        <v>111.4324145915108</v>
       </c>
       <c r="AN4">
-        <v>-147.8398167242249</v>
+        <v>-150.2763218966813</v>
       </c>
       <c r="AO4">
-        <v>147.891742746896</v>
+        <v>149.9847381218039</v>
       </c>
       <c r="AP4">
-        <v>111.6670408262954</v>
+        <v>111.4369542988879</v>
       </c>
       <c r="AQ4">
-        <v>-147.8127037693061</v>
+        <v>-150.2483298697666</v>
       </c>
       <c r="AR4">
-        <v>147.9080668181428</v>
+        <v>150.0023341653103</v>
       </c>
     </row>
   </sheetData>
@@ -5800,130 +5800,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01159637832285032</v>
+        <v>0.01663808447108689</v>
       </c>
       <c r="C2">
-        <v>0.0115963783271261</v>
+        <v>0.01663808447078845</v>
       </c>
       <c r="D2">
-        <v>0.01159637832712899</v>
+        <v>0.01663808447078186</v>
       </c>
       <c r="E2">
-        <v>0.007733353023091365</v>
+        <v>0.01109554873740557</v>
       </c>
       <c r="F2">
-        <v>0.00773335302728919</v>
+        <v>0.01109554873711466</v>
       </c>
       <c r="G2">
-        <v>0.007733353027290597</v>
+        <v>0.0110955487371064</v>
       </c>
       <c r="H2">
-        <v>0.1339034429264475</v>
+        <v>0.1921200509636349</v>
       </c>
       <c r="I2">
-        <v>0.13390344297582</v>
+        <v>0.1921200509601889</v>
       </c>
       <c r="J2">
-        <v>0.1339034429758533</v>
+        <v>0.1921200509601128</v>
       </c>
       <c r="K2">
-        <v>0.08929706899240411</v>
+        <v>0.1281203610069544</v>
       </c>
       <c r="L2">
-        <v>0.08929706904087643</v>
+        <v>0.1281203610035952</v>
       </c>
       <c r="M2">
-        <v>0.08929706904089268</v>
+        <v>0.1281203610034999</v>
       </c>
       <c r="N2">
-        <v>0.03018375914142905</v>
+        <v>-0.002802168043612884</v>
       </c>
       <c r="O2">
-        <v>0.110315716908388</v>
+        <v>0.1855447269847467</v>
       </c>
       <c r="P2">
-        <v>-0.1393807922556551</v>
+        <v>-0.1804396873915853</v>
       </c>
       <c r="Q2">
-        <v>-0.01983656064487543</v>
+        <v>0.002435808323084336</v>
       </c>
       <c r="R2">
-        <v>-0.0733953484211988</v>
+        <v>-0.1233347698973798</v>
       </c>
       <c r="S2">
-        <v>0.09314899703482424</v>
+        <v>0.1207282803371856</v>
       </c>
       <c r="T2">
-        <v>0.03041456889840162</v>
+        <v>-0.00279248977074921</v>
       </c>
       <c r="U2">
-        <v>-0.1980008326674208</v>
+        <v>-0.3179080596024911</v>
       </c>
       <c r="V2">
-        <v>-0.1456745922053562</v>
+        <v>-0.3241632968037995</v>
       </c>
       <c r="W2">
-        <v>-0.02018879455196159</v>
+        <v>0.002089980668034667</v>
       </c>
       <c r="X2">
-        <v>0.1320937014580957</v>
+        <v>0.212133595859265</v>
       </c>
       <c r="Y2">
-        <v>0.09733049117666148</v>
+        <v>0.2164984273054666</v>
       </c>
       <c r="Z2">
-        <v>-78.16440400922342</v>
+        <v>-90.97917773791657</v>
       </c>
       <c r="AA2">
-        <v>-78.1644035174115</v>
+        <v>-90.97917775995705</v>
       </c>
       <c r="AB2">
-        <v>-78.16440351737307</v>
+        <v>-90.9791777599518</v>
       </c>
       <c r="AC2">
-        <v>101.7902032485915</v>
+        <v>88.97542969104191</v>
       </c>
       <c r="AD2">
-        <v>101.7902039861192</v>
+        <v>88.97542965799273</v>
       </c>
       <c r="AE2">
-        <v>101.7902039861543</v>
+        <v>88.9754296580068</v>
       </c>
       <c r="AG2">
-        <v>0.3200052109448603</v>
+        <v>0.02059142904918081</v>
       </c>
       <c r="AH2">
-        <v>1.692697955814852</v>
+        <v>1.9159525210505</v>
       </c>
       <c r="AI2">
-        <v>1.505664943703896</v>
+        <v>1.931079482844377</v>
       </c>
       <c r="AJ2">
-        <v>0.316956606812583</v>
+        <v>0.02505101709676128</v>
       </c>
       <c r="AK2">
-        <v>1.692268338428329</v>
+        <v>1.915242781817662</v>
       </c>
       <c r="AL2">
-        <v>1.508692160276347</v>
+        <v>1.93478088517471</v>
       </c>
       <c r="AM2">
-        <v>-32.94617420944375</v>
+        <v>133.92170563094</v>
       </c>
       <c r="AN2">
-        <v>-139.0401364232156</v>
+        <v>-150.7095160318581</v>
       </c>
       <c r="AO2">
-        <v>148.1004369773258</v>
+        <v>149.919106990828</v>
       </c>
       <c r="AP2">
-        <v>-32.70559147406571</v>
+        <v>129.6057971736132</v>
       </c>
       <c r="AQ2">
-        <v>-139.1518911893861</v>
+        <v>-150.8507911383069</v>
       </c>
       <c r="AR2">
-        <v>148.0477855454913</v>
+        <v>149.8296242266758</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5940,13 +5940,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.003866676511965278</v>
+        <v>0.005547774368599238</v>
       </c>
       <c r="F3">
-        <v>0.003866676513360359</v>
+        <v>0.005547774368501191</v>
       </c>
       <c r="G3">
-        <v>0.003866676513361497</v>
+        <v>0.005547774368501155</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5958,49 +5958,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.04464853450104713</v>
+        <v>0.06406018050228153</v>
       </c>
       <c r="L3">
-        <v>0.04464853451715614</v>
+        <v>0.06406018050114939</v>
       </c>
       <c r="M3">
-        <v>0.04464853451716928</v>
+        <v>0.06406018050114896</v>
       </c>
       <c r="N3">
-        <v>7.072892550212035E-10</v>
+        <v>-6.824318331667087E-11</v>
       </c>
       <c r="O3">
-        <v>-4.052944007409926E-09</v>
+        <v>-6.818586261559161E-09</v>
       </c>
       <c r="P3">
-        <v>-2.979528191664352E-09</v>
+        <v>-6.96268328927195E-09</v>
       </c>
       <c r="Q3">
-        <v>0.009918280676132048</v>
+        <v>-0.001217904194899777</v>
       </c>
       <c r="R3">
-        <v>0.03669767218422135</v>
+        <v>0.06166738153957989</v>
       </c>
       <c r="S3">
-        <v>-0.04657450000508873</v>
+        <v>-0.06036414364665842</v>
       </c>
       <c r="T3">
-        <v>-6.885061353151063E-10</v>
+        <v>8.145123157718375E-11</v>
       </c>
       <c r="U3">
-        <v>-2.241668813019466E-09</v>
+        <v>-3.964258709093136E-09</v>
       </c>
       <c r="V3">
-        <v>2.861421966530688E-09</v>
+        <v>3.88109345609464E-09</v>
       </c>
       <c r="W3">
-        <v>0.01009439693061028</v>
+        <v>-0.001044990295094065</v>
       </c>
       <c r="X3">
-        <v>-0.0660468518486122</v>
+        <v>-0.1060667999102577</v>
       </c>
       <c r="Y3">
-        <v>-0.04866524415772393</v>
+        <v>-0.1082492117118918</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6012,49 +6012,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-78.20979474994189</v>
+        <v>-91.02456847873991</v>
       </c>
       <c r="AD3">
-        <v>-78.20979425832654</v>
+        <v>-91.0245685007842</v>
       </c>
       <c r="AE3">
-        <v>-78.20979425830521</v>
+        <v>-91.02456850076301</v>
       </c>
       <c r="AG3">
-        <v>0.316347577350083</v>
+        <v>0.0259564924969138</v>
       </c>
       <c r="AH3">
-        <v>1.692182857760155</v>
+        <v>1.915101756176359</v>
       </c>
       <c r="AI3">
-        <v>1.509297738973886</v>
+        <v>1.935521583920837</v>
       </c>
       <c r="AJ3">
-        <v>0.316956606812583</v>
+        <v>0.02505101709676128</v>
       </c>
       <c r="AK3">
-        <v>1.692268338428329</v>
+        <v>1.915242781817662</v>
       </c>
       <c r="AL3">
-        <v>1.508692160276347</v>
+        <v>1.93478088517471</v>
       </c>
       <c r="AM3">
-        <v>-32.65685709360424</v>
+        <v>128.9205839784849</v>
       </c>
       <c r="AN3">
-        <v>-139.1742517821957</v>
+        <v>-150.8790620201317</v>
       </c>
       <c r="AO3">
-        <v>148.0372676934196</v>
+        <v>149.8117549572782</v>
       </c>
       <c r="AP3">
-        <v>-32.70559147406571</v>
+        <v>129.6057971736132</v>
       </c>
       <c r="AQ3">
-        <v>-139.1518911893861</v>
+        <v>-150.8507911383069</v>
       </c>
       <c r="AR3">
-        <v>148.0477855454913</v>
+        <v>149.8296242266758</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6071,13 +6071,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.003866676511964943</v>
+        <v>0.005547774368600849</v>
       </c>
       <c r="F4">
-        <v>0.003866676513363036</v>
+        <v>0.005547774368502774</v>
       </c>
       <c r="G4">
-        <v>0.00386667651335892</v>
+        <v>0.005547774368497933</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6089,49 +6089,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.04464853450104327</v>
+        <v>0.06406018050230013</v>
       </c>
       <c r="L4">
-        <v>0.04464853451718705</v>
+        <v>0.06406018050116766</v>
       </c>
       <c r="M4">
-        <v>0.04464853451713952</v>
+        <v>0.06406018050111176</v>
       </c>
       <c r="N4">
-        <v>7.072917782864481E-10</v>
+        <v>-6.824195455764034E-11</v>
       </c>
       <c r="O4">
-        <v>-4.052939056508997E-09</v>
+        <v>-6.81855456145773E-09</v>
       </c>
       <c r="P4">
-        <v>-2.979528191664352E-09</v>
+        <v>-6.962783571862639E-09</v>
       </c>
       <c r="Q4">
-        <v>0.009918280676126994</v>
+        <v>-0.001217904194900445</v>
       </c>
       <c r="R4">
-        <v>0.03669767218419906</v>
+        <v>0.06166738153953419</v>
       </c>
       <c r="S4">
-        <v>-0.0465745000050539</v>
+        <v>-0.06036414364655819</v>
       </c>
       <c r="T4">
-        <v>-6.885077525408398E-10</v>
+        <v>8.145127557476754E-11</v>
       </c>
       <c r="U4">
-        <v>-2.241600977228112E-09</v>
+        <v>-3.964241049866767E-09</v>
       </c>
       <c r="V4">
-        <v>2.861421966530688E-09</v>
+        <v>3.8810669382796E-09</v>
       </c>
       <c r="W4">
-        <v>0.01009439693061352</v>
+        <v>-0.001044990295094002</v>
       </c>
       <c r="X4">
-        <v>-0.06604685184868447</v>
+        <v>-0.1060667999103248</v>
       </c>
       <c r="Y4">
-        <v>-0.04866524415769512</v>
+        <v>-0.1082492117118653</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6143,49 +6143,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-78.2097947499657</v>
+        <v>-91.02456847872266</v>
       </c>
       <c r="AD4">
-        <v>-78.20979425828514</v>
+        <v>-91.02456850075001</v>
       </c>
       <c r="AE4">
-        <v>-78.20979425830967</v>
+        <v>-91.02456850079751</v>
       </c>
       <c r="AG4">
-        <v>0.3163475773500829</v>
+        <v>0.02595649249691392</v>
       </c>
       <c r="AH4">
-        <v>1.692182857760155</v>
+        <v>1.915101756176359</v>
       </c>
       <c r="AI4">
-        <v>1.509297738973886</v>
+        <v>1.935521583920837</v>
       </c>
       <c r="AJ4">
-        <v>0.316956606812583</v>
+        <v>0.02505101709676128</v>
       </c>
       <c r="AK4">
-        <v>1.692268338428329</v>
+        <v>1.915242781817662</v>
       </c>
       <c r="AL4">
-        <v>1.508692160276347</v>
+        <v>1.93478088517471</v>
       </c>
       <c r="AM4">
-        <v>-32.65685709360426</v>
+        <v>128.9205839784853</v>
       </c>
       <c r="AN4">
-        <v>-139.1742517821957</v>
+        <v>-150.8790620201317</v>
       </c>
       <c r="AO4">
-        <v>148.0372676934196</v>
+        <v>149.8117549572782</v>
       </c>
       <c r="AP4">
-        <v>-32.70559147406571</v>
+        <v>129.6057971736132</v>
       </c>
       <c r="AQ4">
-        <v>-139.1518911893861</v>
+        <v>-150.8507911383069</v>
       </c>
       <c r="AR4">
-        <v>148.0477855454913</v>
+        <v>149.8296242266758</v>
       </c>
     </row>
   </sheetData>
@@ -6565,130 +6565,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01159637832285032</v>
+        <v>0.01663808447108689</v>
       </c>
       <c r="C2">
-        <v>0.0115963783271261</v>
+        <v>0.01663808447078845</v>
       </c>
       <c r="D2">
-        <v>0.01159637832712899</v>
+        <v>0.01663808447078186</v>
       </c>
       <c r="E2">
-        <v>0.007733353023091365</v>
+        <v>0.01109554873740557</v>
       </c>
       <c r="F2">
-        <v>0.00773335302728919</v>
+        <v>0.01109554873711466</v>
       </c>
       <c r="G2">
-        <v>0.007733353027290597</v>
+        <v>0.0110955487371064</v>
       </c>
       <c r="H2">
-        <v>0.1339034429264475</v>
+        <v>0.1921200509636349</v>
       </c>
       <c r="I2">
-        <v>0.13390344297582</v>
+        <v>0.1921200509601889</v>
       </c>
       <c r="J2">
-        <v>0.1339034429758533</v>
+        <v>0.1921200509601128</v>
       </c>
       <c r="K2">
-        <v>0.08929706899240411</v>
+        <v>0.1281203610069544</v>
       </c>
       <c r="L2">
-        <v>0.08929706904087643</v>
+        <v>0.1281203610035952</v>
       </c>
       <c r="M2">
-        <v>0.08929706904089268</v>
+        <v>0.1281203610034999</v>
       </c>
       <c r="N2">
-        <v>0.03018375914142905</v>
+        <v>-0.002802168043612884</v>
       </c>
       <c r="O2">
-        <v>0.110315716908388</v>
+        <v>0.1855447269847467</v>
       </c>
       <c r="P2">
-        <v>-0.1393807922556551</v>
+        <v>-0.1804396873915853</v>
       </c>
       <c r="Q2">
-        <v>-0.01983656064487543</v>
+        <v>0.002435808323084336</v>
       </c>
       <c r="R2">
-        <v>-0.0733953484211988</v>
+        <v>-0.1233347698973798</v>
       </c>
       <c r="S2">
-        <v>0.09314899703482424</v>
+        <v>0.1207282803371856</v>
       </c>
       <c r="T2">
-        <v>0.03041456889840162</v>
+        <v>-0.00279248977074921</v>
       </c>
       <c r="U2">
-        <v>-0.1980008326674208</v>
+        <v>-0.3179080596024911</v>
       </c>
       <c r="V2">
-        <v>-0.1456745922053562</v>
+        <v>-0.3241632968037995</v>
       </c>
       <c r="W2">
-        <v>-0.02018879455196159</v>
+        <v>0.002089980668034667</v>
       </c>
       <c r="X2">
-        <v>0.1320937014580957</v>
+        <v>0.212133595859265</v>
       </c>
       <c r="Y2">
-        <v>0.09733049117666148</v>
+        <v>0.2164984273054666</v>
       </c>
       <c r="Z2">
-        <v>-78.16440400922342</v>
+        <v>-90.97917773791657</v>
       </c>
       <c r="AA2">
-        <v>-78.1644035174115</v>
+        <v>-90.97917775995705</v>
       </c>
       <c r="AB2">
-        <v>-78.16440351737307</v>
+        <v>-90.9791777599518</v>
       </c>
       <c r="AC2">
-        <v>101.7902032485915</v>
+        <v>88.97542969104191</v>
       </c>
       <c r="AD2">
-        <v>101.7902039861192</v>
+        <v>88.97542965799273</v>
       </c>
       <c r="AE2">
-        <v>101.7902039861543</v>
+        <v>88.9754296580068</v>
       </c>
       <c r="AG2">
-        <v>0.3200052109448603</v>
+        <v>0.02059142904918081</v>
       </c>
       <c r="AH2">
-        <v>1.692697955814852</v>
+        <v>1.9159525210505</v>
       </c>
       <c r="AI2">
-        <v>1.505664943703896</v>
+        <v>1.931079482844377</v>
       </c>
       <c r="AJ2">
-        <v>0.316956606812583</v>
+        <v>0.02505101709676128</v>
       </c>
       <c r="AK2">
-        <v>1.692268338428329</v>
+        <v>1.915242781817662</v>
       </c>
       <c r="AL2">
-        <v>1.508692160276347</v>
+        <v>1.93478088517471</v>
       </c>
       <c r="AM2">
-        <v>-32.94617420944375</v>
+        <v>133.92170563094</v>
       </c>
       <c r="AN2">
-        <v>-139.0401364232156</v>
+        <v>-150.7095160318581</v>
       </c>
       <c r="AO2">
-        <v>148.1004369773258</v>
+        <v>149.919106990828</v>
       </c>
       <c r="AP2">
-        <v>-32.70559147406571</v>
+        <v>129.6057971736132</v>
       </c>
       <c r="AQ2">
-        <v>-139.1518911893861</v>
+        <v>-150.8507911383069</v>
       </c>
       <c r="AR2">
-        <v>148.0477855454913</v>
+        <v>149.8296242266758</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6705,13 +6705,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.003866676511965278</v>
+        <v>0.005547774368599238</v>
       </c>
       <c r="F3">
-        <v>0.003866676513360359</v>
+        <v>0.005547774368501191</v>
       </c>
       <c r="G3">
-        <v>0.003866676513361497</v>
+        <v>0.005547774368501155</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -6723,49 +6723,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.04464853450104713</v>
+        <v>0.06406018050228153</v>
       </c>
       <c r="L3">
-        <v>0.04464853451715614</v>
+        <v>0.06406018050114939</v>
       </c>
       <c r="M3">
-        <v>0.04464853451716928</v>
+        <v>0.06406018050114896</v>
       </c>
       <c r="N3">
-        <v>7.072892550212035E-10</v>
+        <v>-6.824318331667087E-11</v>
       </c>
       <c r="O3">
-        <v>-4.052944007409926E-09</v>
+        <v>-6.818586261559161E-09</v>
       </c>
       <c r="P3">
-        <v>-2.979528191664352E-09</v>
+        <v>-6.96268328927195E-09</v>
       </c>
       <c r="Q3">
-        <v>0.009918280676132048</v>
+        <v>-0.001217904194899777</v>
       </c>
       <c r="R3">
-        <v>0.03669767218422135</v>
+        <v>0.06166738153957989</v>
       </c>
       <c r="S3">
-        <v>-0.04657450000508873</v>
+        <v>-0.06036414364665842</v>
       </c>
       <c r="T3">
-        <v>-6.885061353151063E-10</v>
+        <v>8.145123157718375E-11</v>
       </c>
       <c r="U3">
-        <v>-2.241668813019466E-09</v>
+        <v>-3.964258709093136E-09</v>
       </c>
       <c r="V3">
-        <v>2.861421966530688E-09</v>
+        <v>3.88109345609464E-09</v>
       </c>
       <c r="W3">
-        <v>0.01009439693061028</v>
+        <v>-0.001044990295094065</v>
       </c>
       <c r="X3">
-        <v>-0.0660468518486122</v>
+        <v>-0.1060667999102577</v>
       </c>
       <c r="Y3">
-        <v>-0.04866524415772393</v>
+        <v>-0.1082492117118918</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6777,49 +6777,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-78.20979474994189</v>
+        <v>-91.02456847873991</v>
       </c>
       <c r="AD3">
-        <v>-78.20979425832654</v>
+        <v>-91.0245685007842</v>
       </c>
       <c r="AE3">
-        <v>-78.20979425830521</v>
+        <v>-91.02456850076301</v>
       </c>
       <c r="AG3">
-        <v>0.316347577350083</v>
+        <v>0.0259564924969138</v>
       </c>
       <c r="AH3">
-        <v>1.692182857760155</v>
+        <v>1.915101756176359</v>
       </c>
       <c r="AI3">
-        <v>1.509297738973886</v>
+        <v>1.935521583920837</v>
       </c>
       <c r="AJ3">
-        <v>0.316956606812583</v>
+        <v>0.02505101709676128</v>
       </c>
       <c r="AK3">
-        <v>1.692268338428329</v>
+        <v>1.915242781817662</v>
       </c>
       <c r="AL3">
-        <v>1.508692160276347</v>
+        <v>1.93478088517471</v>
       </c>
       <c r="AM3">
-        <v>-32.65685709360424</v>
+        <v>128.9205839784849</v>
       </c>
       <c r="AN3">
-        <v>-139.1742517821957</v>
+        <v>-150.8790620201317</v>
       </c>
       <c r="AO3">
-        <v>148.0372676934196</v>
+        <v>149.8117549572782</v>
       </c>
       <c r="AP3">
-        <v>-32.70559147406571</v>
+        <v>129.6057971736132</v>
       </c>
       <c r="AQ3">
-        <v>-139.1518911893861</v>
+        <v>-150.8507911383069</v>
       </c>
       <c r="AR3">
-        <v>148.0477855454913</v>
+        <v>149.8296242266758</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6836,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.003866676511964943</v>
+        <v>0.005547774368600849</v>
       </c>
       <c r="F4">
-        <v>0.003866676513363036</v>
+        <v>0.005547774368502774</v>
       </c>
       <c r="G4">
-        <v>0.00386667651335892</v>
+        <v>0.005547774368497933</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6854,49 +6854,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.04464853450104327</v>
+        <v>0.06406018050230013</v>
       </c>
       <c r="L4">
-        <v>0.04464853451718705</v>
+        <v>0.06406018050116766</v>
       </c>
       <c r="M4">
-        <v>0.04464853451713952</v>
+        <v>0.06406018050111176</v>
       </c>
       <c r="N4">
-        <v>7.072917782864481E-10</v>
+        <v>-6.824195455764034E-11</v>
       </c>
       <c r="O4">
-        <v>-4.052939056508997E-09</v>
+        <v>-6.81855456145773E-09</v>
       </c>
       <c r="P4">
-        <v>-2.979528191664352E-09</v>
+        <v>-6.962783571862639E-09</v>
       </c>
       <c r="Q4">
-        <v>0.009918280676126994</v>
+        <v>-0.001217904194900445</v>
       </c>
       <c r="R4">
-        <v>0.03669767218419906</v>
+        <v>0.06166738153953419</v>
       </c>
       <c r="S4">
-        <v>-0.0465745000050539</v>
+        <v>-0.06036414364655819</v>
       </c>
       <c r="T4">
-        <v>-6.885077525408398E-10</v>
+        <v>8.145127557476754E-11</v>
       </c>
       <c r="U4">
-        <v>-2.241600977228112E-09</v>
+        <v>-3.964241049866767E-09</v>
       </c>
       <c r="V4">
-        <v>2.861421966530688E-09</v>
+        <v>3.8810669382796E-09</v>
       </c>
       <c r="W4">
-        <v>0.01009439693061352</v>
+        <v>-0.001044990295094002</v>
       </c>
       <c r="X4">
-        <v>-0.06604685184868447</v>
+        <v>-0.1060667999103248</v>
       </c>
       <c r="Y4">
-        <v>-0.04866524415769512</v>
+        <v>-0.1082492117118653</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6908,49 +6908,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-78.2097947499657</v>
+        <v>-91.02456847872266</v>
       </c>
       <c r="AD4">
-        <v>-78.20979425828514</v>
+        <v>-91.02456850075001</v>
       </c>
       <c r="AE4">
-        <v>-78.20979425830967</v>
+        <v>-91.02456850079751</v>
       </c>
       <c r="AG4">
-        <v>0.3163475773500829</v>
+        <v>0.02595649249691392</v>
       </c>
       <c r="AH4">
-        <v>1.692182857760155</v>
+        <v>1.915101756176359</v>
       </c>
       <c r="AI4">
-        <v>1.509297738973886</v>
+        <v>1.935521583920837</v>
       </c>
       <c r="AJ4">
-        <v>0.316956606812583</v>
+        <v>0.02505101709676128</v>
       </c>
       <c r="AK4">
-        <v>1.692268338428329</v>
+        <v>1.915242781817662</v>
       </c>
       <c r="AL4">
-        <v>1.508692160276347</v>
+        <v>1.93478088517471</v>
       </c>
       <c r="AM4">
-        <v>-32.65685709360426</v>
+        <v>128.9205839784853</v>
       </c>
       <c r="AN4">
-        <v>-139.1742517821957</v>
+        <v>-150.8790620201317</v>
       </c>
       <c r="AO4">
-        <v>148.0372676934196</v>
+        <v>149.8117549572782</v>
       </c>
       <c r="AP4">
-        <v>-32.70559147406571</v>
+        <v>129.6057971736132</v>
       </c>
       <c r="AQ4">
-        <v>-139.1518911893861</v>
+        <v>-150.8507911383069</v>
       </c>
       <c r="AR4">
-        <v>148.0477855454913</v>
+        <v>149.8296242266758</v>
       </c>
     </row>
   </sheetData>
@@ -7105,130 +7105,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0135990171881758</v>
+        <v>0.01493274370902022</v>
       </c>
       <c r="C2">
-        <v>0.01359901719311857</v>
+        <v>0.01493274370871367</v>
       </c>
       <c r="D2">
-        <v>0.01359901719311878</v>
+        <v>0.01493274370871385</v>
       </c>
       <c r="E2">
-        <v>0.00906885831928971</v>
+        <v>0.009958288540770875</v>
       </c>
       <c r="F2">
-        <v>0.009068858324047252</v>
+        <v>0.00995828854047431</v>
       </c>
       <c r="G2">
-        <v>0.009068858324046849</v>
+        <v>0.009958288540474699</v>
       </c>
       <c r="H2">
-        <v>0.157027924686153</v>
+        <v>0.1724284720028503</v>
       </c>
       <c r="I2">
-        <v>0.157027924743227</v>
+        <v>0.1724284719993106</v>
       </c>
       <c r="J2">
-        <v>0.1570279247432295</v>
+        <v>0.1724284719993126</v>
       </c>
       <c r="K2">
-        <v>0.1047181558376898</v>
+        <v>0.1149884113936406</v>
       </c>
       <c r="L2">
-        <v>0.1047181558926252</v>
+        <v>0.1149884113902162</v>
       </c>
       <c r="M2">
-        <v>0.1047181558926205</v>
+        <v>0.1149884113902207</v>
       </c>
       <c r="N2">
-        <v>1.293691667107003E-13</v>
+        <v>-4.387540314581331E-14</v>
       </c>
       <c r="O2">
-        <v>0.1374665114469001</v>
+        <v>0.1511044483768265</v>
       </c>
       <c r="P2">
-        <v>-0.1345127547705464</v>
+        <v>-0.1475428980010077</v>
       </c>
       <c r="Q2">
-        <v>0.0007292956205239064</v>
+        <v>0.0008793621803264327</v>
       </c>
       <c r="R2">
-        <v>-0.09116182733318905</v>
+        <v>-0.1001508366199763</v>
       </c>
       <c r="S2">
-        <v>0.09021363402479599</v>
+        <v>0.09900753273022356</v>
       </c>
       <c r="T2">
-        <v>1.030136350654037E-13</v>
+        <v>-3.285613584100265E-14</v>
       </c>
       <c r="U2">
-        <v>-0.2150190914450683</v>
+        <v>-0.2586647491518406</v>
       </c>
       <c r="V2">
-        <v>-0.215784725431705</v>
+        <v>-0.2607852136203563</v>
       </c>
       <c r="W2">
-        <v>0.0001512299133410341</v>
+        <v>0.0001823483607109141</v>
       </c>
       <c r="X2">
-        <v>0.1434026949434406</v>
+        <v>0.1725261876146839</v>
       </c>
       <c r="Y2">
-        <v>0.1441891667285239</v>
+        <v>0.1742432140914961</v>
       </c>
       <c r="Z2">
-        <v>-90.16129031016361</v>
+        <v>-90.40680628057613</v>
       </c>
       <c r="AA2">
-        <v>-90.16128979542812</v>
+        <v>-90.40680630368865</v>
       </c>
       <c r="AB2">
-        <v>-90.16128979543502</v>
+        <v>-90.40680630367447</v>
       </c>
       <c r="AC2">
-        <v>89.7515575081478</v>
+        <v>89.50604171687772</v>
       </c>
       <c r="AD2">
-        <v>89.75155828005268</v>
+        <v>89.50604168221487</v>
       </c>
       <c r="AE2">
-        <v>89.7515582800423</v>
+        <v>89.50604168222904</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.62522871251012</v>
+        <v>1.737337001726622</v>
       </c>
       <c r="AI2">
-        <v>1.619309909083573</v>
+        <v>1.737703128290593</v>
       </c>
       <c r="AJ2">
-        <v>0.007112524396655304</v>
+        <v>0.007810086745532275</v>
       </c>
       <c r="AK2">
-        <v>1.622697602985265</v>
+        <v>1.734853373789114</v>
       </c>
       <c r="AL2">
-        <v>1.624219955366216</v>
+        <v>1.742850042925666</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-147.5695994122692</v>
+        <v>-150.1145721017107</v>
       </c>
       <c r="AO2">
-        <v>147.9007199697551</v>
+        <v>150.0935726301677</v>
       </c>
       <c r="AP2">
-        <v>101.4666270095402</v>
+        <v>101.221110751438</v>
       </c>
       <c r="AQ2">
-        <v>-147.8041124884619</v>
+        <v>-150.3589460406404</v>
       </c>
       <c r="AR2">
-        <v>147.7189216450658</v>
+        <v>149.9001724359198</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7245,13 +7245,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.004534429160063982</v>
+        <v>0.004979144270230583</v>
       </c>
       <c r="F3">
-        <v>0.004534429161648525</v>
+        <v>0.004979144270132384</v>
       </c>
       <c r="G3">
-        <v>0.004534429161647912</v>
+        <v>0.00497914427013116</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -7263,49 +7263,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.05235907792368458</v>
+        <v>0.0574942056950322</v>
       </c>
       <c r="L3">
-        <v>0.0523590779419813</v>
+        <v>0.05749420569389829</v>
       </c>
       <c r="M3">
-        <v>0.05235907794197423</v>
+        <v>0.05749420569388416</v>
       </c>
       <c r="N3">
-        <v>-6.484085589264468E-12</v>
+        <v>-7.004373443133347E-12</v>
       </c>
       <c r="O3">
-        <v>-4.389841247170039E-09</v>
+        <v>-5.54477000730736E-09</v>
       </c>
       <c r="P3">
-        <v>-4.407754049234368E-09</v>
+        <v>-5.605514074021919E-09</v>
       </c>
       <c r="Q3">
-        <v>-0.0003646478129470428</v>
+        <v>-0.0004396810930612963</v>
       </c>
       <c r="R3">
-        <v>0.04558091147063489</v>
+        <v>0.05007541553656839</v>
       </c>
       <c r="S3">
-        <v>-0.04510681921287427</v>
+        <v>-0.04950376916397723</v>
       </c>
       <c r="T3">
-        <v>3.067239078916322E-11</v>
+        <v>3.370934819315905E-11</v>
       </c>
       <c r="U3">
-        <v>-2.778774483553093E-09</v>
+        <v>-3.218747833682769E-09</v>
       </c>
       <c r="V3">
-        <v>2.768439036221537E-09</v>
+        <v>3.183731140426707E-09</v>
       </c>
       <c r="W3">
-        <v>-7.561494389139016E-05</v>
+        <v>-9.117416631088937E-05</v>
       </c>
       <c r="X3">
-        <v>-0.07170134885937471</v>
+        <v>-0.08626309541487531</v>
       </c>
       <c r="Y3">
-        <v>-0.07209458197920073</v>
+        <v>-0.08712160545293396</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7317,49 +7317,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-90.24844048280914</v>
+        <v>-90.49395645330698</v>
       </c>
       <c r="AD3">
-        <v>-90.24843996818524</v>
+        <v>-90.49395647637772</v>
       </c>
       <c r="AE3">
-        <v>-90.24843996819564</v>
+        <v>-90.49395647638728</v>
       </c>
       <c r="AG3">
-        <v>0.008535297156621095</v>
+        <v>0.009372398247100219</v>
       </c>
       <c r="AH3">
-        <v>1.622193340077474</v>
+        <v>1.734358996081484</v>
       </c>
       <c r="AI3">
-        <v>1.625203167701236</v>
+        <v>1.743880924514883</v>
       </c>
       <c r="AJ3">
-        <v>0.007112524396655304</v>
+        <v>0.007810086745532275</v>
       </c>
       <c r="AK3">
-        <v>1.622697602985265</v>
+        <v>1.734853373789114</v>
       </c>
       <c r="AL3">
-        <v>1.624219955366216</v>
+        <v>1.742850042925666</v>
       </c>
       <c r="AM3">
-        <v>101.4579112206071</v>
+        <v>101.2123949690355</v>
       </c>
       <c r="AN3">
-        <v>-147.8510953536624</v>
+        <v>-150.4078989408323</v>
       </c>
       <c r="AO3">
-        <v>147.6826554131116</v>
+        <v>149.8615913089872</v>
       </c>
       <c r="AP3">
-        <v>101.4666270095402</v>
+        <v>101.221110751438</v>
       </c>
       <c r="AQ3">
-        <v>-147.8041124884619</v>
+        <v>-150.3589460406404</v>
       </c>
       <c r="AR3">
-        <v>147.7189216450658</v>
+        <v>149.9001724359198</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7376,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.004534429160063155</v>
+        <v>0.004979144270229763</v>
       </c>
       <c r="F4">
-        <v>0.004534429161648521</v>
+        <v>0.00497914427013157</v>
       </c>
       <c r="G4">
-        <v>0.004534429161647912</v>
+        <v>0.004979144270131953</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -7394,49 +7394,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.05235907792367503</v>
+        <v>0.05749420569502273</v>
       </c>
       <c r="L4">
-        <v>0.05235907794198126</v>
+        <v>0.0574942056938889</v>
       </c>
       <c r="M4">
-        <v>0.05235907794197423</v>
+        <v>0.05749420569389332</v>
       </c>
       <c r="N4">
-        <v>-6.484077025219317E-12</v>
+        <v>-7.00446054154091E-12</v>
       </c>
       <c r="O4">
-        <v>-4.389819312085042E-09</v>
+        <v>-5.544782355021042E-09</v>
       </c>
       <c r="P4">
-        <v>-4.407736921528523E-09</v>
+        <v>-5.60547720296386E-09</v>
       </c>
       <c r="Q4">
-        <v>-0.0003646478129470036</v>
+        <v>-0.0004396810930612237</v>
       </c>
       <c r="R4">
-        <v>0.04558091147062187</v>
+        <v>0.05007541553657455</v>
       </c>
       <c r="S4">
-        <v>-0.04510681921287427</v>
+        <v>-0.04950376916404266</v>
       </c>
       <c r="T4">
-        <v>3.067214500438706E-11</v>
+        <v>3.370933092762649E-11</v>
       </c>
       <c r="U4">
-        <v>-2.778751621723536E-09</v>
+        <v>-3.218792637647602E-09</v>
       </c>
       <c r="V4">
-        <v>2.768437310859712E-09</v>
+        <v>3.183728837908727E-09</v>
       </c>
       <c r="W4">
-        <v>-7.561494389124469E-05</v>
+        <v>-9.117416631087499E-05</v>
       </c>
       <c r="X4">
-        <v>-0.0717013488593829</v>
+        <v>-0.08626309541485289</v>
       </c>
       <c r="Y4">
-        <v>-0.07209458197920073</v>
+        <v>-0.0871216054529151</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7448,49 +7448,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-90.24844048278845</v>
+        <v>-90.49395645330705</v>
       </c>
       <c r="AD4">
-        <v>-90.24843996817486</v>
+        <v>-90.49395647638724</v>
       </c>
       <c r="AE4">
-        <v>-90.24843996819564</v>
+        <v>-90.49395647634942</v>
       </c>
       <c r="AG4">
-        <v>0.008535297156621028</v>
+        <v>0.009372398247099787</v>
       </c>
       <c r="AH4">
-        <v>1.622193340077475</v>
+        <v>1.734358996081485</v>
       </c>
       <c r="AI4">
-        <v>1.625203167701236</v>
+        <v>1.743880924514883</v>
       </c>
       <c r="AJ4">
-        <v>0.007112524396655304</v>
+        <v>0.007810086745532275</v>
       </c>
       <c r="AK4">
-        <v>1.622697602985265</v>
+        <v>1.734853373789114</v>
       </c>
       <c r="AL4">
-        <v>1.624219955366216</v>
+        <v>1.742850042925666</v>
       </c>
       <c r="AM4">
-        <v>101.4579112206133</v>
+        <v>101.212394969036</v>
       </c>
       <c r="AN4">
-        <v>-147.8510953536624</v>
+        <v>-150.4078989408322</v>
       </c>
       <c r="AO4">
-        <v>147.6826554131116</v>
+        <v>149.8615913089872</v>
       </c>
       <c r="AP4">
-        <v>101.4666270095402</v>
+        <v>101.221110751438</v>
       </c>
       <c r="AQ4">
-        <v>-147.8041124884619</v>
+        <v>-150.3589460406404</v>
       </c>
       <c r="AR4">
-        <v>147.7189216450658</v>
+        <v>149.9001724359198</v>
       </c>
     </row>
   </sheetData>
@@ -7645,130 +7645,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0135990171881758</v>
+        <v>0.01493274370902022</v>
       </c>
       <c r="C2">
-        <v>0.01359901719311857</v>
+        <v>0.01493274370871367</v>
       </c>
       <c r="D2">
-        <v>0.01359901719311878</v>
+        <v>0.01493274370871385</v>
       </c>
       <c r="E2">
-        <v>0.00906885831928971</v>
+        <v>0.009958288540770875</v>
       </c>
       <c r="F2">
-        <v>0.009068858324047252</v>
+        <v>0.00995828854047431</v>
       </c>
       <c r="G2">
-        <v>0.009068858324046849</v>
+        <v>0.009958288540474699</v>
       </c>
       <c r="H2">
-        <v>0.157027924686153</v>
+        <v>0.1724284720028503</v>
       </c>
       <c r="I2">
-        <v>0.157027924743227</v>
+        <v>0.1724284719993106</v>
       </c>
       <c r="J2">
-        <v>0.1570279247432295</v>
+        <v>0.1724284719993126</v>
       </c>
       <c r="K2">
-        <v>0.1047181558376898</v>
+        <v>0.1149884113936406</v>
       </c>
       <c r="L2">
-        <v>0.1047181558926252</v>
+        <v>0.1149884113902162</v>
       </c>
       <c r="M2">
-        <v>0.1047181558926205</v>
+        <v>0.1149884113902207</v>
       </c>
       <c r="N2">
-        <v>1.293691667107003E-13</v>
+        <v>-4.387540314581331E-14</v>
       </c>
       <c r="O2">
-        <v>0.1374665114469001</v>
+        <v>0.1511044483768265</v>
       </c>
       <c r="P2">
-        <v>-0.1345127547705464</v>
+        <v>-0.1475428980010077</v>
       </c>
       <c r="Q2">
-        <v>0.0007292956205239064</v>
+        <v>0.0008793621803264327</v>
       </c>
       <c r="R2">
-        <v>-0.09116182733318905</v>
+        <v>-0.1001508366199763</v>
       </c>
       <c r="S2">
-        <v>0.09021363402479599</v>
+        <v>0.09900753273022356</v>
       </c>
       <c r="T2">
-        <v>1.030136350654037E-13</v>
+        <v>-3.285613584100265E-14</v>
       </c>
       <c r="U2">
-        <v>-0.2150190914450683</v>
+        <v>-0.2586647491518406</v>
       </c>
       <c r="V2">
-        <v>-0.215784725431705</v>
+        <v>-0.2607852136203563</v>
       </c>
       <c r="W2">
-        <v>0.0001512299133410341</v>
+        <v>0.0001823483607109141</v>
       </c>
       <c r="X2">
-        <v>0.1434026949434406</v>
+        <v>0.1725261876146839</v>
       </c>
       <c r="Y2">
-        <v>0.1441891667285239</v>
+        <v>0.1742432140914961</v>
       </c>
       <c r="Z2">
-        <v>-90.16129031016361</v>
+        <v>-90.40680628057613</v>
       </c>
       <c r="AA2">
-        <v>-90.16128979542812</v>
+        <v>-90.40680630368865</v>
       </c>
       <c r="AB2">
-        <v>-90.16128979543502</v>
+        <v>-90.40680630367447</v>
       </c>
       <c r="AC2">
-        <v>89.7515575081478</v>
+        <v>89.50604171687772</v>
       </c>
       <c r="AD2">
-        <v>89.75155828005268</v>
+        <v>89.50604168221487</v>
       </c>
       <c r="AE2">
-        <v>89.7515582800423</v>
+        <v>89.50604168222904</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.62522871251012</v>
+        <v>1.737337001726622</v>
       </c>
       <c r="AI2">
-        <v>1.619309909083573</v>
+        <v>1.737703128290593</v>
       </c>
       <c r="AJ2">
-        <v>0.007112524396655304</v>
+        <v>0.007810086745532275</v>
       </c>
       <c r="AK2">
-        <v>1.622697602985265</v>
+        <v>1.734853373789114</v>
       </c>
       <c r="AL2">
-        <v>1.624219955366216</v>
+        <v>1.742850042925666</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-147.5695994122692</v>
+        <v>-150.1145721017107</v>
       </c>
       <c r="AO2">
-        <v>147.9007199697551</v>
+        <v>150.0935726301677</v>
       </c>
       <c r="AP2">
-        <v>101.4666270095402</v>
+        <v>101.221110751438</v>
       </c>
       <c r="AQ2">
-        <v>-147.8041124884619</v>
+        <v>-150.3589460406404</v>
       </c>
       <c r="AR2">
-        <v>147.7189216450658</v>
+        <v>149.9001724359198</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7785,13 +7785,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.004534429160063982</v>
+        <v>0.004979144270230583</v>
       </c>
       <c r="F3">
-        <v>0.004534429161648525</v>
+        <v>0.004979144270132384</v>
       </c>
       <c r="G3">
-        <v>0.004534429161647912</v>
+        <v>0.00497914427013116</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -7803,49 +7803,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.05235907792368458</v>
+        <v>0.0574942056950322</v>
       </c>
       <c r="L3">
-        <v>0.0523590779419813</v>
+        <v>0.05749420569389829</v>
       </c>
       <c r="M3">
-        <v>0.05235907794197423</v>
+        <v>0.05749420569388416</v>
       </c>
       <c r="N3">
-        <v>-6.484085589264468E-12</v>
+        <v>-7.004373443133347E-12</v>
       </c>
       <c r="O3">
-        <v>-4.389841247170039E-09</v>
+        <v>-5.54477000730736E-09</v>
       </c>
       <c r="P3">
-        <v>-4.407754049234368E-09</v>
+        <v>-5.605514074021919E-09</v>
       </c>
       <c r="Q3">
-        <v>-0.0003646478129470428</v>
+        <v>-0.0004396810930612963</v>
       </c>
       <c r="R3">
-        <v>0.04558091147063489</v>
+        <v>0.05007541553656839</v>
       </c>
       <c r="S3">
-        <v>-0.04510681921287427</v>
+        <v>-0.04950376916397723</v>
       </c>
       <c r="T3">
-        <v>3.067239078916322E-11</v>
+        <v>3.370934819315905E-11</v>
       </c>
       <c r="U3">
-        <v>-2.778774483553093E-09</v>
+        <v>-3.218747833682769E-09</v>
       </c>
       <c r="V3">
-        <v>2.768439036221537E-09</v>
+        <v>3.183731140426707E-09</v>
       </c>
       <c r="W3">
-        <v>-7.561494389139016E-05</v>
+        <v>-9.117416631088937E-05</v>
       </c>
       <c r="X3">
-        <v>-0.07170134885937471</v>
+        <v>-0.08626309541487531</v>
       </c>
       <c r="Y3">
-        <v>-0.07209458197920073</v>
+        <v>-0.08712160545293396</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7857,49 +7857,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-90.24844048280914</v>
+        <v>-90.49395645330698</v>
       </c>
       <c r="AD3">
-        <v>-90.24843996818524</v>
+        <v>-90.49395647637772</v>
       </c>
       <c r="AE3">
-        <v>-90.24843996819564</v>
+        <v>-90.49395647638728</v>
       </c>
       <c r="AG3">
-        <v>0.008535297156621095</v>
+        <v>0.009372398247100219</v>
       </c>
       <c r="AH3">
-        <v>1.622193340077474</v>
+        <v>1.734358996081484</v>
       </c>
       <c r="AI3">
-        <v>1.625203167701236</v>
+        <v>1.743880924514883</v>
       </c>
       <c r="AJ3">
-        <v>0.007112524396655304</v>
+        <v>0.007810086745532275</v>
       </c>
       <c r="AK3">
-        <v>1.622697602985265</v>
+        <v>1.734853373789114</v>
       </c>
       <c r="AL3">
-        <v>1.624219955366216</v>
+        <v>1.742850042925666</v>
       </c>
       <c r="AM3">
-        <v>101.4579112206071</v>
+        <v>101.2123949690355</v>
       </c>
       <c r="AN3">
-        <v>-147.8510953536624</v>
+        <v>-150.4078989408323</v>
       </c>
       <c r="AO3">
-        <v>147.6826554131116</v>
+        <v>149.8615913089872</v>
       </c>
       <c r="AP3">
-        <v>101.4666270095402</v>
+        <v>101.221110751438</v>
       </c>
       <c r="AQ3">
-        <v>-147.8041124884619</v>
+        <v>-150.3589460406404</v>
       </c>
       <c r="AR3">
-        <v>147.7189216450658</v>
+        <v>149.9001724359198</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7916,13 +7916,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.004534429160063155</v>
+        <v>0.004979144270229763</v>
       </c>
       <c r="F4">
-        <v>0.004534429161648521</v>
+        <v>0.00497914427013157</v>
       </c>
       <c r="G4">
-        <v>0.004534429161647912</v>
+        <v>0.004979144270131953</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -7934,49 +7934,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.05235907792367503</v>
+        <v>0.05749420569502273</v>
       </c>
       <c r="L4">
-        <v>0.05235907794198126</v>
+        <v>0.0574942056938889</v>
       </c>
       <c r="M4">
-        <v>0.05235907794197423</v>
+        <v>0.05749420569389332</v>
       </c>
       <c r="N4">
-        <v>-6.484077025219317E-12</v>
+        <v>-7.00446054154091E-12</v>
       </c>
       <c r="O4">
-        <v>-4.389819312085042E-09</v>
+        <v>-5.544782355021042E-09</v>
       </c>
       <c r="P4">
-        <v>-4.407736921528523E-09</v>
+        <v>-5.60547720296386E-09</v>
       </c>
       <c r="Q4">
-        <v>-0.0003646478129470036</v>
+        <v>-0.0004396810930612237</v>
       </c>
       <c r="R4">
-        <v>0.04558091147062187</v>
+        <v>0.05007541553657455</v>
       </c>
       <c r="S4">
-        <v>-0.04510681921287427</v>
+        <v>-0.04950376916404266</v>
       </c>
       <c r="T4">
-        <v>3.067214500438706E-11</v>
+        <v>3.370933092762649E-11</v>
       </c>
       <c r="U4">
-        <v>-2.778751621723536E-09</v>
+        <v>-3.218792637647602E-09</v>
       </c>
       <c r="V4">
-        <v>2.768437310859712E-09</v>
+        <v>3.183728837908727E-09</v>
       </c>
       <c r="W4">
-        <v>-7.561494389124469E-05</v>
+        <v>-9.117416631087499E-05</v>
       </c>
       <c r="X4">
-        <v>-0.0717013488593829</v>
+        <v>-0.08626309541485289</v>
       </c>
       <c r="Y4">
-        <v>-0.07209458197920073</v>
+        <v>-0.0871216054529151</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7988,49 +7988,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-90.24844048278845</v>
+        <v>-90.49395645330705</v>
       </c>
       <c r="AD4">
-        <v>-90.24843996817486</v>
+        <v>-90.49395647638724</v>
       </c>
       <c r="AE4">
-        <v>-90.24843996819564</v>
+        <v>-90.49395647634942</v>
       </c>
       <c r="AG4">
-        <v>0.008535297156621028</v>
+        <v>0.009372398247099787</v>
       </c>
       <c r="AH4">
-        <v>1.622193340077475</v>
+        <v>1.734358996081485</v>
       </c>
       <c r="AI4">
-        <v>1.625203167701236</v>
+        <v>1.743880924514883</v>
       </c>
       <c r="AJ4">
-        <v>0.007112524396655304</v>
+        <v>0.007810086745532275</v>
       </c>
       <c r="AK4">
-        <v>1.622697602985265</v>
+        <v>1.734853373789114</v>
       </c>
       <c r="AL4">
-        <v>1.624219955366216</v>
+        <v>1.742850042925666</v>
       </c>
       <c r="AM4">
-        <v>101.4579112206133</v>
+        <v>101.212394969036</v>
       </c>
       <c r="AN4">
-        <v>-147.8510953536624</v>
+        <v>-150.4078989408322</v>
       </c>
       <c r="AO4">
-        <v>147.6826554131116</v>
+        <v>149.8615913089872</v>
       </c>
       <c r="AP4">
-        <v>101.4666270095402</v>
+        <v>101.221110751438</v>
       </c>
       <c r="AQ4">
-        <v>-147.8041124884619</v>
+        <v>-150.3589460406404</v>
       </c>
       <c r="AR4">
-        <v>147.7189216450658</v>
+        <v>149.9001724359198</v>
       </c>
     </row>
   </sheetData>
@@ -8185,130 +8185,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01051152255559165</v>
+        <v>0.01512701696342791</v>
       </c>
       <c r="C2">
-        <v>0.01051152255940977</v>
+        <v>0.01512701696311736</v>
       </c>
       <c r="D2">
-        <v>0.01051152255941001</v>
+        <v>0.01512701696311789</v>
       </c>
       <c r="E2">
-        <v>0.007009882218516299</v>
+        <v>0.01008784471349094</v>
       </c>
       <c r="F2">
-        <v>0.007009882222191058</v>
+        <v>0.01008784471319005</v>
       </c>
       <c r="G2">
-        <v>0.007009882222191211</v>
+        <v>0.01008784471318997</v>
       </c>
       <c r="H2">
-        <v>0.1213766075412732</v>
+        <v>0.1746717463174228</v>
       </c>
       <c r="I2">
-        <v>0.1213766075853611</v>
+        <v>0.1746717463138369</v>
       </c>
       <c r="J2">
-        <v>0.1213766075853638</v>
+        <v>0.174671746313843</v>
       </c>
       <c r="K2">
-        <v>0.08094314771695912</v>
+        <v>0.1164843972175428</v>
       </c>
       <c r="L2">
-        <v>0.08094314775939158</v>
+        <v>0.1164843972140684</v>
       </c>
       <c r="M2">
-        <v>0.08094314775939335</v>
+        <v>0.1164843972140674</v>
       </c>
       <c r="N2">
-        <v>0.02470685518107237</v>
+        <v>-0.002319973827449496</v>
       </c>
       <c r="O2">
-        <v>0.0914907259044629</v>
+        <v>0.1542258590907377</v>
       </c>
       <c r="P2">
-        <v>-0.1144327998947357</v>
+        <v>-0.148251061360809</v>
       </c>
       <c r="Q2">
-        <v>-0.01601522618679114</v>
+        <v>0.002447187167786607</v>
       </c>
       <c r="R2">
-        <v>-0.06074190175586158</v>
+        <v>-0.1022130631535608</v>
       </c>
       <c r="S2">
-        <v>0.07662634334388502</v>
+        <v>0.09949502190163341</v>
       </c>
       <c r="T2">
-        <v>0.02507087828801359</v>
+        <v>-0.002304613921029328</v>
       </c>
       <c r="U2">
-        <v>-0.1623996908694116</v>
+        <v>-0.2622774632068438</v>
       </c>
       <c r="V2">
-        <v>-0.1200636054428063</v>
+        <v>-0.2684717731094793</v>
       </c>
       <c r="W2">
-        <v>-0.01665385470725398</v>
+        <v>0.001726367173756318</v>
       </c>
       <c r="X2">
-        <v>0.1082978818548885</v>
+        <v>0.1749370263971873</v>
       </c>
       <c r="Y2">
-        <v>0.08027387882500794</v>
+        <v>0.1793746841537279</v>
       </c>
       <c r="Z2">
-        <v>-78.38236540953834</v>
+        <v>-91.17317448998671</v>
       </c>
       <c r="AA2">
-        <v>-78.38236489481017</v>
+        <v>-91.17317451310686</v>
       </c>
       <c r="AB2">
-        <v>-78.382364894815</v>
+        <v>-91.17317451308972</v>
       </c>
       <c r="AC2">
-        <v>101.5304824087698</v>
+        <v>88.73967350745656</v>
       </c>
       <c r="AD2">
-        <v>101.5304831806692</v>
+        <v>88.73967347279394</v>
       </c>
       <c r="AE2">
-        <v>101.5304831806501</v>
+        <v>88.7396734728149</v>
       </c>
       <c r="AG2">
-        <v>0.2899991586483683</v>
+        <v>0.0187213757394627</v>
       </c>
       <c r="AH2">
-        <v>1.535699494796863</v>
+        <v>1.741904710478969</v>
       </c>
       <c r="AI2">
-        <v>1.366505443749132</v>
+        <v>1.755777046417614</v>
       </c>
       <c r="AJ2">
-        <v>0.2854465471918663</v>
+        <v>0.02571022737797386</v>
       </c>
       <c r="AK2">
-        <v>1.534030766287534</v>
+        <v>1.739367410647985</v>
       </c>
       <c r="AL2">
-        <v>1.371026331563248</v>
+        <v>1.76092927927034</v>
       </c>
       <c r="AM2">
-        <v>-32.96337052118351</v>
+        <v>133.636526477229</v>
       </c>
       <c r="AN2">
-        <v>-138.9868631033973</v>
+        <v>-150.7165569973371</v>
       </c>
       <c r="AO2">
-        <v>147.9931760528533</v>
+        <v>149.9191905930104</v>
       </c>
       <c r="AP2">
-        <v>-32.34961895809865</v>
+        <v>123.9407135235739</v>
       </c>
       <c r="AQ2">
-        <v>-139.1824078083504</v>
+        <v>-150.9632274698565</v>
       </c>
       <c r="AR2">
-        <v>147.8622260492088</v>
+        <v>149.7235466911222</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8325,13 +8325,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.003504941109579913</v>
+        <v>0.005043922356587905</v>
       </c>
       <c r="F3">
-        <v>0.0035049411108053</v>
+        <v>0.005043922356489219</v>
       </c>
       <c r="G3">
-        <v>0.003504941110805286</v>
+        <v>0.005043922356488051</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8343,49 +8343,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.04047157386219498</v>
+        <v>0.05824219860695198</v>
       </c>
       <c r="L3">
-        <v>0.04047157387634453</v>
+        <v>0.05824219860581244</v>
       </c>
       <c r="M3">
-        <v>0.04047157387634435</v>
+        <v>0.05824219860579895</v>
       </c>
       <c r="N3">
-        <v>5.857487463394814E-10</v>
+        <v>-5.638856045209637E-11</v>
       </c>
       <c r="O3">
-        <v>-3.314787655828015E-09</v>
+        <v>-5.62226560027744E-09</v>
       </c>
       <c r="P3">
-        <v>-2.453045815653856E-09</v>
+        <v>-5.770555710744883E-09</v>
       </c>
       <c r="Q3">
-        <v>0.008007613386107148</v>
+        <v>-0.001223593611422071</v>
       </c>
       <c r="R3">
-        <v>0.03037094921988713</v>
+        <v>0.05110652876461422</v>
       </c>
       <c r="S3">
-        <v>-0.03831317289593036</v>
+        <v>-0.04974751383208124</v>
       </c>
       <c r="T3">
-        <v>-5.56331569994535E-10</v>
+        <v>8.391539250598635E-11</v>
       </c>
       <c r="U3">
-        <v>-1.851399661693539E-09</v>
+        <v>-3.284975333984636E-09</v>
       </c>
       <c r="V3">
-        <v>2.34892308599937E-09</v>
+        <v>3.199434517323436E-09</v>
       </c>
       <c r="W3">
-        <v>0.008326927073611436</v>
+        <v>-0.0008631835477739988</v>
       </c>
       <c r="X3">
-        <v>-0.05414894185151006</v>
+        <v>-0.08746851483923858</v>
       </c>
       <c r="Y3">
-        <v>-0.04013693823777847</v>
+        <v>-0.08968734047620616</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8397,49 +8397,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-78.46951558219631</v>
+        <v>-91.26032466271424</v>
       </c>
       <c r="AD3">
-        <v>-78.46951506758457</v>
+        <v>-91.26032468580671</v>
       </c>
       <c r="AE3">
-        <v>-78.46951506756056</v>
+        <v>-91.26032468583963</v>
       </c>
       <c r="AG3">
-        <v>0.2845404291422148</v>
+        <v>0.02716853225571081</v>
       </c>
       <c r="AH3">
-        <v>1.5336981482352</v>
+        <v>1.738862362065328</v>
       </c>
       <c r="AI3">
-        <v>1.371930965766486</v>
+        <v>1.761961281741611</v>
       </c>
       <c r="AJ3">
-        <v>0.2854465471918663</v>
+        <v>0.02571022737797386</v>
       </c>
       <c r="AK3">
-        <v>1.534030766287534</v>
+        <v>1.739367410647985</v>
       </c>
       <c r="AL3">
-        <v>1.371026331563248</v>
+        <v>1.76092927927034</v>
       </c>
       <c r="AM3">
-        <v>-32.22432576479094</v>
+        <v>122.6076737810361</v>
       </c>
       <c r="AN3">
-        <v>-139.2215637628094</v>
+        <v>-151.0126418721501</v>
       </c>
       <c r="AO3">
-        <v>147.8361002388519</v>
+        <v>149.6845173348164</v>
       </c>
       <c r="AP3">
-        <v>-32.34961895809865</v>
+        <v>123.9407135235739</v>
       </c>
       <c r="AQ3">
-        <v>-139.1824078083504</v>
+        <v>-150.9632274698565</v>
       </c>
       <c r="AR3">
-        <v>147.8622260492088</v>
+        <v>149.7235466911222</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8456,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.003504941109580643</v>
+        <v>0.005043922356587887</v>
       </c>
       <c r="F4">
-        <v>0.00350494111080476</v>
+        <v>0.005043922356488381</v>
       </c>
       <c r="G4">
-        <v>0.003504941110806089</v>
+        <v>0.005043922356487196</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -8474,49 +8474,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0404715738622034</v>
+        <v>0.05824219860695177</v>
       </c>
       <c r="L4">
-        <v>0.04047157387633828</v>
+        <v>0.05824219860580276</v>
       </c>
       <c r="M4">
-        <v>0.04047157387635364</v>
+        <v>0.05824219860578909</v>
       </c>
       <c r="N4">
-        <v>5.857441853794835E-10</v>
+        <v>-5.638866886308146E-11</v>
       </c>
       <c r="O4">
-        <v>-3.31477622309979E-09</v>
+        <v>-5.622253625051388E-09</v>
       </c>
       <c r="P4">
-        <v>-2.453033083074153E-09</v>
+        <v>-5.7705353163747E-09</v>
       </c>
       <c r="Q4">
-        <v>0.008007613386112441</v>
+        <v>-0.001223593611422207</v>
       </c>
       <c r="R4">
-        <v>0.03037094921986783</v>
+        <v>0.05110652876459182</v>
       </c>
       <c r="S4">
-        <v>-0.03831317289593728</v>
+        <v>-0.04974751383210164</v>
       </c>
       <c r="T4">
-        <v>-5.563286950996759E-10</v>
+        <v>8.39153231538077E-11</v>
       </c>
       <c r="U4">
-        <v>-1.851401793372928E-09</v>
+        <v>-3.284996949110443E-09</v>
       </c>
       <c r="V4">
-        <v>2.348918917547251E-09</v>
+        <v>3.199403255644454E-09</v>
       </c>
       <c r="W4">
-        <v>0.008326927073609682</v>
+        <v>-0.0008631835477737966</v>
       </c>
       <c r="X4">
-        <v>-0.05414894185150993</v>
+        <v>-0.08746851483923217</v>
       </c>
       <c r="Y4">
-        <v>-0.04013693823778947</v>
+        <v>-0.08968734047617494</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8528,49 +8528,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-78.46951558217137</v>
+        <v>-91.26032466270492</v>
       </c>
       <c r="AD4">
-        <v>-78.46951506756908</v>
+        <v>-91.2603246857976</v>
       </c>
       <c r="AE4">
-        <v>-78.46951506756325</v>
+        <v>-91.26032468582119</v>
       </c>
       <c r="AG4">
-        <v>0.2845404291422144</v>
+        <v>0.02716853225571055</v>
       </c>
       <c r="AH4">
-        <v>1.533698148235201</v>
+        <v>1.738862362065328</v>
       </c>
       <c r="AI4">
-        <v>1.371930965766487</v>
+        <v>1.761961281741611</v>
       </c>
       <c r="AJ4">
-        <v>0.2854465471918663</v>
+        <v>0.02571022737797386</v>
       </c>
       <c r="AK4">
-        <v>1.534030766287534</v>
+        <v>1.739367410647985</v>
       </c>
       <c r="AL4">
-        <v>1.371026331563248</v>
+        <v>1.76092927927034</v>
       </c>
       <c r="AM4">
-        <v>-32.22432576479104</v>
+        <v>122.607673781037</v>
       </c>
       <c r="AN4">
-        <v>-139.2215637628094</v>
+        <v>-151.0126418721501</v>
       </c>
       <c r="AO4">
-        <v>147.8361002388519</v>
+        <v>149.6845173348164</v>
       </c>
       <c r="AP4">
-        <v>-32.34961895809865</v>
+        <v>123.9407135235739</v>
       </c>
       <c r="AQ4">
-        <v>-139.1824078083504</v>
+        <v>-150.9632274698565</v>
       </c>
       <c r="AR4">
-        <v>147.8622260492088</v>
+        <v>149.7235466911222</v>
       </c>
     </row>
   </sheetData>
@@ -8725,130 +8725,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01051152255559165</v>
+        <v>0.01512701696342791</v>
       </c>
       <c r="C2">
-        <v>0.01051152255940977</v>
+        <v>0.01512701696311736</v>
       </c>
       <c r="D2">
-        <v>0.01051152255941001</v>
+        <v>0.01512701696311789</v>
       </c>
       <c r="E2">
-        <v>0.007009882218516299</v>
+        <v>0.01008784471349094</v>
       </c>
       <c r="F2">
-        <v>0.007009882222191058</v>
+        <v>0.01008784471319005</v>
       </c>
       <c r="G2">
-        <v>0.007009882222191211</v>
+        <v>0.01008784471318997</v>
       </c>
       <c r="H2">
-        <v>0.1213766075412732</v>
+        <v>0.1746717463174228</v>
       </c>
       <c r="I2">
-        <v>0.1213766075853611</v>
+        <v>0.1746717463138369</v>
       </c>
       <c r="J2">
-        <v>0.1213766075853638</v>
+        <v>0.174671746313843</v>
       </c>
       <c r="K2">
-        <v>0.08094314771695912</v>
+        <v>0.1164843972175428</v>
       </c>
       <c r="L2">
-        <v>0.08094314775939158</v>
+        <v>0.1164843972140684</v>
       </c>
       <c r="M2">
-        <v>0.08094314775939335</v>
+        <v>0.1164843972140674</v>
       </c>
       <c r="N2">
-        <v>0.02470685518107237</v>
+        <v>-0.002319973827449496</v>
       </c>
       <c r="O2">
-        <v>0.0914907259044629</v>
+        <v>0.1542258590907377</v>
       </c>
       <c r="P2">
-        <v>-0.1144327998947357</v>
+        <v>-0.148251061360809</v>
       </c>
       <c r="Q2">
-        <v>-0.01601522618679114</v>
+        <v>0.002447187167786607</v>
       </c>
       <c r="R2">
-        <v>-0.06074190175586158</v>
+        <v>-0.1022130631535608</v>
       </c>
       <c r="S2">
-        <v>0.07662634334388502</v>
+        <v>0.09949502190163341</v>
       </c>
       <c r="T2">
-        <v>0.02507087828801359</v>
+        <v>-0.002304613921029328</v>
       </c>
       <c r="U2">
-        <v>-0.1623996908694116</v>
+        <v>-0.2622774632068438</v>
       </c>
       <c r="V2">
-        <v>-0.1200636054428063</v>
+        <v>-0.2684717731094793</v>
       </c>
       <c r="W2">
-        <v>-0.01665385470725398</v>
+        <v>0.001726367173756318</v>
       </c>
       <c r="X2">
-        <v>0.1082978818548885</v>
+        <v>0.1749370263971873</v>
       </c>
       <c r="Y2">
-        <v>0.08027387882500794</v>
+        <v>0.1793746841537279</v>
       </c>
       <c r="Z2">
-        <v>-78.38236540953834</v>
+        <v>-91.17317448998671</v>
       </c>
       <c r="AA2">
-        <v>-78.38236489481017</v>
+        <v>-91.17317451310686</v>
       </c>
       <c r="AB2">
-        <v>-78.382364894815</v>
+        <v>-91.17317451308972</v>
       </c>
       <c r="AC2">
-        <v>101.5304824087698</v>
+        <v>88.73967350745656</v>
       </c>
       <c r="AD2">
-        <v>101.5304831806692</v>
+        <v>88.73967347279394</v>
       </c>
       <c r="AE2">
-        <v>101.5304831806501</v>
+        <v>88.7396734728149</v>
       </c>
       <c r="AG2">
-        <v>0.2899991586483683</v>
+        <v>0.0187213757394627</v>
       </c>
       <c r="AH2">
-        <v>1.535699494796863</v>
+        <v>1.741904710478969</v>
       </c>
       <c r="AI2">
-        <v>1.366505443749132</v>
+        <v>1.755777046417614</v>
       </c>
       <c r="AJ2">
-        <v>0.2854465471918663</v>
+        <v>0.02571022737797386</v>
       </c>
       <c r="AK2">
-        <v>1.534030766287534</v>
+        <v>1.739367410647985</v>
       </c>
       <c r="AL2">
-        <v>1.371026331563248</v>
+        <v>1.76092927927034</v>
       </c>
       <c r="AM2">
-        <v>-32.96337052118351</v>
+        <v>133.636526477229</v>
       </c>
       <c r="AN2">
-        <v>-138.9868631033973</v>
+        <v>-150.7165569973371</v>
       </c>
       <c r="AO2">
-        <v>147.9931760528533</v>
+        <v>149.9191905930104</v>
       </c>
       <c r="AP2">
-        <v>-32.34961895809865</v>
+        <v>123.9407135235739</v>
       </c>
       <c r="AQ2">
-        <v>-139.1824078083504</v>
+        <v>-150.9632274698565</v>
       </c>
       <c r="AR2">
-        <v>147.8622260492088</v>
+        <v>149.7235466911222</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8865,13 +8865,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.003504941109579913</v>
+        <v>0.005043922356587905</v>
       </c>
       <c r="F3">
-        <v>0.0035049411108053</v>
+        <v>0.005043922356489219</v>
       </c>
       <c r="G3">
-        <v>0.003504941110805286</v>
+        <v>0.005043922356488051</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8883,49 +8883,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.04047157386219498</v>
+        <v>0.05824219860695198</v>
       </c>
       <c r="L3">
-        <v>0.04047157387634453</v>
+        <v>0.05824219860581244</v>
       </c>
       <c r="M3">
-        <v>0.04047157387634435</v>
+        <v>0.05824219860579895</v>
       </c>
       <c r="N3">
-        <v>5.857487463394814E-10</v>
+        <v>-5.638856045209637E-11</v>
       </c>
       <c r="O3">
-        <v>-3.314787655828015E-09</v>
+        <v>-5.62226560027744E-09</v>
       </c>
       <c r="P3">
-        <v>-2.453045815653856E-09</v>
+        <v>-5.770555710744883E-09</v>
       </c>
       <c r="Q3">
-        <v>0.008007613386107148</v>
+        <v>-0.001223593611422071</v>
       </c>
       <c r="R3">
-        <v>0.03037094921988713</v>
+        <v>0.05110652876461422</v>
       </c>
       <c r="S3">
-        <v>-0.03831317289593036</v>
+        <v>-0.04974751383208124</v>
       </c>
       <c r="T3">
-        <v>-5.56331569994535E-10</v>
+        <v>8.391539250598635E-11</v>
       </c>
       <c r="U3">
-        <v>-1.851399661693539E-09</v>
+        <v>-3.284975333984636E-09</v>
       </c>
       <c r="V3">
-        <v>2.34892308599937E-09</v>
+        <v>3.199434517323436E-09</v>
       </c>
       <c r="W3">
-        <v>0.008326927073611436</v>
+        <v>-0.0008631835477739988</v>
       </c>
       <c r="X3">
-        <v>-0.05414894185151006</v>
+        <v>-0.08746851483923858</v>
       </c>
       <c r="Y3">
-        <v>-0.04013693823777847</v>
+        <v>-0.08968734047620616</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8937,49 +8937,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-78.46951558219631</v>
+        <v>-91.26032466271424</v>
       </c>
       <c r="AD3">
-        <v>-78.46951506758457</v>
+        <v>-91.26032468580671</v>
       </c>
       <c r="AE3">
-        <v>-78.46951506756056</v>
+        <v>-91.26032468583963</v>
       </c>
       <c r="AG3">
-        <v>0.2845404291422148</v>
+        <v>0.02716853225571081</v>
       </c>
       <c r="AH3">
-        <v>1.5336981482352</v>
+        <v>1.738862362065328</v>
       </c>
       <c r="AI3">
-        <v>1.371930965766486</v>
+        <v>1.761961281741611</v>
       </c>
       <c r="AJ3">
-        <v>0.2854465471918663</v>
+        <v>0.02571022737797386</v>
       </c>
       <c r="AK3">
-        <v>1.534030766287534</v>
+        <v>1.739367410647985</v>
       </c>
       <c r="AL3">
-        <v>1.371026331563248</v>
+        <v>1.76092927927034</v>
       </c>
       <c r="AM3">
-        <v>-32.22432576479094</v>
+        <v>122.6076737810361</v>
       </c>
       <c r="AN3">
-        <v>-139.2215637628094</v>
+        <v>-151.0126418721501</v>
       </c>
       <c r="AO3">
-        <v>147.8361002388519</v>
+        <v>149.6845173348164</v>
       </c>
       <c r="AP3">
-        <v>-32.34961895809865</v>
+        <v>123.9407135235739</v>
       </c>
       <c r="AQ3">
-        <v>-139.1824078083504</v>
+        <v>-150.9632274698565</v>
       </c>
       <c r="AR3">
-        <v>147.8622260492088</v>
+        <v>149.7235466911222</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8996,13 +8996,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.003504941109580643</v>
+        <v>0.005043922356587887</v>
       </c>
       <c r="F4">
-        <v>0.00350494111080476</v>
+        <v>0.005043922356488381</v>
       </c>
       <c r="G4">
-        <v>0.003504941110806089</v>
+        <v>0.005043922356487196</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9014,49 +9014,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0404715738622034</v>
+        <v>0.05824219860695177</v>
       </c>
       <c r="L4">
-        <v>0.04047157387633828</v>
+        <v>0.05824219860580276</v>
       </c>
       <c r="M4">
-        <v>0.04047157387635364</v>
+        <v>0.05824219860578909</v>
       </c>
       <c r="N4">
-        <v>5.857441853794835E-10</v>
+        <v>-5.638866886308146E-11</v>
       </c>
       <c r="O4">
-        <v>-3.31477622309979E-09</v>
+        <v>-5.622253625051388E-09</v>
       </c>
       <c r="P4">
-        <v>-2.453033083074153E-09</v>
+        <v>-5.7705353163747E-09</v>
       </c>
       <c r="Q4">
-        <v>0.008007613386112441</v>
+        <v>-0.001223593611422207</v>
       </c>
       <c r="R4">
-        <v>0.03037094921986783</v>
+        <v>0.05110652876459182</v>
       </c>
       <c r="S4">
-        <v>-0.03831317289593728</v>
+        <v>-0.04974751383210164</v>
       </c>
       <c r="T4">
-        <v>-5.563286950996759E-10</v>
+        <v>8.39153231538077E-11</v>
       </c>
       <c r="U4">
-        <v>-1.851401793372928E-09</v>
+        <v>-3.284996949110443E-09</v>
       </c>
       <c r="V4">
-        <v>2.348918917547251E-09</v>
+        <v>3.199403255644454E-09</v>
       </c>
       <c r="W4">
-        <v>0.008326927073609682</v>
+        <v>-0.0008631835477737966</v>
       </c>
       <c r="X4">
-        <v>-0.05414894185150993</v>
+        <v>-0.08746851483923217</v>
       </c>
       <c r="Y4">
-        <v>-0.04013693823778947</v>
+        <v>-0.08968734047617494</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9068,49 +9068,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-78.46951558217137</v>
+        <v>-91.26032466270492</v>
       </c>
       <c r="AD4">
-        <v>-78.46951506756908</v>
+        <v>-91.2603246857976</v>
       </c>
       <c r="AE4">
-        <v>-78.46951506756325</v>
+        <v>-91.26032468582119</v>
       </c>
       <c r="AG4">
-        <v>0.2845404291422144</v>
+        <v>0.02716853225571055</v>
       </c>
       <c r="AH4">
-        <v>1.533698148235201</v>
+        <v>1.738862362065328</v>
       </c>
       <c r="AI4">
-        <v>1.371930965766487</v>
+        <v>1.761961281741611</v>
       </c>
       <c r="AJ4">
-        <v>0.2854465471918663</v>
+        <v>0.02571022737797386</v>
       </c>
       <c r="AK4">
-        <v>1.534030766287534</v>
+        <v>1.739367410647985</v>
       </c>
       <c r="AL4">
-        <v>1.371026331563248</v>
+        <v>1.76092927927034</v>
       </c>
       <c r="AM4">
-        <v>-32.22432576479104</v>
+        <v>122.607673781037</v>
       </c>
       <c r="AN4">
-        <v>-139.2215637628094</v>
+        <v>-151.0126418721501</v>
       </c>
       <c r="AO4">
-        <v>147.8361002388519</v>
+        <v>149.6845173348164</v>
       </c>
       <c r="AP4">
-        <v>-32.34961895809865</v>
+        <v>123.9407135235739</v>
       </c>
       <c r="AQ4">
-        <v>-139.1824078083504</v>
+        <v>-150.9632274698565</v>
       </c>
       <c r="AR4">
-        <v>147.8622260492088</v>
+        <v>149.7235466911222</v>
       </c>
     </row>
   </sheetData>
@@ -9265,97 +9265,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.008000161111648335</v>
+        <v>0.008186988179111005</v>
       </c>
       <c r="C2">
-        <v>0.008000162017679752</v>
+        <v>0.008186989086690959</v>
       </c>
       <c r="D2">
-        <v>0.008000160202689498</v>
+        <v>0.00818698727169768</v>
       </c>
       <c r="E2">
-        <v>0.005335120018189453</v>
+        <v>0.005459710612177779</v>
       </c>
       <c r="F2">
-        <v>0.005335120924244307</v>
+        <v>0.005459711519752777</v>
       </c>
       <c r="G2">
-        <v>0.005335119109259122</v>
+        <v>0.005459709704764444</v>
       </c>
       <c r="H2">
-        <v>0.09237790342741084</v>
+        <v>0.09453519658124046</v>
       </c>
       <c r="I2">
-        <v>0.09237791388936049</v>
+        <v>0.09453520706107107</v>
       </c>
       <c r="J2">
-        <v>0.09237789293165825</v>
+        <v>0.0945351861033339</v>
       </c>
       <c r="K2">
-        <v>0.06160465957321284</v>
+        <v>0.06304330783276596</v>
       </c>
       <c r="L2">
-        <v>0.06160467003543311</v>
+        <v>0.06304331831253934</v>
       </c>
       <c r="M2">
-        <v>0.06160464907778941</v>
+        <v>0.06304329735485928</v>
       </c>
       <c r="N2">
-        <v>0.0005324271184994528</v>
+        <v>0.0005575853974797994</v>
       </c>
       <c r="O2">
-        <v>-4.815488839800571E-14</v>
+        <v>-1.26468240119957E-14</v>
       </c>
       <c r="P2">
-        <v>-4.193526844358431E-14</v>
+        <v>-3.45312314294912E-14</v>
       </c>
       <c r="Q2">
-        <v>-0.0003023764026110875</v>
+        <v>-0.0003166645128619949</v>
       </c>
       <c r="R2">
-        <v>0.0001314575622138865</v>
+        <v>0.0001376690873005815</v>
       </c>
       <c r="S2">
-        <v>0.0001314575124128173</v>
+        <v>0.0001376690363420346</v>
       </c>
       <c r="T2">
-        <v>-0.1490935465902969</v>
+        <v>-0.1561383933327785</v>
       </c>
       <c r="U2">
-        <v>-8.314579556914693E-14</v>
+        <v>-4.355002266498174E-14</v>
       </c>
       <c r="V2">
-        <v>7.956168794696126E-14</v>
+        <v>3.786889693000933E-14</v>
       </c>
       <c r="W2">
-        <v>0.09947899122943932</v>
+        <v>0.1041794914344031</v>
       </c>
       <c r="X2">
-        <v>5.231047446794907E-05</v>
+        <v>5.478220578167891E-05</v>
       </c>
       <c r="Y2">
-        <v>5.231045098343197E-05</v>
+        <v>5.478218184878739E-05</v>
       </c>
       <c r="Z2">
-        <v>89.85349321495306</v>
+        <v>89.79240741065139</v>
       </c>
       <c r="AA2">
-        <v>89.85349298566523</v>
+        <v>89.79240744469479</v>
       </c>
       <c r="AB2">
-        <v>89.85349295245659</v>
+        <v>89.79240739865564</v>
       </c>
       <c r="AC2">
-        <v>-90.19189928150428</v>
+        <v>-90.25298517138502</v>
       </c>
       <c r="AD2">
-        <v>-90.19189961761016</v>
+        <v>-90.25298511279898</v>
       </c>
       <c r="AE2">
-        <v>-90.19189968286743</v>
+        <v>-90.25298519689154</v>
       </c>
       <c r="AG2">
-        <v>1.613962773880808</v>
+        <v>1.65165350654644</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -9364,16 +9364,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.614804001341857</v>
+        <v>1.652514379118262</v>
       </c>
       <c r="AK2">
-        <v>0.002296629964524627</v>
+        <v>0.002350262962677562</v>
       </c>
       <c r="AL2">
-        <v>0.002296629853768322</v>
+        <v>0.002350262852590805</v>
       </c>
       <c r="AM2">
-        <v>0.05810097840191543</v>
+        <v>-0.002984654629333784</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -9382,13 +9382,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.0177435313916345</v>
+        <v>-0.07882916446449502</v>
       </c>
       <c r="AQ2">
-        <v>-68.49296940962374</v>
+        <v>-68.5540550455802</v>
       </c>
       <c r="AR2">
-        <v>-68.49297085478997</v>
+        <v>-68.55405644293188</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9405,13 +9405,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002667560008900974</v>
+        <v>0.002729855306064186</v>
       </c>
       <c r="F3">
-        <v>0.002667560310917602</v>
+        <v>0.002729855608586997</v>
       </c>
       <c r="G3">
-        <v>0.002667559705921452</v>
+        <v>0.002729855003592547</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9423,49 +9423,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03080232978436916</v>
+        <v>0.03152165391609772</v>
       </c>
       <c r="L3">
-        <v>0.03080233327175679</v>
+        <v>0.03152165740933025</v>
       </c>
       <c r="M3">
-        <v>0.03080232628586298</v>
+        <v>0.03152165042345607</v>
       </c>
       <c r="N3">
-        <v>-3.049494635995711E-09</v>
+        <v>-3.349185953584318E-09</v>
       </c>
       <c r="O3">
-        <v>6.891658051239915E-12</v>
+        <v>7.06144660736667E-12</v>
       </c>
       <c r="P3">
-        <v>-1.102179360012736E-11</v>
+        <v>-1.127814993544798E-11</v>
       </c>
       <c r="Q3">
-        <v>0.0001511866772803871</v>
+        <v>0.0001583305824699374</v>
       </c>
       <c r="R3">
-        <v>-6.572877823383853E-05</v>
+        <v>-6.883454070636667E-05</v>
       </c>
       <c r="S3">
-        <v>-6.572876079674015E-05</v>
+        <v>-6.883452286811638E-05</v>
       </c>
       <c r="T3">
-        <v>-3.741212922566303E-12</v>
+        <v>-1.091459384832264E-11</v>
       </c>
       <c r="U3">
-        <v>8.699731693843421E-12</v>
+        <v>8.895464943599031E-12</v>
       </c>
       <c r="V3">
-        <v>1.642563814494207E-12</v>
+        <v>1.692991244807004E-12</v>
       </c>
       <c r="W3">
-        <v>-0.04973949561573929</v>
+        <v>-0.0520897457218183</v>
       </c>
       <c r="X3">
-        <v>-2.615523360886785E-05</v>
+        <v>-2.739109918420721E-05</v>
       </c>
       <c r="Y3">
-        <v>-2.615522480765145E-05</v>
+        <v>-2.739109021944781E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9477,49 +9477,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>89.80810247402653</v>
+        <v>89.74701666986877</v>
       </c>
       <c r="AD3">
-        <v>89.8081022500496</v>
+        <v>89.74701670892573</v>
       </c>
       <c r="AE3">
-        <v>89.80810220650986</v>
+        <v>89.74701665277273</v>
       </c>
       <c r="AG3">
-        <v>1.614972414902053</v>
+        <v>1.652686725625335</v>
       </c>
       <c r="AH3">
-        <v>0.002756042718547105</v>
+        <v>0.002820404342342543</v>
       </c>
       <c r="AI3">
-        <v>0.002756042571115855</v>
+        <v>0.002820404195600789</v>
       </c>
       <c r="AJ3">
-        <v>1.614804001341857</v>
+        <v>1.652514379118262</v>
       </c>
       <c r="AK3">
-        <v>0.002296629964524627</v>
+        <v>0.002350262962677562</v>
       </c>
       <c r="AL3">
-        <v>0.002296629853768322</v>
+        <v>0.002350262852590805</v>
       </c>
       <c r="AM3">
-        <v>-0.03290865127711572</v>
+        <v>-0.09399428436385726</v>
       </c>
       <c r="AN3">
-        <v>-68.49750904346854</v>
+        <v>-68.55859467785433</v>
       </c>
       <c r="AO3">
-        <v>-68.49751063822863</v>
+        <v>-68.55859622465441</v>
       </c>
       <c r="AP3">
-        <v>-0.0177435313916345</v>
+        <v>-0.07882916446449502</v>
       </c>
       <c r="AQ3">
-        <v>-68.49296940962374</v>
+        <v>-68.5540550455802</v>
       </c>
       <c r="AR3">
-        <v>-68.49297085478997</v>
+        <v>-68.55405644293188</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9536,13 +9536,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002667560008901791</v>
+        <v>0.002729855306062552</v>
       </c>
       <c r="F4">
-        <v>0.002667560310917608</v>
+        <v>0.002729855608585349</v>
       </c>
       <c r="G4">
-        <v>0.002667559705924734</v>
+        <v>0.002729855003595828</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9554,49 +9554,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0308023297843786</v>
+        <v>0.03152165391607886</v>
       </c>
       <c r="L4">
-        <v>0.03080233327175685</v>
+        <v>0.03152165740931123</v>
       </c>
       <c r="M4">
-        <v>0.03080232628590088</v>
+        <v>0.03152165042349397</v>
       </c>
       <c r="N4">
-        <v>-3.04947168586114E-09</v>
+        <v>-3.349201662329405E-09</v>
       </c>
       <c r="O4">
-        <v>6.891609464770134E-12</v>
+        <v>7.061416400545674E-12</v>
       </c>
       <c r="P4">
-        <v>-1.102179360012797E-11</v>
+        <v>-1.12780504515315E-11</v>
       </c>
       <c r="Q4">
-        <v>0.0001511866772650839</v>
+        <v>0.000158330582501292</v>
       </c>
       <c r="R4">
-        <v>-6.572877823382258E-05</v>
+        <v>-6.883454070634149E-05</v>
       </c>
       <c r="S4">
-        <v>-6.572876079682114E-05</v>
+        <v>-6.883452286819928E-05</v>
       </c>
       <c r="T4">
-        <v>-3.741226104306135E-12</v>
+        <v>-1.094588290801872E-11</v>
       </c>
       <c r="U4">
-        <v>8.699712552683886E-12</v>
+        <v>8.895395666497593E-12</v>
       </c>
       <c r="V4">
-        <v>1.642563814494042E-12</v>
+        <v>1.693030315082562E-12</v>
       </c>
       <c r="W4">
-        <v>-0.0497394956157546</v>
+        <v>-0.05208974572178704</v>
       </c>
       <c r="X4">
-        <v>-2.615523360890834E-05</v>
+        <v>-2.739109918414948E-05</v>
       </c>
       <c r="Y4">
-        <v>-2.615522480768336E-05</v>
+        <v>-2.739109021948038E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9608,49 +9608,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>89.80810247404422</v>
+        <v>89.74701666983418</v>
       </c>
       <c r="AD4">
-        <v>89.80810225001436</v>
+        <v>89.74701670896</v>
       </c>
       <c r="AE4">
-        <v>89.8081022065101</v>
+        <v>89.74701665277303</v>
       </c>
       <c r="AG4">
-        <v>1.614972414902053</v>
+        <v>1.652686725625335</v>
       </c>
       <c r="AH4">
-        <v>0.002756042718547105</v>
+        <v>0.002820404342342439</v>
       </c>
       <c r="AI4">
-        <v>0.002756042571115999</v>
+        <v>0.002820404195601077</v>
       </c>
       <c r="AJ4">
-        <v>1.614804001341857</v>
+        <v>1.652514379118262</v>
       </c>
       <c r="AK4">
-        <v>0.002296629964524627</v>
+        <v>0.002350262962677562</v>
       </c>
       <c r="AL4">
-        <v>0.002296629853768322</v>
+        <v>0.002350262852590805</v>
       </c>
       <c r="AM4">
-        <v>-0.03290865127711556</v>
+        <v>-0.0939942843638568</v>
       </c>
       <c r="AN4">
-        <v>-68.49750904346854</v>
+        <v>-68.55859467785351</v>
       </c>
       <c r="AO4">
-        <v>-68.49751063822734</v>
+        <v>-68.55859622465186</v>
       </c>
       <c r="AP4">
-        <v>-0.0177435313916345</v>
+        <v>-0.07882916446449502</v>
       </c>
       <c r="AQ4">
-        <v>-68.49296940962374</v>
+        <v>-68.5540550455802</v>
       </c>
       <c r="AR4">
-        <v>-68.49297085478997</v>
+        <v>-68.55405644293188</v>
       </c>
     </row>
   </sheetData>
@@ -9805,97 +9805,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.008000161111648335</v>
+        <v>0.008186988179111005</v>
       </c>
       <c r="C2">
-        <v>0.008000162017679752</v>
+        <v>0.008186989086690959</v>
       </c>
       <c r="D2">
-        <v>0.008000160202689498</v>
+        <v>0.00818698727169768</v>
       </c>
       <c r="E2">
-        <v>0.005335120018189453</v>
+        <v>0.005459710612177779</v>
       </c>
       <c r="F2">
-        <v>0.005335120924244307</v>
+        <v>0.005459711519752777</v>
       </c>
       <c r="G2">
-        <v>0.005335119109259122</v>
+        <v>0.005459709704764444</v>
       </c>
       <c r="H2">
-        <v>0.09237790342741084</v>
+        <v>0.09453519658124046</v>
       </c>
       <c r="I2">
-        <v>0.09237791388936049</v>
+        <v>0.09453520706107107</v>
       </c>
       <c r="J2">
-        <v>0.09237789293165825</v>
+        <v>0.0945351861033339</v>
       </c>
       <c r="K2">
-        <v>0.06160465957321284</v>
+        <v>0.06304330783276596</v>
       </c>
       <c r="L2">
-        <v>0.06160467003543311</v>
+        <v>0.06304331831253934</v>
       </c>
       <c r="M2">
-        <v>0.06160464907778941</v>
+        <v>0.06304329735485928</v>
       </c>
       <c r="N2">
-        <v>0.0005324271184994528</v>
+        <v>0.0005575853974797994</v>
       </c>
       <c r="O2">
-        <v>-4.815488839800571E-14</v>
+        <v>-1.26468240119957E-14</v>
       </c>
       <c r="P2">
-        <v>-4.193526844358431E-14</v>
+        <v>-3.45312314294912E-14</v>
       </c>
       <c r="Q2">
-        <v>-0.0003023764026110875</v>
+        <v>-0.0003166645128619949</v>
       </c>
       <c r="R2">
-        <v>0.0001314575622138865</v>
+        <v>0.0001376690873005815</v>
       </c>
       <c r="S2">
-        <v>0.0001314575124128173</v>
+        <v>0.0001376690363420346</v>
       </c>
       <c r="T2">
-        <v>-0.1490935465902969</v>
+        <v>-0.1561383933327785</v>
       </c>
       <c r="U2">
-        <v>-8.314579556914693E-14</v>
+        <v>-4.355002266498174E-14</v>
       </c>
       <c r="V2">
-        <v>7.956168794696126E-14</v>
+        <v>3.786889693000933E-14</v>
       </c>
       <c r="W2">
-        <v>0.09947899122943932</v>
+        <v>0.1041794914344031</v>
       </c>
       <c r="X2">
-        <v>5.231047446794907E-05</v>
+        <v>5.478220578167891E-05</v>
       </c>
       <c r="Y2">
-        <v>5.231045098343197E-05</v>
+        <v>5.478218184878739E-05</v>
       </c>
       <c r="Z2">
-        <v>89.85349321495306</v>
+        <v>89.79240741065139</v>
       </c>
       <c r="AA2">
-        <v>89.85349298566523</v>
+        <v>89.79240744469479</v>
       </c>
       <c r="AB2">
-        <v>89.85349295245659</v>
+        <v>89.79240739865564</v>
       </c>
       <c r="AC2">
-        <v>-90.19189928150428</v>
+        <v>-90.25298517138502</v>
       </c>
       <c r="AD2">
-        <v>-90.19189961761016</v>
+        <v>-90.25298511279898</v>
       </c>
       <c r="AE2">
-        <v>-90.19189968286743</v>
+        <v>-90.25298519689154</v>
       </c>
       <c r="AG2">
-        <v>1.613962773880808</v>
+        <v>1.65165350654644</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -9904,16 +9904,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.614804001341857</v>
+        <v>1.652514379118262</v>
       </c>
       <c r="AK2">
-        <v>0.002296629964524627</v>
+        <v>0.002350262962677562</v>
       </c>
       <c r="AL2">
-        <v>0.002296629853768322</v>
+        <v>0.002350262852590805</v>
       </c>
       <c r="AM2">
-        <v>0.05810097840191543</v>
+        <v>-0.002984654629333784</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -9922,13 +9922,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.0177435313916345</v>
+        <v>-0.07882916446449502</v>
       </c>
       <c r="AQ2">
-        <v>-68.49296940962374</v>
+        <v>-68.5540550455802</v>
       </c>
       <c r="AR2">
-        <v>-68.49297085478997</v>
+        <v>-68.55405644293188</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9945,13 +9945,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002667560008900974</v>
+        <v>0.002729855306064186</v>
       </c>
       <c r="F3">
-        <v>0.002667560310917602</v>
+        <v>0.002729855608586997</v>
       </c>
       <c r="G3">
-        <v>0.002667559705921452</v>
+        <v>0.002729855003592547</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9963,49 +9963,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03080232978436916</v>
+        <v>0.03152165391609772</v>
       </c>
       <c r="L3">
-        <v>0.03080233327175679</v>
+        <v>0.03152165740933025</v>
       </c>
       <c r="M3">
-        <v>0.03080232628586298</v>
+        <v>0.03152165042345607</v>
       </c>
       <c r="N3">
-        <v>-3.049494635995711E-09</v>
+        <v>-3.349185953584318E-09</v>
       </c>
       <c r="O3">
-        <v>6.891658051239915E-12</v>
+        <v>7.06144660736667E-12</v>
       </c>
       <c r="P3">
-        <v>-1.102179360012736E-11</v>
+        <v>-1.127814993544798E-11</v>
       </c>
       <c r="Q3">
-        <v>0.0001511866772803871</v>
+        <v>0.0001583305824699374</v>
       </c>
       <c r="R3">
-        <v>-6.572877823383853E-05</v>
+        <v>-6.883454070636667E-05</v>
       </c>
       <c r="S3">
-        <v>-6.572876079674015E-05</v>
+        <v>-6.883452286811638E-05</v>
       </c>
       <c r="T3">
-        <v>-3.741212922566303E-12</v>
+        <v>-1.091459384832264E-11</v>
       </c>
       <c r="U3">
-        <v>8.699731693843421E-12</v>
+        <v>8.895464943599031E-12</v>
       </c>
       <c r="V3">
-        <v>1.642563814494207E-12</v>
+        <v>1.692991244807004E-12</v>
       </c>
       <c r="W3">
-        <v>-0.04973949561573929</v>
+        <v>-0.0520897457218183</v>
       </c>
       <c r="X3">
-        <v>-2.615523360886785E-05</v>
+        <v>-2.739109918420721E-05</v>
       </c>
       <c r="Y3">
-        <v>-2.615522480765145E-05</v>
+        <v>-2.739109021944781E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10017,49 +10017,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>89.80810247402653</v>
+        <v>89.74701666986877</v>
       </c>
       <c r="AD3">
-        <v>89.8081022500496</v>
+        <v>89.74701670892573</v>
       </c>
       <c r="AE3">
-        <v>89.80810220650986</v>
+        <v>89.74701665277273</v>
       </c>
       <c r="AG3">
-        <v>1.614972414902053</v>
+        <v>1.652686725625335</v>
       </c>
       <c r="AH3">
-        <v>0.002756042718547105</v>
+        <v>0.002820404342342543</v>
       </c>
       <c r="AI3">
-        <v>0.002756042571115855</v>
+        <v>0.002820404195600789</v>
       </c>
       <c r="AJ3">
-        <v>1.614804001341857</v>
+        <v>1.652514379118262</v>
       </c>
       <c r="AK3">
-        <v>0.002296629964524627</v>
+        <v>0.002350262962677562</v>
       </c>
       <c r="AL3">
-        <v>0.002296629853768322</v>
+        <v>0.002350262852590805</v>
       </c>
       <c r="AM3">
-        <v>-0.03290865127711572</v>
+        <v>-0.09399428436385726</v>
       </c>
       <c r="AN3">
-        <v>-68.49750904346854</v>
+        <v>-68.55859467785433</v>
       </c>
       <c r="AO3">
-        <v>-68.49751063822863</v>
+        <v>-68.55859622465441</v>
       </c>
       <c r="AP3">
-        <v>-0.0177435313916345</v>
+        <v>-0.07882916446449502</v>
       </c>
       <c r="AQ3">
-        <v>-68.49296940962374</v>
+        <v>-68.5540550455802</v>
       </c>
       <c r="AR3">
-        <v>-68.49297085478997</v>
+        <v>-68.55405644293188</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10076,13 +10076,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002667560008901791</v>
+        <v>0.002729855306062552</v>
       </c>
       <c r="F4">
-        <v>0.002667560310917608</v>
+        <v>0.002729855608585349</v>
       </c>
       <c r="G4">
-        <v>0.002667559705924734</v>
+        <v>0.002729855003595828</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10094,49 +10094,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0308023297843786</v>
+        <v>0.03152165391607886</v>
       </c>
       <c r="L4">
-        <v>0.03080233327175685</v>
+        <v>0.03152165740931123</v>
       </c>
       <c r="M4">
-        <v>0.03080232628590088</v>
+        <v>0.03152165042349397</v>
       </c>
       <c r="N4">
-        <v>-3.04947168586114E-09</v>
+        <v>-3.349201662329405E-09</v>
       </c>
       <c r="O4">
-        <v>6.891609464770134E-12</v>
+        <v>7.061416400545674E-12</v>
       </c>
       <c r="P4">
-        <v>-1.102179360012797E-11</v>
+        <v>-1.12780504515315E-11</v>
       </c>
       <c r="Q4">
-        <v>0.0001511866772650839</v>
+        <v>0.000158330582501292</v>
       </c>
       <c r="R4">
-        <v>-6.572877823382258E-05</v>
+        <v>-6.883454070634149E-05</v>
       </c>
       <c r="S4">
-        <v>-6.572876079682114E-05</v>
+        <v>-6.883452286819928E-05</v>
       </c>
       <c r="T4">
-        <v>-3.741226104306135E-12</v>
+        <v>-1.094588290801872E-11</v>
       </c>
       <c r="U4">
-        <v>8.699712552683886E-12</v>
+        <v>8.895395666497593E-12</v>
       </c>
       <c r="V4">
-        <v>1.642563814494042E-12</v>
+        <v>1.693030315082562E-12</v>
       </c>
       <c r="W4">
-        <v>-0.0497394956157546</v>
+        <v>-0.05208974572178704</v>
       </c>
       <c r="X4">
-        <v>-2.615523360890834E-05</v>
+        <v>-2.739109918414948E-05</v>
       </c>
       <c r="Y4">
-        <v>-2.615522480768336E-05</v>
+        <v>-2.739109021948038E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10148,49 +10148,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>89.80810247404422</v>
+        <v>89.74701666983418</v>
       </c>
       <c r="AD4">
-        <v>89.80810225001436</v>
+        <v>89.74701670896</v>
       </c>
       <c r="AE4">
-        <v>89.8081022065101</v>
+        <v>89.74701665277303</v>
       </c>
       <c r="AG4">
-        <v>1.614972414902053</v>
+        <v>1.652686725625335</v>
       </c>
       <c r="AH4">
-        <v>0.002756042718547105</v>
+        <v>0.002820404342342439</v>
       </c>
       <c r="AI4">
-        <v>0.002756042571115999</v>
+        <v>0.002820404195601077</v>
       </c>
       <c r="AJ4">
-        <v>1.614804001341857</v>
+        <v>1.652514379118262</v>
       </c>
       <c r="AK4">
-        <v>0.002296629964524627</v>
+        <v>0.002350262962677562</v>
       </c>
       <c r="AL4">
-        <v>0.002296629853768322</v>
+        <v>0.002350262852590805</v>
       </c>
       <c r="AM4">
-        <v>-0.03290865127711556</v>
+        <v>-0.0939942843638568</v>
       </c>
       <c r="AN4">
-        <v>-68.49750904346854</v>
+        <v>-68.55859467785351</v>
       </c>
       <c r="AO4">
-        <v>-68.49751063822734</v>
+        <v>-68.55859622465186</v>
       </c>
       <c r="AP4">
-        <v>-0.0177435313916345</v>
+        <v>-0.07882916446449502</v>
       </c>
       <c r="AQ4">
-        <v>-68.49296940962374</v>
+        <v>-68.5540550455802</v>
       </c>
       <c r="AR4">
-        <v>-68.49297085478997</v>
+        <v>-68.55405644293188</v>
       </c>
     </row>
   </sheetData>
@@ -10345,130 +10345,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.006951505608221538</v>
+        <v>0.008240192970555744</v>
       </c>
       <c r="C2">
-        <v>0.006951505819505572</v>
+        <v>0.008240193168203921</v>
       </c>
       <c r="D2">
-        <v>0.006951505394392344</v>
+        <v>0.008240192773070823</v>
       </c>
       <c r="E2">
-        <v>0.004635796230775508</v>
+        <v>0.005495191641112639</v>
       </c>
       <c r="F2">
-        <v>0.004635796442002923</v>
+        <v>0.005495191838657171</v>
       </c>
       <c r="G2">
-        <v>0.004635796017048977</v>
+        <v>0.00549519144372518</v>
       </c>
       <c r="H2">
-        <v>0.08026907268359797</v>
+        <v>0.09514955259449641</v>
       </c>
       <c r="I2">
-        <v>0.08026907512329585</v>
+        <v>0.095149554876741</v>
       </c>
       <c r="J2">
-        <v>0.08026907021451112</v>
+        <v>0.09514955031413698</v>
       </c>
       <c r="K2">
-        <v>0.05352956403492985</v>
+        <v>0.06345300746489926</v>
       </c>
       <c r="L2">
-        <v>0.05352956647397395</v>
+        <v>0.06345300974594704</v>
       </c>
       <c r="M2">
-        <v>0.05352956156702844</v>
+        <v>0.06345300518566521</v>
       </c>
       <c r="N2">
-        <v>-0.01044442310630295</v>
+        <v>0.001252181345228577</v>
       </c>
       <c r="O2">
-        <v>-0.05257468435852732</v>
+        <v>-0.07124778667308641</v>
       </c>
       <c r="P2">
-        <v>0.06342109920153248</v>
+        <v>0.07056045840195663</v>
       </c>
       <c r="Q2">
-        <v>0.006999144211774274</v>
+        <v>-0.0007787927746771646</v>
       </c>
       <c r="R2">
-        <v>0.03517231128825736</v>
+        <v>0.0476589944601702</v>
       </c>
       <c r="S2">
-        <v>-0.0422012466349926</v>
+        <v>-0.046922063921856</v>
       </c>
       <c r="T2">
-        <v>-0.1234984429175704</v>
+        <v>-0.1574894298130486</v>
       </c>
       <c r="U2">
-        <v>0.02317304829632369</v>
+        <v>0.01147931201805635</v>
       </c>
       <c r="V2">
-        <v>-0.01224368715073152</v>
+        <v>-0.01216426057287485</v>
       </c>
       <c r="W2">
-        <v>0.0824032061569773</v>
+        <v>0.1050808130902717</v>
       </c>
       <c r="X2">
-        <v>-0.01538628607979473</v>
+        <v>-0.007562143225741098</v>
       </c>
       <c r="Y2">
-        <v>0.008171013251709163</v>
+        <v>0.008130274510007562</v>
       </c>
       <c r="Z2">
-        <v>96.9278702877768</v>
+        <v>89.41479083991204</v>
       </c>
       <c r="AA2">
-        <v>96.92787087188189</v>
+        <v>89.41479173836673</v>
       </c>
       <c r="AB2">
-        <v>96.92786921193593</v>
+        <v>89.4147899635386</v>
       </c>
       <c r="AC2">
-        <v>-83.11752220869474</v>
+        <v>-90.63060174212158</v>
       </c>
       <c r="AD2">
-        <v>-83.11752133074371</v>
+        <v>-90.63060039324878</v>
       </c>
       <c r="AE2">
-        <v>-83.11752382404013</v>
+        <v>-90.63060305790559</v>
       </c>
       <c r="AG2">
-        <v>1.544048050775181</v>
+        <v>1.655230144743751</v>
       </c>
       <c r="AH2">
-        <v>0.7157811643411144</v>
+        <v>0.7584546740302129</v>
       </c>
       <c r="AI2">
-        <v>0.8046951738871784</v>
+        <v>0.7525133779929153</v>
       </c>
       <c r="AJ2">
-        <v>1.544939124652275</v>
+        <v>1.656086972227986</v>
       </c>
       <c r="AK2">
-        <v>0.7171827977581579</v>
+        <v>0.7604874075046737</v>
       </c>
       <c r="AL2">
-        <v>0.8030143340853731</v>
+        <v>0.7504960372848765</v>
       </c>
       <c r="AM2">
-        <v>2.093795107446013</v>
+        <v>-0.129666241498833</v>
       </c>
       <c r="AN2">
-        <v>-106.8583055569838</v>
+        <v>-99.73794074880807</v>
       </c>
       <c r="AO2">
-        <v>86.00112104239246</v>
+        <v>79.63343622843777</v>
       </c>
       <c r="AP2">
-        <v>2.027555079696977</v>
+        <v>-0.2059693014127922</v>
       </c>
       <c r="AQ2">
-        <v>-106.7447112059561</v>
+        <v>-99.64666687686575</v>
       </c>
       <c r="AR2">
-        <v>85.92444831533692</v>
+        <v>79.53925099560935</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -10485,13 +10485,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002317898115219298</v>
+        <v>0.002747595820529943</v>
       </c>
       <c r="F3">
-        <v>0.002317898185629169</v>
+        <v>0.002747595886379477</v>
       </c>
       <c r="G3">
-        <v>0.002317898043976249</v>
+        <v>0.002747595754735221</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -10503,49 +10503,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02676478201551976</v>
+        <v>0.03172650373214507</v>
       </c>
       <c r="L3">
-        <v>0.02676478282854292</v>
+        <v>0.03172650449250999</v>
       </c>
       <c r="M3">
-        <v>0.02676478119287589</v>
+        <v>0.03172650297241306</v>
       </c>
       <c r="N3">
-        <v>-2.525640967086128E-09</v>
+        <v>-3.378178493967512E-09</v>
       </c>
       <c r="O3">
-        <v>9.289894860618668E-10</v>
+        <v>7.541536090313564E-10</v>
       </c>
       <c r="P3">
-        <v>3.186997023906155E-10</v>
+        <v>2.381997712921977E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.003499573368110278</v>
+        <v>0.000389394698940541</v>
       </c>
       <c r="R3">
-        <v>-0.01758615517932288</v>
+        <v>-0.02382949685248711</v>
       </c>
       <c r="S3">
-        <v>0.02110062347665025</v>
+        <v>0.02346103207986759</v>
       </c>
       <c r="T3">
-        <v>2.190436002143107E-10</v>
+        <v>-2.580030365785381E-11</v>
       </c>
       <c r="U3">
-        <v>6.646156108832099E-10</v>
+        <v>1.06832057444558E-09</v>
       </c>
       <c r="V3">
-        <v>-1.814628612148284E-09</v>
+        <v>-1.963999720135395E-09</v>
       </c>
       <c r="W3">
-        <v>-0.04120160296826223</v>
+        <v>-0.05254040655714474</v>
       </c>
       <c r="X3">
-        <v>0.007693143371530772</v>
+        <v>0.00378107214630213</v>
       </c>
       <c r="Y3">
-        <v>-0.004085507533168766</v>
+        <v>-0.004065138237152632</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10557,49 +10557,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>96.8824795469246</v>
+        <v>89.3694000990801</v>
       </c>
       <c r="AD3">
-        <v>96.88248013220601</v>
+        <v>89.36940099835171</v>
       </c>
       <c r="AE3">
-        <v>96.88247846996222</v>
+        <v>89.3693992218825</v>
       </c>
       <c r="AG3">
-        <v>1.545117451049472</v>
+        <v>1.656258512829243</v>
       </c>
       <c r="AH3">
-        <v>0.7174636498244297</v>
+        <v>0.7608943766971648</v>
       </c>
       <c r="AI3">
-        <v>0.802678173239763</v>
+        <v>0.7500926194651314</v>
       </c>
       <c r="AJ3">
-        <v>1.544939124652275</v>
+        <v>1.656086972227986</v>
       </c>
       <c r="AK3">
-        <v>0.7171827977581579</v>
+        <v>0.7604874075046737</v>
       </c>
       <c r="AL3">
-        <v>0.8030143340853731</v>
+        <v>0.7504960372848765</v>
       </c>
       <c r="AM3">
-        <v>2.014310600527463</v>
+        <v>-0.2212261371408794</v>
       </c>
       <c r="AN3">
-        <v>-106.7220519996903</v>
+        <v>-99.62848176547044</v>
       </c>
       <c r="AO3">
-        <v>85.9090837410527</v>
+        <v>79.52036424032849</v>
       </c>
       <c r="AP3">
-        <v>2.027555079696977</v>
+        <v>-0.2059693014127922</v>
       </c>
       <c r="AQ3">
-        <v>-106.7447112059561</v>
+        <v>-99.64666687686575</v>
       </c>
       <c r="AR3">
-        <v>85.92444831533692</v>
+        <v>79.53925099560935</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10616,13 +10616,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002317898115219705</v>
+        <v>0.002747595820529123</v>
       </c>
       <c r="F4">
-        <v>0.002317898185628257</v>
+        <v>0.002747595886378647</v>
       </c>
       <c r="G4">
-        <v>0.002317898043976249</v>
+        <v>0.002747595754736852</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10634,49 +10634,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02676478201552446</v>
+        <v>0.0317265037321356</v>
       </c>
       <c r="L4">
-        <v>0.02676478282853239</v>
+        <v>0.03172650449250041</v>
       </c>
       <c r="M4">
-        <v>0.02676478119287589</v>
+        <v>0.0317265029724319</v>
       </c>
       <c r="N4">
-        <v>-2.52562659509985E-09</v>
+        <v>-3.378186400111048E-09</v>
       </c>
       <c r="O4">
-        <v>9.289868878153599E-10</v>
+        <v>7.541465019397317E-10</v>
       </c>
       <c r="P4">
-        <v>3.186999736403305E-10</v>
+        <v>2.381857957543308E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.00349957336811002</v>
+        <v>0.0003893946989405974</v>
       </c>
       <c r="R4">
-        <v>-0.01758615517931832</v>
+        <v>-0.0238294968524788</v>
       </c>
       <c r="S4">
-        <v>0.02110062347665025</v>
+        <v>0.02346103207988028</v>
       </c>
       <c r="T4">
-        <v>2.19051429361177E-10</v>
+        <v>-2.58159644807942E-11</v>
       </c>
       <c r="U4">
-        <v>6.646305861118051E-10</v>
+        <v>1.068321780154464E-09</v>
       </c>
       <c r="V4">
-        <v>-1.814624819588375E-09</v>
+        <v>-1.963997135060072E-09</v>
       </c>
       <c r="W4">
-        <v>-0.04120160296826955</v>
+        <v>-0.05254040655712906</v>
       </c>
       <c r="X4">
-        <v>0.007693143371522308</v>
+        <v>0.003781072146308026</v>
       </c>
       <c r="Y4">
-        <v>-0.004085507533168766</v>
+        <v>-0.004065138237162206</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10688,49 +10688,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>96.88247954692338</v>
+        <v>89.36940009907991</v>
       </c>
       <c r="AD4">
-        <v>96.88248013218832</v>
+        <v>89.36940099836863</v>
       </c>
       <c r="AE4">
-        <v>96.88247846996222</v>
+        <v>89.3693992219</v>
       </c>
       <c r="AG4">
-        <v>1.545117451049472</v>
+        <v>1.656258512829243</v>
       </c>
       <c r="AH4">
-        <v>0.7174636498244297</v>
+        <v>0.7608943766971645</v>
       </c>
       <c r="AI4">
-        <v>0.802678173239763</v>
+        <v>0.7500926194651313</v>
       </c>
       <c r="AJ4">
-        <v>1.544939124652275</v>
+        <v>1.656086972227986</v>
       </c>
       <c r="AK4">
-        <v>0.7171827977581579</v>
+        <v>0.7604874075046737</v>
       </c>
       <c r="AL4">
-        <v>0.8030143340853731</v>
+        <v>0.7504960372848765</v>
       </c>
       <c r="AM4">
-        <v>2.014310600527464</v>
+        <v>-0.2212261371408795</v>
       </c>
       <c r="AN4">
-        <v>-106.7220519996903</v>
+        <v>-99.62848176547045</v>
       </c>
       <c r="AO4">
-        <v>85.9090837410527</v>
+        <v>79.52036424032849</v>
       </c>
       <c r="AP4">
-        <v>2.027555079696977</v>
+        <v>-0.2059693014127922</v>
       </c>
       <c r="AQ4">
-        <v>-106.7447112059561</v>
+        <v>-99.64666687686575</v>
       </c>
       <c r="AR4">
-        <v>85.92444831533692</v>
+        <v>79.53925099560935</v>
       </c>
     </row>
   </sheetData>
@@ -10885,130 +10885,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.006951505608221538</v>
+        <v>0.008240192970555744</v>
       </c>
       <c r="C2">
-        <v>0.006951505819505572</v>
+        <v>0.008240193168203921</v>
       </c>
       <c r="D2">
-        <v>0.006951505394392344</v>
+        <v>0.008240192773070823</v>
       </c>
       <c r="E2">
-        <v>0.004635796230775508</v>
+        <v>0.005495191641112639</v>
       </c>
       <c r="F2">
-        <v>0.004635796442002923</v>
+        <v>0.005495191838657171</v>
       </c>
       <c r="G2">
-        <v>0.004635796017048977</v>
+        <v>0.00549519144372518</v>
       </c>
       <c r="H2">
-        <v>0.08026907268359797</v>
+        <v>0.09514955259449641</v>
       </c>
       <c r="I2">
-        <v>0.08026907512329585</v>
+        <v>0.095149554876741</v>
       </c>
       <c r="J2">
-        <v>0.08026907021451112</v>
+        <v>0.09514955031413698</v>
       </c>
       <c r="K2">
-        <v>0.05352956403492985</v>
+        <v>0.06345300746489926</v>
       </c>
       <c r="L2">
-        <v>0.05352956647397395</v>
+        <v>0.06345300974594704</v>
       </c>
       <c r="M2">
-        <v>0.05352956156702844</v>
+        <v>0.06345300518566521</v>
       </c>
       <c r="N2">
-        <v>-0.01044442310630295</v>
+        <v>0.001252181345228577</v>
       </c>
       <c r="O2">
-        <v>-0.05257468435852732</v>
+        <v>-0.07124778667308641</v>
       </c>
       <c r="P2">
-        <v>0.06342109920153248</v>
+        <v>0.07056045840195663</v>
       </c>
       <c r="Q2">
-        <v>0.006999144211774274</v>
+        <v>-0.0007787927746771646</v>
       </c>
       <c r="R2">
-        <v>0.03517231128825736</v>
+        <v>0.0476589944601702</v>
       </c>
       <c r="S2">
-        <v>-0.0422012466349926</v>
+        <v>-0.046922063921856</v>
       </c>
       <c r="T2">
-        <v>-0.1234984429175704</v>
+        <v>-0.1574894298130486</v>
       </c>
       <c r="U2">
-        <v>0.02317304829632369</v>
+        <v>0.01147931201805635</v>
       </c>
       <c r="V2">
-        <v>-0.01224368715073152</v>
+        <v>-0.01216426057287485</v>
       </c>
       <c r="W2">
-        <v>0.0824032061569773</v>
+        <v>0.1050808130902717</v>
       </c>
       <c r="X2">
-        <v>-0.01538628607979473</v>
+        <v>-0.007562143225741098</v>
       </c>
       <c r="Y2">
-        <v>0.008171013251709163</v>
+        <v>0.008130274510007562</v>
       </c>
       <c r="Z2">
-        <v>96.9278702877768</v>
+        <v>89.41479083991204</v>
       </c>
       <c r="AA2">
-        <v>96.92787087188189</v>
+        <v>89.41479173836673</v>
       </c>
       <c r="AB2">
-        <v>96.92786921193593</v>
+        <v>89.4147899635386</v>
       </c>
       <c r="AC2">
-        <v>-83.11752220869474</v>
+        <v>-90.63060174212158</v>
       </c>
       <c r="AD2">
-        <v>-83.11752133074371</v>
+        <v>-90.63060039324878</v>
       </c>
       <c r="AE2">
-        <v>-83.11752382404013</v>
+        <v>-90.63060305790559</v>
       </c>
       <c r="AG2">
-        <v>1.544048050775181</v>
+        <v>1.655230144743751</v>
       </c>
       <c r="AH2">
-        <v>0.7157811643411144</v>
+        <v>0.7584546740302129</v>
       </c>
       <c r="AI2">
-        <v>0.8046951738871784</v>
+        <v>0.7525133779929153</v>
       </c>
       <c r="AJ2">
-        <v>1.544939124652275</v>
+        <v>1.656086972227986</v>
       </c>
       <c r="AK2">
-        <v>0.7171827977581579</v>
+        <v>0.7604874075046737</v>
       </c>
       <c r="AL2">
-        <v>0.8030143340853731</v>
+        <v>0.7504960372848765</v>
       </c>
       <c r="AM2">
-        <v>2.093795107446013</v>
+        <v>-0.129666241498833</v>
       </c>
       <c r="AN2">
-        <v>-106.8583055569838</v>
+        <v>-99.73794074880807</v>
       </c>
       <c r="AO2">
-        <v>86.00112104239246</v>
+        <v>79.63343622843777</v>
       </c>
       <c r="AP2">
-        <v>2.027555079696977</v>
+        <v>-0.2059693014127922</v>
       </c>
       <c r="AQ2">
-        <v>-106.7447112059561</v>
+        <v>-99.64666687686575</v>
       </c>
       <c r="AR2">
-        <v>85.92444831533692</v>
+        <v>79.53925099560935</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11025,13 +11025,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002317898115219298</v>
+        <v>0.002747595820529943</v>
       </c>
       <c r="F3">
-        <v>0.002317898185629169</v>
+        <v>0.002747595886379477</v>
       </c>
       <c r="G3">
-        <v>0.002317898043976249</v>
+        <v>0.002747595754735221</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11043,49 +11043,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02676478201551976</v>
+        <v>0.03172650373214507</v>
       </c>
       <c r="L3">
-        <v>0.02676478282854292</v>
+        <v>0.03172650449250999</v>
       </c>
       <c r="M3">
-        <v>0.02676478119287589</v>
+        <v>0.03172650297241306</v>
       </c>
       <c r="N3">
-        <v>-2.525640967086128E-09</v>
+        <v>-3.378178493967512E-09</v>
       </c>
       <c r="O3">
-        <v>9.289894860618668E-10</v>
+        <v>7.541536090313564E-10</v>
       </c>
       <c r="P3">
-        <v>3.186997023906155E-10</v>
+        <v>2.381997712921977E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.003499573368110278</v>
+        <v>0.000389394698940541</v>
       </c>
       <c r="R3">
-        <v>-0.01758615517932288</v>
+        <v>-0.02382949685248711</v>
       </c>
       <c r="S3">
-        <v>0.02110062347665025</v>
+        <v>0.02346103207986759</v>
       </c>
       <c r="T3">
-        <v>2.190436002143107E-10</v>
+        <v>-2.580030365785381E-11</v>
       </c>
       <c r="U3">
-        <v>6.646156108832099E-10</v>
+        <v>1.06832057444558E-09</v>
       </c>
       <c r="V3">
-        <v>-1.814628612148284E-09</v>
+        <v>-1.963999720135395E-09</v>
       </c>
       <c r="W3">
-        <v>-0.04120160296826223</v>
+        <v>-0.05254040655714474</v>
       </c>
       <c r="X3">
-        <v>0.007693143371530772</v>
+        <v>0.00378107214630213</v>
       </c>
       <c r="Y3">
-        <v>-0.004085507533168766</v>
+        <v>-0.004065138237152632</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11097,49 +11097,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>96.8824795469246</v>
+        <v>89.3694000990801</v>
       </c>
       <c r="AD3">
-        <v>96.88248013220601</v>
+        <v>89.36940099835171</v>
       </c>
       <c r="AE3">
-        <v>96.88247846996222</v>
+        <v>89.3693992218825</v>
       </c>
       <c r="AG3">
-        <v>1.545117451049472</v>
+        <v>1.656258512829243</v>
       </c>
       <c r="AH3">
-        <v>0.7174636498244297</v>
+        <v>0.7608943766971648</v>
       </c>
       <c r="AI3">
-        <v>0.802678173239763</v>
+        <v>0.7500926194651314</v>
       </c>
       <c r="AJ3">
-        <v>1.544939124652275</v>
+        <v>1.656086972227986</v>
       </c>
       <c r="AK3">
-        <v>0.7171827977581579</v>
+        <v>0.7604874075046737</v>
       </c>
       <c r="AL3">
-        <v>0.8030143340853731</v>
+        <v>0.7504960372848765</v>
       </c>
       <c r="AM3">
-        <v>2.014310600527463</v>
+        <v>-0.2212261371408794</v>
       </c>
       <c r="AN3">
-        <v>-106.7220519996903</v>
+        <v>-99.62848176547044</v>
       </c>
       <c r="AO3">
-        <v>85.9090837410527</v>
+        <v>79.52036424032849</v>
       </c>
       <c r="AP3">
-        <v>2.027555079696977</v>
+        <v>-0.2059693014127922</v>
       </c>
       <c r="AQ3">
-        <v>-106.7447112059561</v>
+        <v>-99.64666687686575</v>
       </c>
       <c r="AR3">
-        <v>85.92444831533692</v>
+        <v>79.53925099560935</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002317898115219705</v>
+        <v>0.002747595820529123</v>
       </c>
       <c r="F4">
-        <v>0.002317898185628257</v>
+        <v>0.002747595886378647</v>
       </c>
       <c r="G4">
-        <v>0.002317898043976249</v>
+        <v>0.002747595754736852</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11174,49 +11174,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02676478201552446</v>
+        <v>0.0317265037321356</v>
       </c>
       <c r="L4">
-        <v>0.02676478282853239</v>
+        <v>0.03172650449250041</v>
       </c>
       <c r="M4">
-        <v>0.02676478119287589</v>
+        <v>0.0317265029724319</v>
       </c>
       <c r="N4">
-        <v>-2.52562659509985E-09</v>
+        <v>-3.378186400111048E-09</v>
       </c>
       <c r="O4">
-        <v>9.289868878153599E-10</v>
+        <v>7.541465019397317E-10</v>
       </c>
       <c r="P4">
-        <v>3.186999736403305E-10</v>
+        <v>2.381857957543308E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.00349957336811002</v>
+        <v>0.0003893946989405974</v>
       </c>
       <c r="R4">
-        <v>-0.01758615517931832</v>
+        <v>-0.0238294968524788</v>
       </c>
       <c r="S4">
-        <v>0.02110062347665025</v>
+        <v>0.02346103207988028</v>
       </c>
       <c r="T4">
-        <v>2.19051429361177E-10</v>
+        <v>-2.58159644807942E-11</v>
       </c>
       <c r="U4">
-        <v>6.646305861118051E-10</v>
+        <v>1.068321780154464E-09</v>
       </c>
       <c r="V4">
-        <v>-1.814624819588375E-09</v>
+        <v>-1.963997135060072E-09</v>
       </c>
       <c r="W4">
-        <v>-0.04120160296826955</v>
+        <v>-0.05254040655712906</v>
       </c>
       <c r="X4">
-        <v>0.007693143371522308</v>
+        <v>0.003781072146308026</v>
       </c>
       <c r="Y4">
-        <v>-0.004085507533168766</v>
+        <v>-0.004065138237162206</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11228,49 +11228,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>96.88247954692338</v>
+        <v>89.36940009907991</v>
       </c>
       <c r="AD4">
-        <v>96.88248013218832</v>
+        <v>89.36940099836863</v>
       </c>
       <c r="AE4">
-        <v>96.88247846996222</v>
+        <v>89.3693992219</v>
       </c>
       <c r="AG4">
-        <v>1.545117451049472</v>
+        <v>1.656258512829243</v>
       </c>
       <c r="AH4">
-        <v>0.7174636498244297</v>
+        <v>0.7608943766971645</v>
       </c>
       <c r="AI4">
-        <v>0.802678173239763</v>
+        <v>0.7500926194651313</v>
       </c>
       <c r="AJ4">
-        <v>1.544939124652275</v>
+        <v>1.656086972227986</v>
       </c>
       <c r="AK4">
-        <v>0.7171827977581579</v>
+        <v>0.7604874075046737</v>
       </c>
       <c r="AL4">
-        <v>0.8030143340853731</v>
+        <v>0.7504960372848765</v>
       </c>
       <c r="AM4">
-        <v>2.014310600527464</v>
+        <v>-0.2212261371408795</v>
       </c>
       <c r="AN4">
-        <v>-106.7220519996903</v>
+        <v>-99.62848176547045</v>
       </c>
       <c r="AO4">
-        <v>85.9090837410527</v>
+        <v>79.52036424032849</v>
       </c>
       <c r="AP4">
-        <v>2.027555079696977</v>
+        <v>-0.2059693014127922</v>
       </c>
       <c r="AQ4">
-        <v>-106.7447112059561</v>
+        <v>-99.64666687686575</v>
       </c>
       <c r="AR4">
-        <v>85.92444831533692</v>
+        <v>79.53925099560935</v>
       </c>
     </row>
   </sheetData>
@@ -11425,97 +11425,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.007265317358305621</v>
+        <v>0.007442881952318811</v>
       </c>
       <c r="C2">
-        <v>0.007265318181971155</v>
+        <v>0.007442882777367931</v>
       </c>
       <c r="D2">
-        <v>0.007265316532001927</v>
+        <v>0.007442881127418441</v>
       </c>
       <c r="E2">
-        <v>0.004845065850424247</v>
+        <v>0.004963479418095202</v>
       </c>
       <c r="F2">
-        <v>0.004845066674130816</v>
+        <v>0.004963480243132022</v>
       </c>
       <c r="G2">
-        <v>0.004845065024178003</v>
+        <v>0.004963478593200965</v>
       </c>
       <c r="H2">
-        <v>0.08389265865131622</v>
+        <v>0.08594299797435746</v>
       </c>
       <c r="I2">
-        <v>0.08389266816218657</v>
+        <v>0.08594300750120408</v>
       </c>
       <c r="J2">
-        <v>0.08389264910998302</v>
+        <v>0.08594298844922844</v>
       </c>
       <c r="K2">
-        <v>0.05594600145967804</v>
+        <v>0.05731332356308865</v>
       </c>
       <c r="L2">
-        <v>0.05594601097102223</v>
+        <v>0.05731333308979324</v>
       </c>
       <c r="M2">
-        <v>0.05594599191900822</v>
+        <v>0.05731331403803044</v>
       </c>
       <c r="N2">
-        <v>0.0008430801220338794</v>
+        <v>0.0008847939220897516</v>
       </c>
       <c r="O2">
-        <v>-7.706262351037902E-14</v>
+        <v>-9.195963506815664E-14</v>
       </c>
       <c r="P2">
-        <v>8.768464246494632E-14</v>
+        <v>5.167157264347843E-14</v>
       </c>
       <c r="Q2">
-        <v>-0.000478799619388213</v>
+        <v>-0.0005024897744288783</v>
       </c>
       <c r="R2">
-        <v>0.000208160260210602</v>
+        <v>0.000218459483817056</v>
       </c>
       <c r="S2">
-        <v>0.0002081601811590392</v>
+        <v>0.0002184594028396935</v>
       </c>
       <c r="T2">
-        <v>-0.1229627807283774</v>
+        <v>-0.1290466570505466</v>
       </c>
       <c r="U2">
-        <v>4.95762643158216E-14</v>
+        <v>2.419171355278381E-14</v>
       </c>
       <c r="V2">
-        <v>4.164230791967632E-14</v>
+        <v>4.789952219246863E-14</v>
       </c>
       <c r="W2">
-        <v>0.08204314351866765</v>
+        <v>0.08610242336429981</v>
       </c>
       <c r="X2">
-        <v>4.316501733102472E-05</v>
+        <v>4.530070863123875E-05</v>
       </c>
       <c r="Y2">
-        <v>4.316499837915742E-05</v>
+        <v>4.530068926862589E-05</v>
       </c>
       <c r="Z2">
-        <v>89.66901616984613</v>
+        <v>89.60368246712962</v>
       </c>
       <c r="AA2">
-        <v>89.66901595002871</v>
+        <v>89.60368252256093</v>
       </c>
       <c r="AB2">
-        <v>89.66901587487362</v>
+        <v>89.60368243471274</v>
       </c>
       <c r="AC2">
-        <v>-90.41813575464074</v>
+        <v>-90.48346954692822</v>
       </c>
       <c r="AD2">
-        <v>-90.41813606944712</v>
+        <v>-90.48346944934205</v>
       </c>
       <c r="AE2">
-        <v>-90.4181362118405</v>
+        <v>-90.48346961002721</v>
       </c>
       <c r="AG2">
-        <v>1.465750077683157</v>
+        <v>1.501573057743689</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -11524,16 +11524,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.466495164824897</v>
+        <v>1.502336354837587</v>
       </c>
       <c r="AK2">
-        <v>0.003799888425375519</v>
+        <v>0.003892757821264161</v>
       </c>
       <c r="AL2">
-        <v>0.003799888267054511</v>
+        <v>0.003892757663218184</v>
       </c>
       <c r="AM2">
-        <v>0.06185191722525957</v>
+        <v>-0.003481606196959056</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -11542,13 +11542,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.0837642909179115</v>
+        <v>-0.1490978143820841</v>
       </c>
       <c r="AQ2">
-        <v>-78.70306657288246</v>
+        <v>-78.76840008407164</v>
       </c>
       <c r="AR2">
-        <v>-78.70306739070122</v>
+        <v>-78.76840089120691</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11565,13 +11565,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002422532925010681</v>
+        <v>0.002481739708994067</v>
       </c>
       <c r="F3">
-        <v>0.002422533199582117</v>
+        <v>0.002481739984007391</v>
       </c>
       <c r="G3">
-        <v>0.002422532649595375</v>
+        <v>0.002481739434029312</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11583,49 +11583,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02797300072751296</v>
+        <v>0.02865666178092616</v>
       </c>
       <c r="L3">
-        <v>0.02797300389799081</v>
+        <v>0.0286566649565065</v>
       </c>
       <c r="M3">
-        <v>0.02797299754729094</v>
+        <v>0.02865665860590666</v>
       </c>
       <c r="N3">
-        <v>-2.509501585466684E-09</v>
+        <v>-2.768302323025638E-09</v>
       </c>
       <c r="O3">
-        <v>1.248721485506526E-11</v>
+        <v>1.280326404688762E-11</v>
       </c>
       <c r="P3">
-        <v>-1.59125587741575E-11</v>
+        <v>-1.629700843983164E-11</v>
       </c>
       <c r="Q3">
-        <v>0.0002393985555407357</v>
+        <v>0.0002512435036663367</v>
       </c>
       <c r="R3">
-        <v>-0.0001040801248979409</v>
+        <v>-0.0001092297365692141</v>
       </c>
       <c r="S3">
-        <v>-0.0001040800972045256</v>
+        <v>-0.0001092297082047943</v>
       </c>
       <c r="T3">
-        <v>-1.0604297162609E-11</v>
+        <v>-1.713960877795209E-11</v>
       </c>
       <c r="U3">
-        <v>1.103265012319653E-11</v>
+        <v>1.128751925604075E-11</v>
       </c>
       <c r="V3">
-        <v>5.363822202672014E-12</v>
+        <v>5.513588491287397E-12</v>
       </c>
       <c r="W3">
-        <v>-0.04102157176324178</v>
+        <v>-0.0430512116892955</v>
       </c>
       <c r="X3">
-        <v>-2.158250406794565E-05</v>
+        <v>-2.265034961160857E-05</v>
       </c>
       <c r="Y3">
-        <v>-2.158249695563389E-05</v>
+        <v>-2.265034233812244E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11637,49 +11637,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>89.58186599702923</v>
+        <v>89.51653229438681</v>
       </c>
       <c r="AD3">
-        <v>89.58186578721676</v>
+        <v>89.51653235956105</v>
       </c>
       <c r="AE3">
-        <v>89.58186569232016</v>
+        <v>89.51653225234625</v>
       </c>
       <c r="AG3">
-        <v>1.466644666579473</v>
+        <v>1.502489510419269</v>
       </c>
       <c r="AH3">
-        <v>0.004560009236555473</v>
+        <v>0.00467145600928617</v>
       </c>
       <c r="AI3">
-        <v>0.004560009026106602</v>
+        <v>0.004671455799133787</v>
       </c>
       <c r="AJ3">
-        <v>1.466495164824897</v>
+        <v>1.502336354837587</v>
       </c>
       <c r="AK3">
-        <v>0.003799888425375519</v>
+        <v>0.003892757821264161</v>
       </c>
       <c r="AL3">
-        <v>0.003799888267054511</v>
+        <v>0.003892757663218184</v>
       </c>
       <c r="AM3">
-        <v>-0.1128805648484732</v>
+        <v>-0.178214088326667</v>
       </c>
       <c r="AN3">
-        <v>-78.71178230924133</v>
+        <v>-78.77711582026156</v>
       </c>
       <c r="AO3">
-        <v>-78.71178322034775</v>
+        <v>-78.77711671771867</v>
       </c>
       <c r="AP3">
-        <v>-0.0837642909179115</v>
+        <v>-0.1490978143820841</v>
       </c>
       <c r="AQ3">
-        <v>-78.70306657288246</v>
+        <v>-78.76840008407164</v>
       </c>
       <c r="AR3">
-        <v>-78.70306739070122</v>
+        <v>-78.76840089120691</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11696,13 +11696,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002422532925011082</v>
+        <v>0.002481739708994071</v>
       </c>
       <c r="F4">
-        <v>0.002422533199581302</v>
+        <v>0.002481739984007405</v>
       </c>
       <c r="G4">
-        <v>0.00242253264959538</v>
+        <v>0.002481739434030949</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11714,49 +11714,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02797300072751759</v>
+        <v>0.02865666178092621</v>
       </c>
       <c r="L4">
-        <v>0.0279730038979814</v>
+        <v>0.02865666495650666</v>
       </c>
       <c r="M4">
-        <v>0.02797299754729101</v>
+        <v>0.02865665860592556</v>
       </c>
       <c r="N4">
-        <v>-2.509473795821581E-09</v>
+        <v>-2.768295227977545E-09</v>
       </c>
       <c r="O4">
-        <v>1.248720639869181E-11</v>
+        <v>1.280324681978196E-11</v>
       </c>
       <c r="P4">
-        <v>-1.591248672800613E-11</v>
+        <v>-1.629699121272736E-11</v>
       </c>
       <c r="Q4">
-        <v>0.0002393985555198855</v>
+        <v>0.0002512435036734532</v>
       </c>
       <c r="R4">
-        <v>-0.0001040801248978985</v>
+        <v>-0.0001092297365691997</v>
       </c>
       <c r="S4">
-        <v>-0.0001040800972045185</v>
+        <v>-0.0001092297082048702</v>
       </c>
       <c r="T4">
-        <v>-1.0604351912102E-11</v>
+        <v>-1.714674810109754E-11</v>
       </c>
       <c r="U4">
-        <v>1.103269248855449E-11</v>
+        <v>1.128760607727815E-11</v>
       </c>
       <c r="V4">
-        <v>5.3639026634537E-12</v>
+        <v>5.513501670053953E-12</v>
       </c>
       <c r="W4">
-        <v>-0.04102157176324869</v>
+        <v>-0.04305121168929552</v>
       </c>
       <c r="X4">
-        <v>-2.15825040679739E-05</v>
+        <v>-2.265034961168092E-05</v>
       </c>
       <c r="Y4">
-        <v>-2.158249695566919E-05</v>
+        <v>-2.265034233811872E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11768,49 +11768,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>89.5818659970584</v>
+        <v>89.51653229437733</v>
       </c>
       <c r="AD4">
-        <v>89.58186578719722</v>
+        <v>89.51653235952318</v>
       </c>
       <c r="AE4">
-        <v>89.58186569230077</v>
+        <v>89.51653225235604</v>
       </c>
       <c r="AG4">
-        <v>1.466644666579473</v>
+        <v>1.502489510419269</v>
       </c>
       <c r="AH4">
-        <v>0.004560009236555669</v>
+        <v>0.004671456009286453</v>
       </c>
       <c r="AI4">
-        <v>0.004560009026106908</v>
+        <v>0.004671455799134005</v>
       </c>
       <c r="AJ4">
-        <v>1.466495164824897</v>
+        <v>1.502336354837587</v>
       </c>
       <c r="AK4">
-        <v>0.003799888425375519</v>
+        <v>0.003892757821264161</v>
       </c>
       <c r="AL4">
-        <v>0.003799888267054511</v>
+        <v>0.003892757663218184</v>
       </c>
       <c r="AM4">
-        <v>-0.1128805648484792</v>
+        <v>-0.1782140883266747</v>
       </c>
       <c r="AN4">
-        <v>-78.71178230924323</v>
+        <v>-78.77711582026501</v>
       </c>
       <c r="AO4">
-        <v>-78.71178322034994</v>
+        <v>-78.77711671771921</v>
       </c>
       <c r="AP4">
-        <v>-0.0837642909179115</v>
+        <v>-0.1490978143820841</v>
       </c>
       <c r="AQ4">
-        <v>-78.70306657288246</v>
+        <v>-78.76840008407164</v>
       </c>
       <c r="AR4">
-        <v>-78.70306739070122</v>
+        <v>-78.76840089120691</v>
       </c>
     </row>
   </sheetData>
@@ -12190,97 +12190,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.007265317358305621</v>
+        <v>0.007442881952318811</v>
       </c>
       <c r="C2">
-        <v>0.007265318181971155</v>
+        <v>0.007442882777367931</v>
       </c>
       <c r="D2">
-        <v>0.007265316532001927</v>
+        <v>0.007442881127418441</v>
       </c>
       <c r="E2">
-        <v>0.004845065850424247</v>
+        <v>0.004963479418095202</v>
       </c>
       <c r="F2">
-        <v>0.004845066674130816</v>
+        <v>0.004963480243132022</v>
       </c>
       <c r="G2">
-        <v>0.004845065024178003</v>
+        <v>0.004963478593200965</v>
       </c>
       <c r="H2">
-        <v>0.08389265865131622</v>
+        <v>0.08594299797435746</v>
       </c>
       <c r="I2">
-        <v>0.08389266816218657</v>
+        <v>0.08594300750120408</v>
       </c>
       <c r="J2">
-        <v>0.08389264910998302</v>
+        <v>0.08594298844922844</v>
       </c>
       <c r="K2">
-        <v>0.05594600145967804</v>
+        <v>0.05731332356308865</v>
       </c>
       <c r="L2">
-        <v>0.05594601097102223</v>
+        <v>0.05731333308979324</v>
       </c>
       <c r="M2">
-        <v>0.05594599191900822</v>
+        <v>0.05731331403803044</v>
       </c>
       <c r="N2">
-        <v>0.0008430801220338794</v>
+        <v>0.0008847939220897516</v>
       </c>
       <c r="O2">
-        <v>-7.706262351037902E-14</v>
+        <v>-9.195963506815664E-14</v>
       </c>
       <c r="P2">
-        <v>8.768464246494632E-14</v>
+        <v>5.167157264347843E-14</v>
       </c>
       <c r="Q2">
-        <v>-0.000478799619388213</v>
+        <v>-0.0005024897744288783</v>
       </c>
       <c r="R2">
-        <v>0.000208160260210602</v>
+        <v>0.000218459483817056</v>
       </c>
       <c r="S2">
-        <v>0.0002081601811590392</v>
+        <v>0.0002184594028396935</v>
       </c>
       <c r="T2">
-        <v>-0.1229627807283774</v>
+        <v>-0.1290466570505466</v>
       </c>
       <c r="U2">
-        <v>4.95762643158216E-14</v>
+        <v>2.419171355278381E-14</v>
       </c>
       <c r="V2">
-        <v>4.164230791967632E-14</v>
+        <v>4.789952219246863E-14</v>
       </c>
       <c r="W2">
-        <v>0.08204314351866765</v>
+        <v>0.08610242336429981</v>
       </c>
       <c r="X2">
-        <v>4.316501733102472E-05</v>
+        <v>4.530070863123875E-05</v>
       </c>
       <c r="Y2">
-        <v>4.316499837915742E-05</v>
+        <v>4.530068926862589E-05</v>
       </c>
       <c r="Z2">
-        <v>89.66901616984613</v>
+        <v>89.60368246712962</v>
       </c>
       <c r="AA2">
-        <v>89.66901595002871</v>
+        <v>89.60368252256093</v>
       </c>
       <c r="AB2">
-        <v>89.66901587487362</v>
+        <v>89.60368243471274</v>
       </c>
       <c r="AC2">
-        <v>-90.41813575464074</v>
+        <v>-90.48346954692822</v>
       </c>
       <c r="AD2">
-        <v>-90.41813606944712</v>
+        <v>-90.48346944934205</v>
       </c>
       <c r="AE2">
-        <v>-90.4181362118405</v>
+        <v>-90.48346961002721</v>
       </c>
       <c r="AG2">
-        <v>1.465750077683157</v>
+        <v>1.501573057743689</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -12289,16 +12289,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.466495164824897</v>
+        <v>1.502336354837587</v>
       </c>
       <c r="AK2">
-        <v>0.003799888425375519</v>
+        <v>0.003892757821264161</v>
       </c>
       <c r="AL2">
-        <v>0.003799888267054511</v>
+        <v>0.003892757663218184</v>
       </c>
       <c r="AM2">
-        <v>0.06185191722525957</v>
+        <v>-0.003481606196959056</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -12307,13 +12307,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.0837642909179115</v>
+        <v>-0.1490978143820841</v>
       </c>
       <c r="AQ2">
-        <v>-78.70306657288246</v>
+        <v>-78.76840008407164</v>
       </c>
       <c r="AR2">
-        <v>-78.70306739070122</v>
+        <v>-78.76840089120691</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12330,13 +12330,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002422532925010681</v>
+        <v>0.002481739708994067</v>
       </c>
       <c r="F3">
-        <v>0.002422533199582117</v>
+        <v>0.002481739984007391</v>
       </c>
       <c r="G3">
-        <v>0.002422532649595375</v>
+        <v>0.002481739434029312</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -12348,49 +12348,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02797300072751296</v>
+        <v>0.02865666178092616</v>
       </c>
       <c r="L3">
-        <v>0.02797300389799081</v>
+        <v>0.0286566649565065</v>
       </c>
       <c r="M3">
-        <v>0.02797299754729094</v>
+        <v>0.02865665860590666</v>
       </c>
       <c r="N3">
-        <v>-2.509501585466684E-09</v>
+        <v>-2.768302323025638E-09</v>
       </c>
       <c r="O3">
-        <v>1.248721485506526E-11</v>
+        <v>1.280326404688762E-11</v>
       </c>
       <c r="P3">
-        <v>-1.59125587741575E-11</v>
+        <v>-1.629700843983164E-11</v>
       </c>
       <c r="Q3">
-        <v>0.0002393985555407357</v>
+        <v>0.0002512435036663367</v>
       </c>
       <c r="R3">
-        <v>-0.0001040801248979409</v>
+        <v>-0.0001092297365692141</v>
       </c>
       <c r="S3">
-        <v>-0.0001040800972045256</v>
+        <v>-0.0001092297082047943</v>
       </c>
       <c r="T3">
-        <v>-1.0604297162609E-11</v>
+        <v>-1.713960877795209E-11</v>
       </c>
       <c r="U3">
-        <v>1.103265012319653E-11</v>
+        <v>1.128751925604075E-11</v>
       </c>
       <c r="V3">
-        <v>5.363822202672014E-12</v>
+        <v>5.513588491287397E-12</v>
       </c>
       <c r="W3">
-        <v>-0.04102157176324178</v>
+        <v>-0.0430512116892955</v>
       </c>
       <c r="X3">
-        <v>-2.158250406794565E-05</v>
+        <v>-2.265034961160857E-05</v>
       </c>
       <c r="Y3">
-        <v>-2.158249695563389E-05</v>
+        <v>-2.265034233812244E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12402,49 +12402,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>89.58186599702923</v>
+        <v>89.51653229438681</v>
       </c>
       <c r="AD3">
-        <v>89.58186578721676</v>
+        <v>89.51653235956105</v>
       </c>
       <c r="AE3">
-        <v>89.58186569232016</v>
+        <v>89.51653225234625</v>
       </c>
       <c r="AG3">
-        <v>1.466644666579473</v>
+        <v>1.502489510419269</v>
       </c>
       <c r="AH3">
-        <v>0.004560009236555473</v>
+        <v>0.00467145600928617</v>
       </c>
       <c r="AI3">
-        <v>0.004560009026106602</v>
+        <v>0.004671455799133787</v>
       </c>
       <c r="AJ3">
-        <v>1.466495164824897</v>
+        <v>1.502336354837587</v>
       </c>
       <c r="AK3">
-        <v>0.003799888425375519</v>
+        <v>0.003892757821264161</v>
       </c>
       <c r="AL3">
-        <v>0.003799888267054511</v>
+        <v>0.003892757663218184</v>
       </c>
       <c r="AM3">
-        <v>-0.1128805648484732</v>
+        <v>-0.178214088326667</v>
       </c>
       <c r="AN3">
-        <v>-78.71178230924133</v>
+        <v>-78.77711582026156</v>
       </c>
       <c r="AO3">
-        <v>-78.71178322034775</v>
+        <v>-78.77711671771867</v>
       </c>
       <c r="AP3">
-        <v>-0.0837642909179115</v>
+        <v>-0.1490978143820841</v>
       </c>
       <c r="AQ3">
-        <v>-78.70306657288246</v>
+        <v>-78.76840008407164</v>
       </c>
       <c r="AR3">
-        <v>-78.70306739070122</v>
+        <v>-78.76840089120691</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12461,13 +12461,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002422532925011082</v>
+        <v>0.002481739708994071</v>
       </c>
       <c r="F4">
-        <v>0.002422533199581302</v>
+        <v>0.002481739984007405</v>
       </c>
       <c r="G4">
-        <v>0.00242253264959538</v>
+        <v>0.002481739434030949</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -12479,49 +12479,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02797300072751759</v>
+        <v>0.02865666178092621</v>
       </c>
       <c r="L4">
-        <v>0.0279730038979814</v>
+        <v>0.02865666495650666</v>
       </c>
       <c r="M4">
-        <v>0.02797299754729101</v>
+        <v>0.02865665860592556</v>
       </c>
       <c r="N4">
-        <v>-2.509473795821581E-09</v>
+        <v>-2.768295227977545E-09</v>
       </c>
       <c r="O4">
-        <v>1.248720639869181E-11</v>
+        <v>1.280324681978196E-11</v>
       </c>
       <c r="P4">
-        <v>-1.591248672800613E-11</v>
+        <v>-1.629699121272736E-11</v>
       </c>
       <c r="Q4">
-        <v>0.0002393985555198855</v>
+        <v>0.0002512435036734532</v>
       </c>
       <c r="R4">
-        <v>-0.0001040801248978985</v>
+        <v>-0.0001092297365691997</v>
       </c>
       <c r="S4">
-        <v>-0.0001040800972045185</v>
+        <v>-0.0001092297082048702</v>
       </c>
       <c r="T4">
-        <v>-1.0604351912102E-11</v>
+        <v>-1.714674810109754E-11</v>
       </c>
       <c r="U4">
-        <v>1.103269248855449E-11</v>
+        <v>1.128760607727815E-11</v>
       </c>
       <c r="V4">
-        <v>5.3639026634537E-12</v>
+        <v>5.513501670053953E-12</v>
       </c>
       <c r="W4">
-        <v>-0.04102157176324869</v>
+        <v>-0.04305121168929552</v>
       </c>
       <c r="X4">
-        <v>-2.15825040679739E-05</v>
+        <v>-2.265034961168092E-05</v>
       </c>
       <c r="Y4">
-        <v>-2.158249695566919E-05</v>
+        <v>-2.265034233811872E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12533,49 +12533,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>89.5818659970584</v>
+        <v>89.51653229437733</v>
       </c>
       <c r="AD4">
-        <v>89.58186578719722</v>
+        <v>89.51653235952318</v>
       </c>
       <c r="AE4">
-        <v>89.58186569230077</v>
+        <v>89.51653225235604</v>
       </c>
       <c r="AG4">
-        <v>1.466644666579473</v>
+        <v>1.502489510419269</v>
       </c>
       <c r="AH4">
-        <v>0.004560009236555669</v>
+        <v>0.004671456009286453</v>
       </c>
       <c r="AI4">
-        <v>0.004560009026106908</v>
+        <v>0.004671455799134005</v>
       </c>
       <c r="AJ4">
-        <v>1.466495164824897</v>
+        <v>1.502336354837587</v>
       </c>
       <c r="AK4">
-        <v>0.003799888425375519</v>
+        <v>0.003892757821264161</v>
       </c>
       <c r="AL4">
-        <v>0.003799888267054511</v>
+        <v>0.003892757663218184</v>
       </c>
       <c r="AM4">
-        <v>-0.1128805648484792</v>
+        <v>-0.1782140883266747</v>
       </c>
       <c r="AN4">
-        <v>-78.71178230924323</v>
+        <v>-78.77711582026501</v>
       </c>
       <c r="AO4">
-        <v>-78.71178322034994</v>
+        <v>-78.77711671771921</v>
       </c>
       <c r="AP4">
-        <v>-0.0837642909179115</v>
+        <v>-0.1490978143820841</v>
       </c>
       <c r="AQ4">
-        <v>-78.70306657288246</v>
+        <v>-78.76840008407164</v>
       </c>
       <c r="AR4">
-        <v>-78.70306739070122</v>
+        <v>-78.76840089120691</v>
       </c>
     </row>
   </sheetData>
@@ -12730,130 +12730,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.006313903096958257</v>
+        <v>0.007491008900352166</v>
       </c>
       <c r="C2">
-        <v>0.006313903296370738</v>
+        <v>0.007491009086971829</v>
       </c>
       <c r="D2">
-        <v>0.006313902895256811</v>
+        <v>0.00749100871388721</v>
       </c>
       <c r="E2">
-        <v>0.004210590504072666</v>
+        <v>0.004995574125164583</v>
       </c>
       <c r="F2">
-        <v>0.004210590703384589</v>
+        <v>0.004995574311600018</v>
       </c>
       <c r="G2">
-        <v>0.004210590302557719</v>
+        <v>0.004995573938878469</v>
       </c>
       <c r="H2">
-        <v>0.07290667305332123</v>
+        <v>0.08649872010240411</v>
       </c>
       <c r="I2">
-        <v>0.07290667535593821</v>
+        <v>0.08649872225730236</v>
       </c>
       <c r="J2">
-        <v>0.07290667072427355</v>
+        <v>0.08649871794929226</v>
       </c>
       <c r="K2">
-        <v>0.04861971121947271</v>
+        <v>0.05768392131841003</v>
       </c>
       <c r="L2">
-        <v>0.04861971352092857</v>
+        <v>0.05768392347118101</v>
       </c>
       <c r="M2">
-        <v>0.04861970889257854</v>
+        <v>0.05768391916736328</v>
       </c>
       <c r="N2">
-        <v>-0.008277462980855799</v>
+        <v>0.001465201132426981</v>
       </c>
       <c r="O2">
-        <v>-0.04289738398746902</v>
+        <v>-0.05824952272519372</v>
       </c>
       <c r="P2">
-        <v>0.0518115746205282</v>
+        <v>0.05768059239368167</v>
       </c>
       <c r="Q2">
-        <v>0.005573869162433401</v>
+        <v>-0.0008878397014441442</v>
       </c>
       <c r="R2">
-        <v>0.0287838152695248</v>
+        <v>0.03907614738673226</v>
       </c>
       <c r="S2">
-        <v>-0.03440486877142859</v>
+        <v>-0.038254726726497</v>
       </c>
       <c r="T2">
-        <v>-0.1019122978878848</v>
+        <v>-0.1301557671467858</v>
       </c>
       <c r="U2">
-        <v>0.01912521861616048</v>
+        <v>0.009551495213243839</v>
       </c>
       <c r="V2">
-        <v>-0.01007968420661622</v>
+        <v>-0.01011665391904161</v>
       </c>
       <c r="W2">
-        <v>0.06800378448028155</v>
+        <v>0.08684206041013567</v>
       </c>
       <c r="X2">
-        <v>-0.01267802090310058</v>
+        <v>-0.006264680585372097</v>
       </c>
       <c r="Y2">
-        <v>0.006701934975785888</v>
+        <v>0.006733924134948164</v>
       </c>
       <c r="Z2">
-        <v>96.73332084095789</v>
+        <v>89.22424794046634</v>
       </c>
       <c r="AA2">
-        <v>96.73332143721281</v>
+        <v>89.22424886579577</v>
       </c>
       <c r="AB2">
-        <v>96.73331972988156</v>
+        <v>89.22424703817634</v>
       </c>
       <c r="AC2">
-        <v>-83.35383108353679</v>
+        <v>-90.86290407359591</v>
       </c>
       <c r="AD2">
-        <v>-83.3538301853053</v>
+        <v>-90.86290268279045</v>
       </c>
       <c r="AE2">
-        <v>-83.3538327537983</v>
+        <v>-90.86290542986239</v>
       </c>
       <c r="AG2">
-        <v>1.402449113898269</v>
+        <v>1.504808554715956</v>
       </c>
       <c r="AH2">
-        <v>0.6442159557377238</v>
+        <v>0.6824081605820663</v>
       </c>
       <c r="AI2">
-        <v>0.723979638932622</v>
+        <v>0.6770164764431374</v>
       </c>
       <c r="AJ2">
-        <v>1.403377950868109</v>
+        <v>1.50555989904619</v>
       </c>
       <c r="AK2">
-        <v>0.6469019950857109</v>
+        <v>0.6860687560035362</v>
       </c>
       <c r="AL2">
-        <v>0.7209328792848773</v>
+        <v>0.673374613097982</v>
       </c>
       <c r="AM2">
-        <v>2.08986839373881</v>
+        <v>-0.1307841344757353</v>
       </c>
       <c r="AN2">
-        <v>-107.2957348901601</v>
+        <v>-100.0879836322148</v>
       </c>
       <c r="AO2">
-        <v>85.72422595375356</v>
+        <v>79.27626877766022</v>
       </c>
       <c r="AP2">
-        <v>1.96044611190663</v>
+        <v>-0.2771545494997734</v>
       </c>
       <c r="AQ2">
-        <v>-107.1252380855254</v>
+        <v>-99.97104518241568</v>
       </c>
       <c r="AR2">
-        <v>85.62321217307996</v>
+        <v>79.15367855840596</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12870,13 +12870,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002105295251862057</v>
+        <v>0.002497787062529809</v>
       </c>
       <c r="F3">
-        <v>0.002105295318300488</v>
+        <v>0.00249778712467435</v>
       </c>
       <c r="G3">
-        <v>0.002105295184690315</v>
+        <v>0.002497787000434782</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -12888,49 +12888,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02430985560772399</v>
+        <v>0.02884196065859899</v>
       </c>
       <c r="L3">
-        <v>0.02430985637488892</v>
+        <v>0.02884196137618235</v>
       </c>
       <c r="M3">
-        <v>0.02430985483209153</v>
+        <v>0.02884195994158739</v>
       </c>
       <c r="N3">
-        <v>-2.079848859561042E-09</v>
+        <v>-2.792053168507214E-09</v>
       </c>
       <c r="O3">
-        <v>7.769613373722687E-10</v>
+        <v>6.36059765369442E-10</v>
       </c>
       <c r="P3">
-        <v>2.768480723293721E-10</v>
+        <v>2.06035586143465E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.002786935620518077</v>
+        <v>0.0004439184552454875</v>
       </c>
       <c r="R3">
-        <v>-0.01439190724581125</v>
+        <v>-0.01953807337457496</v>
       </c>
       <c r="S3">
-        <v>0.01720243452370561</v>
+        <v>0.01912736346582978</v>
       </c>
       <c r="T3">
-        <v>1.737249970482489E-10</v>
+        <v>-2.951800456100692E-11</v>
       </c>
       <c r="U3">
-        <v>5.303288880615599E-10</v>
+        <v>8.634597142105549E-10</v>
       </c>
       <c r="V3">
-        <v>-1.492071653672135E-09</v>
+        <v>-1.613885426269841E-09</v>
       </c>
       <c r="W3">
-        <v>-0.03400189215212177</v>
+        <v>-0.04342103021842218</v>
       </c>
       <c r="X3">
-        <v>0.006339010715818262</v>
+        <v>0.003132340723473249</v>
       </c>
       <c r="Y3">
-        <v>-0.00335096823418146</v>
+        <v>-0.003366962874892824</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12942,49 +12942,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>96.64617066814669</v>
+        <v>89.13709776777144</v>
       </c>
       <c r="AD3">
-        <v>96.64617126703713</v>
+        <v>89.13709869495915</v>
       </c>
       <c r="AE3">
-        <v>96.64616955471431</v>
+        <v>89.13709686358769</v>
       </c>
       <c r="AG3">
-        <v>1.403564033784853</v>
+        <v>1.505710673132496</v>
       </c>
       <c r="AH3">
-        <v>0.6474403378634274</v>
+        <v>0.6868016077056904</v>
       </c>
       <c r="AI3">
-        <v>0.7203234497725246</v>
+        <v>0.6726462110024209</v>
       </c>
       <c r="AJ3">
-        <v>1.403377950868109</v>
+        <v>1.50555989904619</v>
       </c>
       <c r="AK3">
-        <v>0.6469019950857109</v>
+        <v>0.6860687560035362</v>
       </c>
       <c r="AL3">
-        <v>0.7209328792848773</v>
+        <v>0.673374613097982</v>
       </c>
       <c r="AM3">
-        <v>1.934570420881681</v>
+        <v>-0.3064218236143406</v>
       </c>
       <c r="AN3">
-        <v>-107.0913456454643</v>
+        <v>-99.94785851218536</v>
       </c>
       <c r="AO3">
-        <v>85.60294728385709</v>
+        <v>79.12905319550849</v>
       </c>
       <c r="AP3">
-        <v>1.96044611190663</v>
+        <v>-0.2771545494997734</v>
       </c>
       <c r="AQ3">
-        <v>-107.1252380855254</v>
+        <v>-99.97104518241568</v>
       </c>
       <c r="AR3">
-        <v>85.62321217307996</v>
+        <v>79.15367855840596</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13001,13 +13001,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002105295251862606</v>
+        <v>0.002497787062529001</v>
       </c>
       <c r="F4">
-        <v>0.002105295318299124</v>
+        <v>0.002497787124675152</v>
       </c>
       <c r="G4">
-        <v>0.002105295184690315</v>
+        <v>0.002497787000433974</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13019,49 +13019,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02430985560773034</v>
+        <v>0.02884196065858967</v>
       </c>
       <c r="L4">
-        <v>0.02430985637487316</v>
+        <v>0.02884196137619161</v>
       </c>
       <c r="M4">
-        <v>0.02430985483209153</v>
+        <v>0.02884195994157806</v>
       </c>
       <c r="N4">
-        <v>-2.079822280259683E-09</v>
+        <v>-2.792046112420296E-09</v>
       </c>
       <c r="O4">
-        <v>7.769597579420697E-10</v>
+        <v>6.360639261489989E-10</v>
       </c>
       <c r="P4">
-        <v>2.768480723293717E-10</v>
+        <v>2.060343842898997E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.00278693562053778</v>
+        <v>0.0004439184552598199</v>
       </c>
       <c r="R4">
-        <v>-0.01439190724580517</v>
+        <v>-0.01953807337457968</v>
       </c>
       <c r="S4">
-        <v>0.01720243452370561</v>
+        <v>0.01912736346582471</v>
       </c>
       <c r="T4">
-        <v>1.737258948295487E-10</v>
+        <v>-2.953230745889565E-11</v>
       </c>
       <c r="U4">
-        <v>5.303341865865359E-10</v>
+        <v>8.634457724347877E-10</v>
       </c>
       <c r="V4">
-        <v>-1.492071653672135E-09</v>
+        <v>-1.61389168449549E-09</v>
       </c>
       <c r="W4">
-        <v>-0.03400189215212909</v>
+        <v>-0.04342103021840798</v>
       </c>
       <c r="X4">
-        <v>0.006339010715806771</v>
+        <v>0.003132340723483977</v>
       </c>
       <c r="Y4">
-        <v>-0.00335096823418146</v>
+        <v>-0.003366962874885358</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13073,49 +13073,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>96.64617066817867</v>
+        <v>89.13709776775232</v>
       </c>
       <c r="AD4">
-        <v>96.64617126700774</v>
+        <v>89.13709869498766</v>
       </c>
       <c r="AE4">
-        <v>96.64616955471431</v>
+        <v>89.13709686356857</v>
       </c>
       <c r="AG4">
-        <v>1.403564033784853</v>
+        <v>1.505710673132496</v>
       </c>
       <c r="AH4">
-        <v>0.6474403378634271</v>
+        <v>0.6868016077056901</v>
       </c>
       <c r="AI4">
-        <v>0.7203234497725246</v>
+        <v>0.6726462110024213</v>
       </c>
       <c r="AJ4">
-        <v>1.403377950868109</v>
+        <v>1.50555989904619</v>
       </c>
       <c r="AK4">
-        <v>0.6469019950857109</v>
+        <v>0.6860687560035362</v>
       </c>
       <c r="AL4">
-        <v>0.7209328792848773</v>
+        <v>0.673374613097982</v>
       </c>
       <c r="AM4">
-        <v>1.934570420881684</v>
+        <v>-0.3064218236143348</v>
       </c>
       <c r="AN4">
-        <v>-107.0913456454643</v>
+        <v>-99.94785851218533</v>
       </c>
       <c r="AO4">
-        <v>85.60294728385706</v>
+        <v>79.12905319550848</v>
       </c>
       <c r="AP4">
-        <v>1.96044611190663</v>
+        <v>-0.2771545494997734</v>
       </c>
       <c r="AQ4">
-        <v>-107.1252380855254</v>
+        <v>-99.97104518241568</v>
       </c>
       <c r="AR4">
-        <v>85.62321217307996</v>
+        <v>79.15367855840596</v>
       </c>
     </row>
   </sheetData>
@@ -13270,130 +13270,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.006313903096958257</v>
+        <v>0.007491008900352166</v>
       </c>
       <c r="C2">
-        <v>0.006313903296370738</v>
+        <v>0.007491009086971829</v>
       </c>
       <c r="D2">
-        <v>0.006313902895256811</v>
+        <v>0.00749100871388721</v>
       </c>
       <c r="E2">
-        <v>0.004210590504072666</v>
+        <v>0.004995574125164583</v>
       </c>
       <c r="F2">
-        <v>0.004210590703384589</v>
+        <v>0.004995574311600018</v>
       </c>
       <c r="G2">
-        <v>0.004210590302557719</v>
+        <v>0.004995573938878469</v>
       </c>
       <c r="H2">
-        <v>0.07290667305332123</v>
+        <v>0.08649872010240411</v>
       </c>
       <c r="I2">
-        <v>0.07290667535593821</v>
+        <v>0.08649872225730236</v>
       </c>
       <c r="J2">
-        <v>0.07290667072427355</v>
+        <v>0.08649871794929226</v>
       </c>
       <c r="K2">
-        <v>0.04861971121947271</v>
+        <v>0.05768392131841003</v>
       </c>
       <c r="L2">
-        <v>0.04861971352092857</v>
+        <v>0.05768392347118101</v>
       </c>
       <c r="M2">
-        <v>0.04861970889257854</v>
+        <v>0.05768391916736328</v>
       </c>
       <c r="N2">
-        <v>-0.008277462980855799</v>
+        <v>0.001465201132426981</v>
       </c>
       <c r="O2">
-        <v>-0.04289738398746902</v>
+        <v>-0.05824952272519372</v>
       </c>
       <c r="P2">
-        <v>0.0518115746205282</v>
+        <v>0.05768059239368167</v>
       </c>
       <c r="Q2">
-        <v>0.005573869162433401</v>
+        <v>-0.0008878397014441442</v>
       </c>
       <c r="R2">
-        <v>0.0287838152695248</v>
+        <v>0.03907614738673226</v>
       </c>
       <c r="S2">
-        <v>-0.03440486877142859</v>
+        <v>-0.038254726726497</v>
       </c>
       <c r="T2">
-        <v>-0.1019122978878848</v>
+        <v>-0.1301557671467858</v>
       </c>
       <c r="U2">
-        <v>0.01912521861616048</v>
+        <v>0.009551495213243839</v>
       </c>
       <c r="V2">
-        <v>-0.01007968420661622</v>
+        <v>-0.01011665391904161</v>
       </c>
       <c r="W2">
-        <v>0.06800378448028155</v>
+        <v>0.08684206041013567</v>
       </c>
       <c r="X2">
-        <v>-0.01267802090310058</v>
+        <v>-0.006264680585372097</v>
       </c>
       <c r="Y2">
-        <v>0.006701934975785888</v>
+        <v>0.006733924134948164</v>
       </c>
       <c r="Z2">
-        <v>96.73332084095789</v>
+        <v>89.22424794046634</v>
       </c>
       <c r="AA2">
-        <v>96.73332143721281</v>
+        <v>89.22424886579577</v>
       </c>
       <c r="AB2">
-        <v>96.73331972988156</v>
+        <v>89.22424703817634</v>
       </c>
       <c r="AC2">
-        <v>-83.35383108353679</v>
+        <v>-90.86290407359591</v>
       </c>
       <c r="AD2">
-        <v>-83.3538301853053</v>
+        <v>-90.86290268279045</v>
       </c>
       <c r="AE2">
-        <v>-83.3538327537983</v>
+        <v>-90.86290542986239</v>
       </c>
       <c r="AG2">
-        <v>1.402449113898269</v>
+        <v>1.504808554715956</v>
       </c>
       <c r="AH2">
-        <v>0.6442159557377238</v>
+        <v>0.6824081605820663</v>
       </c>
       <c r="AI2">
-        <v>0.723979638932622</v>
+        <v>0.6770164764431374</v>
       </c>
       <c r="AJ2">
-        <v>1.403377950868109</v>
+        <v>1.50555989904619</v>
       </c>
       <c r="AK2">
-        <v>0.6469019950857109</v>
+        <v>0.6860687560035362</v>
       </c>
       <c r="AL2">
-        <v>0.7209328792848773</v>
+        <v>0.673374613097982</v>
       </c>
       <c r="AM2">
-        <v>2.08986839373881</v>
+        <v>-0.1307841344757353</v>
       </c>
       <c r="AN2">
-        <v>-107.2957348901601</v>
+        <v>-100.0879836322148</v>
       </c>
       <c r="AO2">
-        <v>85.72422595375356</v>
+        <v>79.27626877766022</v>
       </c>
       <c r="AP2">
-        <v>1.96044611190663</v>
+        <v>-0.2771545494997734</v>
       </c>
       <c r="AQ2">
-        <v>-107.1252380855254</v>
+        <v>-99.97104518241568</v>
       </c>
       <c r="AR2">
-        <v>85.62321217307996</v>
+        <v>79.15367855840596</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13410,13 +13410,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002105295251862057</v>
+        <v>0.002497787062529809</v>
       </c>
       <c r="F3">
-        <v>0.002105295318300488</v>
+        <v>0.00249778712467435</v>
       </c>
       <c r="G3">
-        <v>0.002105295184690315</v>
+        <v>0.002497787000434782</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13428,49 +13428,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02430985560772399</v>
+        <v>0.02884196065859899</v>
       </c>
       <c r="L3">
-        <v>0.02430985637488892</v>
+        <v>0.02884196137618235</v>
       </c>
       <c r="M3">
-        <v>0.02430985483209153</v>
+        <v>0.02884195994158739</v>
       </c>
       <c r="N3">
-        <v>-2.079848859561042E-09</v>
+        <v>-2.792053168507214E-09</v>
       </c>
       <c r="O3">
-        <v>7.769613373722687E-10</v>
+        <v>6.36059765369442E-10</v>
       </c>
       <c r="P3">
-        <v>2.768480723293721E-10</v>
+        <v>2.06035586143465E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.002786935620518077</v>
+        <v>0.0004439184552454875</v>
       </c>
       <c r="R3">
-        <v>-0.01439190724581125</v>
+        <v>-0.01953807337457496</v>
       </c>
       <c r="S3">
-        <v>0.01720243452370561</v>
+        <v>0.01912736346582978</v>
       </c>
       <c r="T3">
-        <v>1.737249970482489E-10</v>
+        <v>-2.951800456100692E-11</v>
       </c>
       <c r="U3">
-        <v>5.303288880615599E-10</v>
+        <v>8.634597142105549E-10</v>
       </c>
       <c r="V3">
-        <v>-1.492071653672135E-09</v>
+        <v>-1.613885426269841E-09</v>
       </c>
       <c r="W3">
-        <v>-0.03400189215212177</v>
+        <v>-0.04342103021842218</v>
       </c>
       <c r="X3">
-        <v>0.006339010715818262</v>
+        <v>0.003132340723473249</v>
       </c>
       <c r="Y3">
-        <v>-0.00335096823418146</v>
+        <v>-0.003366962874892824</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13482,49 +13482,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>96.64617066814669</v>
+        <v>89.13709776777144</v>
       </c>
       <c r="AD3">
-        <v>96.64617126703713</v>
+        <v>89.13709869495915</v>
       </c>
       <c r="AE3">
-        <v>96.64616955471431</v>
+        <v>89.13709686358769</v>
       </c>
       <c r="AG3">
-        <v>1.403564033784853</v>
+        <v>1.505710673132496</v>
       </c>
       <c r="AH3">
-        <v>0.6474403378634274</v>
+        <v>0.6868016077056904</v>
       </c>
       <c r="AI3">
-        <v>0.7203234497725246</v>
+        <v>0.6726462110024209</v>
       </c>
       <c r="AJ3">
-        <v>1.403377950868109</v>
+        <v>1.50555989904619</v>
       </c>
       <c r="AK3">
-        <v>0.6469019950857109</v>
+        <v>0.6860687560035362</v>
       </c>
       <c r="AL3">
-        <v>0.7209328792848773</v>
+        <v>0.673374613097982</v>
       </c>
       <c r="AM3">
-        <v>1.934570420881681</v>
+        <v>-0.3064218236143406</v>
       </c>
       <c r="AN3">
-        <v>-107.0913456454643</v>
+        <v>-99.94785851218536</v>
       </c>
       <c r="AO3">
-        <v>85.60294728385709</v>
+        <v>79.12905319550849</v>
       </c>
       <c r="AP3">
-        <v>1.96044611190663</v>
+        <v>-0.2771545494997734</v>
       </c>
       <c r="AQ3">
-        <v>-107.1252380855254</v>
+        <v>-99.97104518241568</v>
       </c>
       <c r="AR3">
-        <v>85.62321217307996</v>
+        <v>79.15367855840596</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13541,13 +13541,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002105295251862606</v>
+        <v>0.002497787062529001</v>
       </c>
       <c r="F4">
-        <v>0.002105295318299124</v>
+        <v>0.002497787124675152</v>
       </c>
       <c r="G4">
-        <v>0.002105295184690315</v>
+        <v>0.002497787000433974</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13559,49 +13559,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02430985560773034</v>
+        <v>0.02884196065858967</v>
       </c>
       <c r="L4">
-        <v>0.02430985637487316</v>
+        <v>0.02884196137619161</v>
       </c>
       <c r="M4">
-        <v>0.02430985483209153</v>
+        <v>0.02884195994157806</v>
       </c>
       <c r="N4">
-        <v>-2.079822280259683E-09</v>
+        <v>-2.792046112420296E-09</v>
       </c>
       <c r="O4">
-        <v>7.769597579420697E-10</v>
+        <v>6.360639261489989E-10</v>
       </c>
       <c r="P4">
-        <v>2.768480723293717E-10</v>
+        <v>2.060343842898997E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.00278693562053778</v>
+        <v>0.0004439184552598199</v>
       </c>
       <c r="R4">
-        <v>-0.01439190724580517</v>
+        <v>-0.01953807337457968</v>
       </c>
       <c r="S4">
-        <v>0.01720243452370561</v>
+        <v>0.01912736346582471</v>
       </c>
       <c r="T4">
-        <v>1.737258948295487E-10</v>
+        <v>-2.953230745889565E-11</v>
       </c>
       <c r="U4">
-        <v>5.303341865865359E-10</v>
+        <v>8.634457724347877E-10</v>
       </c>
       <c r="V4">
-        <v>-1.492071653672135E-09</v>
+        <v>-1.61389168449549E-09</v>
       </c>
       <c r="W4">
-        <v>-0.03400189215212909</v>
+        <v>-0.04342103021840798</v>
       </c>
       <c r="X4">
-        <v>0.006339010715806771</v>
+        <v>0.003132340723483977</v>
       </c>
       <c r="Y4">
-        <v>-0.00335096823418146</v>
+        <v>-0.003366962874885358</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13613,49 +13613,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>96.64617066817867</v>
+        <v>89.13709776775232</v>
       </c>
       <c r="AD4">
-        <v>96.64617126700774</v>
+        <v>89.13709869498766</v>
       </c>
       <c r="AE4">
-        <v>96.64616955471431</v>
+        <v>89.13709686356857</v>
       </c>
       <c r="AG4">
-        <v>1.403564033784853</v>
+        <v>1.505710673132496</v>
       </c>
       <c r="AH4">
-        <v>0.6474403378634271</v>
+        <v>0.6868016077056901</v>
       </c>
       <c r="AI4">
-        <v>0.7203234497725246</v>
+        <v>0.6726462110024213</v>
       </c>
       <c r="AJ4">
-        <v>1.403377950868109</v>
+        <v>1.50555989904619</v>
       </c>
       <c r="AK4">
-        <v>0.6469019950857109</v>
+        <v>0.6860687560035362</v>
       </c>
       <c r="AL4">
-        <v>0.7209328792848773</v>
+        <v>0.673374613097982</v>
       </c>
       <c r="AM4">
-        <v>1.934570420881684</v>
+        <v>-0.3064218236143348</v>
       </c>
       <c r="AN4">
-        <v>-107.0913456454643</v>
+        <v>-99.94785851218533</v>
       </c>
       <c r="AO4">
-        <v>85.60294728385706</v>
+        <v>79.12905319550848</v>
       </c>
       <c r="AP4">
-        <v>1.96044611190663</v>
+        <v>-0.2771545494997734</v>
       </c>
       <c r="AQ4">
-        <v>-107.1252380855254</v>
+        <v>-99.97104518241568</v>
       </c>
       <c r="AR4">
-        <v>85.62321217307996</v>
+        <v>79.15367855840596</v>
       </c>
     </row>
   </sheetData>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-5.731711525980114E-14</v>
+        <v>3.647452789260253E-14</v>
       </c>
       <c r="O2">
-        <v>1.042129505755642E-14</v>
+        <v>1.042129267725576E-14</v>
       </c>
       <c r="P2">
-        <v>-5.210646169364807E-15</v>
+        <v>-2.605323124934459E-14</v>
       </c>
       <c r="Q2">
-        <v>4.689582157620096E-14</v>
+        <v>-3.126388105080202E-14</v>
       </c>
       <c r="R2">
-        <v>5.211073717253251E-15</v>
+        <v>-5.210217581284991E-15</v>
       </c>
       <c r="S2">
-        <v>5.211074414043516E-15</v>
+        <v>2.605365949383843E-14</v>
       </c>
       <c r="T2">
-        <v>-8.084889041759081E-28</v>
+        <v>-5.210646841807386E-15</v>
       </c>
       <c r="U2">
-        <v>5.763387048127351E-09</v>
+        <v>5.763405285390421E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763381837488448E-09</v>
+        <v>-5.763397469428091E-09</v>
       </c>
       <c r="W2">
-        <v>6.632358697371592E-28</v>
+        <v>5.210646841806417E-15</v>
       </c>
       <c r="X2">
-        <v>-5.76338965296487E-09</v>
+        <v>-5.763394863610842E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763376627327497E-09</v>
+        <v>5.763397469913991E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15022,40 +15022,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023832353</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AG2">
-        <v>0.5500000119157885</v>
+        <v>0.550000011915705</v>
       </c>
       <c r="AH2">
-        <v>0.5500000119165461</v>
+        <v>0.5500000119164619</v>
       </c>
       <c r="AI2">
-        <v>1.100000023832354</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000118694189</v>
+        <v>0.550000011869336</v>
       </c>
       <c r="AK2">
-        <v>0.5500000119629148</v>
+        <v>0.5500000119628315</v>
       </c>
       <c r="AL2">
-        <v>8.081879519313969E-13</v>
+        <v>-1.081315333129462E-11</v>
       </c>
       <c r="AM2">
-        <v>179.999999999979</v>
+        <v>-179.9999999999827</v>
       </c>
       <c r="AN2">
-        <v>-179.999999999986</v>
+        <v>-179.9999999999633</v>
       </c>
       <c r="AO2">
-        <v>8.10319872440639E-13</v>
+        <v>-1.084362856715424E-11</v>
       </c>
       <c r="AP2">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957253</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999957421</v>
+        <v>179.9999999957648</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15099,40 +15099,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-3.126388105080085E-14</v>
+        <v>-5.210646841798526E-15</v>
       </c>
       <c r="O3">
-        <v>1.898741632292041E-19</v>
+        <v>1.906697927503185E-19</v>
       </c>
       <c r="P3">
-        <v>-5.210456734256886E-15</v>
+        <v>-1.563175118106621E-14</v>
       </c>
       <c r="Q3">
-        <v>2.084258736720057E-14</v>
+        <v>1.042129368359903E-14</v>
       </c>
       <c r="R3">
-        <v>1.563179823236329E-14</v>
+        <v>5.210503753889708E-15</v>
       </c>
       <c r="S3">
-        <v>5.210504317278516E-15</v>
+        <v>5.210505080853489E-15</v>
       </c>
       <c r="T3">
-        <v>1.563194052539988E-14</v>
+        <v>1.042129368360198E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921129015826495E-09</v>
+        <v>-1.921131621149626E-09</v>
       </c>
       <c r="V3">
-        <v>1.921134226907892E-09</v>
+        <v>1.92114985884813E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368359992E-14</v>
+        <v>-1.042129368360297E-14</v>
       </c>
       <c r="X3">
-        <v>1.921126410557064E-09</v>
+        <v>1.921142042497297E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921139437500746E-09</v>
+        <v>-1.921139437500455E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15153,40 +15153,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023832354</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AG3">
-        <v>0.5500000118539626</v>
+        <v>0.5500000118538797</v>
       </c>
       <c r="AH3">
-        <v>0.5500000119783711</v>
+        <v>0.550000011978288</v>
       </c>
       <c r="AI3">
-        <v>1.100000023832354</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000118694189</v>
+        <v>0.550000011869336</v>
       </c>
       <c r="AK3">
-        <v>0.5500000119629148</v>
+        <v>0.5500000119628315</v>
       </c>
       <c r="AL3">
-        <v>8.095782706833372E-13</v>
+        <v>-1.084680021540948E-11</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999943299</v>
+        <v>-179.9999999943062</v>
       </c>
       <c r="AN3">
-        <v>179.9999999943229</v>
+        <v>179.9999999943457</v>
       </c>
       <c r="AO3">
-        <v>8.10319872440639E-13</v>
+        <v>-1.084362856715424E-11</v>
       </c>
       <c r="AP3">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957253</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999957421</v>
+        <v>179.9999999957648</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.084258736720065E-14</v>
+        <v>-1.0421293683601E-14</v>
       </c>
       <c r="O4">
-        <v>-1.042110380967594E-14</v>
+        <v>-1.042110301404916E-14</v>
       </c>
       <c r="P4">
-        <v>1.563213063388139E-14</v>
+        <v>5.21083618527035E-15</v>
       </c>
       <c r="Q4">
-        <v>1.042129368360028E-14</v>
+        <v>1.042129368360001E-14</v>
       </c>
       <c r="R4">
-        <v>2.605309191507755E-14</v>
+        <v>1.563179743737857E-14</v>
       </c>
       <c r="S4">
-        <v>-1.563208305091994E-14</v>
+        <v>-5.210788602092748E-15</v>
       </c>
       <c r="T4">
-        <v>1.563194052540002E-14</v>
+        <v>1.973393925479417E-27</v>
       </c>
       <c r="U4">
-        <v>-1.921118594532813E-09</v>
+        <v>-1.921121199855945E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123805614206E-09</v>
+        <v>1.921129016260758E-09</v>
       </c>
       <c r="W4">
-        <v>-5.210646841799958E-15</v>
+        <v>-5.210646841802472E-15</v>
       </c>
       <c r="X4">
-        <v>1.921126410557065E-09</v>
+        <v>1.921131621203615E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.92112901620706E-09</v>
+        <v>-1.921118594913085E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15284,40 +15284,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023832354</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AG4">
-        <v>0.5500000118539626</v>
+        <v>0.5500000118538798</v>
       </c>
       <c r="AH4">
-        <v>0.5500000119783712</v>
+        <v>0.5500000119782881</v>
       </c>
       <c r="AI4">
-        <v>1.100000023832354</v>
+        <v>1.100000023832437</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000118694189</v>
+        <v>0.550000011869336</v>
       </c>
       <c r="AK4">
-        <v>0.5500000119629148</v>
+        <v>0.5500000119628315</v>
       </c>
       <c r="AL4">
-        <v>8.11411430098225E-13</v>
+        <v>-1.084962641678961E-11</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999943299</v>
+        <v>-179.9999999943062</v>
       </c>
       <c r="AN4">
-        <v>179.9999999943229</v>
+        <v>179.9999999943457</v>
       </c>
       <c r="AO4">
-        <v>8.10319872440639E-13</v>
+        <v>-1.084362856715424E-11</v>
       </c>
       <c r="AP4">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957253</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999957421</v>
+        <v>179.9999999957648</v>
       </c>
     </row>
   </sheetData>
